--- a/01_input/ppp_results_florian_final_2025_02_14.xlsx
+++ b/01_input/ppp_results_florian_final_2025_02_14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucnmuni-my.sharepoint.com/personal/150537_muni_cz/Documents/Plocha/Rcx/6_Analytika/Stážisti/Výsledky/2025_01_Florian/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/01_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="83" documentId="8_{4906466F-4855-49E0-A53F-BB0CA239825D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{642FBCBF-4668-4AED-B1B8-8AA3BBBB0D60}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positive" sheetId="1" r:id="rId1"/>
@@ -1144,8 +1144,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
     <cellStyle name="Normální 2" xfId="1" xr:uid="{8A6B3E42-3139-40EE-BAB5-350146CD222C}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -6965,20 +6965,20 @@
   <dimension ref="A1:ES37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="DG4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AK4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BM32" sqref="BM32:BM33"/>
+      <selection pane="bottomRight" activeCell="BC3" sqref="BC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="11" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="2" customWidth="1"/>
-    <col min="2" max="149" width="6.42578125" style="2" customWidth="1"/>
-    <col min="150" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="12.54296875" style="2" customWidth="1"/>
+    <col min="2" max="149" width="6.40625" style="2" customWidth="1"/>
+    <col min="150" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:149" s="11" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:149" s="11" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:149" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:149" ht="12" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
@@ -16407,7 +16407,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
@@ -19101,7 +19101,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
@@ -19550,7 +19550,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A29" s="6" t="s">
         <v>21</v>
       </c>
@@ -19999,7 +19999,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A30" s="6" t="s">
         <v>35</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
@@ -20897,7 +20897,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
@@ -21795,7 +21795,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A34" s="6" t="s">
         <v>14</v>
       </c>
@@ -22244,7 +22244,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A36" s="6" t="s">
         <v>2</v>
       </c>
@@ -23142,7 +23142,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A37" s="6" t="s">
         <v>11</v>
       </c>
@@ -23609,17 +23609,17 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="11" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="5" customWidth="1"/>
-    <col min="2" max="16" width="7.7109375" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="12.40625" style="5" customWidth="1"/>
+    <col min="2" max="16" width="7.7265625" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9.1328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -23669,7 +23669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>157</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="10" t="s">
         <v>156</v>
       </c>
@@ -23769,7 +23769,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
@@ -23819,7 +23819,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
@@ -23919,7 +23919,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>58</v>
       </c>
@@ -23969,7 +23969,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
@@ -24019,7 +24019,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
@@ -24069,7 +24069,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
         <v>61</v>
       </c>
@@ -24119,7 +24119,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>62</v>
       </c>
@@ -24169,7 +24169,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>63</v>
       </c>
@@ -24219,7 +24219,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>64</v>
       </c>
@@ -24269,7 +24269,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
         <v>65</v>
       </c>
@@ -24319,7 +24319,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
         <v>66</v>
       </c>
@@ -24369,7 +24369,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
@@ -24419,7 +24419,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
         <v>68</v>
       </c>
@@ -24469,7 +24469,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
         <v>69</v>
       </c>
@@ -24519,7 +24519,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
         <v>70</v>
       </c>
@@ -24569,7 +24569,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
         <v>71</v>
       </c>
@@ -24619,7 +24619,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
         <v>72</v>
       </c>
@@ -24669,7 +24669,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
         <v>73</v>
       </c>
@@ -24719,7 +24719,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
         <v>74</v>
       </c>
@@ -24769,7 +24769,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A24" s="6" t="s">
         <v>75</v>
       </c>
@@ -24819,7 +24819,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
         <v>76</v>
       </c>
@@ -24869,7 +24869,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
         <v>77</v>
       </c>
@@ -24919,7 +24919,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
         <v>78</v>
       </c>
@@ -24969,7 +24969,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A28" s="6" t="s">
         <v>79</v>
       </c>
@@ -25019,7 +25019,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A29" s="6" t="s">
         <v>80</v>
       </c>
@@ -25069,7 +25069,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A30" s="6" t="s">
         <v>81</v>
       </c>
@@ -25119,7 +25119,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A31" s="6" t="s">
         <v>82</v>
       </c>
@@ -25169,7 +25169,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A32" s="6" t="s">
         <v>83</v>
       </c>
@@ -25219,7 +25219,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A33" s="6" t="s">
         <v>84</v>
       </c>
@@ -25269,7 +25269,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A34" s="6" t="s">
         <v>85</v>
       </c>
@@ -25319,7 +25319,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A35" s="6" t="s">
         <v>86</v>
       </c>
@@ -25369,7 +25369,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A36" s="6" t="s">
         <v>87</v>
       </c>
@@ -25419,7 +25419,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A37" s="6" t="s">
         <v>88</v>
       </c>
@@ -25469,7 +25469,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A38" s="6" t="s">
         <v>89</v>
       </c>
@@ -25535,14 +25535,14 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="11" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="6.85546875" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="10.86328125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="6.86328125" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -25553,7 +25553,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -25564,7 +25564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>38</v>
@@ -25573,7 +25573,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>92</v>
       </c>
@@ -25584,7 +25584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>93</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>94</v>
       </c>
@@ -25606,7 +25606,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>95</v>
       </c>
@@ -25617,7 +25617,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>96</v>
       </c>
@@ -25628,7 +25628,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>97</v>
       </c>
@@ -25639,7 +25639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
         <v>98</v>
       </c>
@@ -25650,7 +25650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>99</v>
       </c>
@@ -25661,7 +25661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>100</v>
       </c>
@@ -25672,7 +25672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>101</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
         <v>102</v>
       </c>
@@ -25694,7 +25694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
         <v>103</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
         <v>104</v>
       </c>
@@ -25716,7 +25716,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
         <v>105</v>
       </c>
@@ -25727,7 +25727,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
         <v>106</v>
       </c>
@@ -25738,7 +25738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
         <v>107</v>
       </c>
@@ -25749,7 +25749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
         <v>108</v>
       </c>
@@ -25760,7 +25760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
         <v>109</v>
       </c>
@@ -25771,7 +25771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
         <v>110</v>
       </c>
@@ -25782,7 +25782,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
         <v>111</v>
       </c>
@@ -25793,7 +25793,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="6" t="s">
         <v>112</v>
       </c>
@@ -25804,7 +25804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
         <v>113</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
         <v>114</v>
       </c>
@@ -25826,7 +25826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
         <v>115</v>
       </c>
@@ -25837,7 +25837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="6" t="s">
         <v>116</v>
       </c>
@@ -25848,7 +25848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="6" t="s">
         <v>117</v>
       </c>
@@ -25859,7 +25859,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="6" t="s">
         <v>118</v>
       </c>
@@ -25870,7 +25870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="6" t="s">
         <v>119</v>
       </c>
@@ -25881,7 +25881,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="6" t="s">
         <v>120</v>
       </c>
@@ -25892,7 +25892,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A33" s="6" t="s">
         <v>121</v>
       </c>
@@ -25903,7 +25903,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A34" s="6" t="s">
         <v>122</v>
       </c>
@@ -25914,7 +25914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A35" s="6" t="s">
         <v>123</v>
       </c>
@@ -25925,7 +25925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A36" s="6" t="s">
         <v>124</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A37" s="6" t="s">
         <v>125</v>
       </c>
@@ -25947,7 +25947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A38" s="6" t="s">
         <v>126</v>
       </c>
@@ -25974,139 +25974,139 @@
       <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="256" width="8.7109375" style="13"/>
-    <col min="257" max="257" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="258" max="512" width="8.7109375" style="13"/>
-    <col min="513" max="513" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="514" max="768" width="8.7109375" style="13"/>
-    <col min="769" max="769" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="770" max="1024" width="8.7109375" style="13"/>
-    <col min="1025" max="1025" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1280" width="8.7109375" style="13"/>
-    <col min="1281" max="1281" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1536" width="8.7109375" style="13"/>
-    <col min="1537" max="1537" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1792" width="8.7109375" style="13"/>
-    <col min="1793" max="1793" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1794" max="2048" width="8.7109375" style="13"/>
-    <col min="2049" max="2049" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2304" width="8.7109375" style="13"/>
-    <col min="2305" max="2305" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2560" width="8.7109375" style="13"/>
-    <col min="2561" max="2561" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2816" width="8.7109375" style="13"/>
-    <col min="2817" max="2817" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2818" max="3072" width="8.7109375" style="13"/>
-    <col min="3073" max="3073" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3328" width="8.7109375" style="13"/>
-    <col min="3329" max="3329" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3584" width="8.7109375" style="13"/>
-    <col min="3585" max="3585" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3840" width="8.7109375" style="13"/>
-    <col min="3841" max="3841" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3842" max="4096" width="8.7109375" style="13"/>
-    <col min="4097" max="4097" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4352" width="8.7109375" style="13"/>
-    <col min="4353" max="4353" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4608" width="8.7109375" style="13"/>
-    <col min="4609" max="4609" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4864" width="8.7109375" style="13"/>
-    <col min="4865" max="4865" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4866" max="5120" width="8.7109375" style="13"/>
-    <col min="5121" max="5121" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5376" width="8.7109375" style="13"/>
-    <col min="5377" max="5377" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5632" width="8.7109375" style="13"/>
-    <col min="5633" max="5633" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5888" width="8.7109375" style="13"/>
-    <col min="5889" max="5889" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5890" max="6144" width="8.7109375" style="13"/>
-    <col min="6145" max="6145" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6400" width="8.7109375" style="13"/>
-    <col min="6401" max="6401" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6656" width="8.7109375" style="13"/>
-    <col min="6657" max="6657" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6912" width="8.7109375" style="13"/>
-    <col min="6913" max="6913" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6914" max="7168" width="8.7109375" style="13"/>
-    <col min="7169" max="7169" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7424" width="8.7109375" style="13"/>
-    <col min="7425" max="7425" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7680" width="8.7109375" style="13"/>
-    <col min="7681" max="7681" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7936" width="8.7109375" style="13"/>
-    <col min="7937" max="7937" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7938" max="8192" width="8.7109375" style="13"/>
-    <col min="8193" max="8193" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8448" width="8.7109375" style="13"/>
-    <col min="8449" max="8449" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8704" width="8.7109375" style="13"/>
-    <col min="8705" max="8705" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8960" width="8.7109375" style="13"/>
-    <col min="8961" max="8961" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8962" max="9216" width="8.7109375" style="13"/>
-    <col min="9217" max="9217" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9472" width="8.7109375" style="13"/>
-    <col min="9473" max="9473" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9728" width="8.7109375" style="13"/>
-    <col min="9729" max="9729" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9984" width="8.7109375" style="13"/>
-    <col min="9985" max="9985" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9986" max="10240" width="8.7109375" style="13"/>
-    <col min="10241" max="10241" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10496" width="8.7109375" style="13"/>
-    <col min="10497" max="10497" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10752" width="8.7109375" style="13"/>
-    <col min="10753" max="10753" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10754" max="11008" width="8.7109375" style="13"/>
-    <col min="11009" max="11009" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11264" width="8.7109375" style="13"/>
-    <col min="11265" max="11265" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11520" width="8.7109375" style="13"/>
-    <col min="11521" max="11521" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11776" width="8.7109375" style="13"/>
-    <col min="11777" max="11777" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11778" max="12032" width="8.7109375" style="13"/>
-    <col min="12033" max="12033" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12288" width="8.7109375" style="13"/>
-    <col min="12289" max="12289" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12544" width="8.7109375" style="13"/>
-    <col min="12545" max="12545" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12800" width="8.7109375" style="13"/>
-    <col min="12801" max="12801" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12802" max="13056" width="8.7109375" style="13"/>
-    <col min="13057" max="13057" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13312" width="8.7109375" style="13"/>
-    <col min="13313" max="13313" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13568" width="8.7109375" style="13"/>
-    <col min="13569" max="13569" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13824" width="8.7109375" style="13"/>
-    <col min="13825" max="13825" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13826" max="14080" width="8.7109375" style="13"/>
-    <col min="14081" max="14081" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14336" width="8.7109375" style="13"/>
-    <col min="14337" max="14337" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14592" width="8.7109375" style="13"/>
-    <col min="14593" max="14593" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14848" width="8.7109375" style="13"/>
-    <col min="14849" max="14849" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14850" max="15104" width="8.7109375" style="13"/>
-    <col min="15105" max="15105" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15360" width="8.7109375" style="13"/>
-    <col min="15361" max="15361" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15616" width="8.7109375" style="13"/>
-    <col min="15617" max="15617" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15872" width="8.7109375" style="13"/>
-    <col min="15873" max="15873" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15874" max="16128" width="8.7109375" style="13"/>
-    <col min="16129" max="16129" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16384" width="8.7109375" style="13"/>
+    <col min="1" max="1" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="256" width="8.7265625" style="13"/>
+    <col min="257" max="257" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="258" max="512" width="8.7265625" style="13"/>
+    <col min="513" max="513" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="514" max="768" width="8.7265625" style="13"/>
+    <col min="769" max="769" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="770" max="1024" width="8.7265625" style="13"/>
+    <col min="1025" max="1025" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1280" width="8.7265625" style="13"/>
+    <col min="1281" max="1281" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1536" width="8.7265625" style="13"/>
+    <col min="1537" max="1537" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1792" width="8.7265625" style="13"/>
+    <col min="1793" max="1793" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1794" max="2048" width="8.7265625" style="13"/>
+    <col min="2049" max="2049" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2304" width="8.7265625" style="13"/>
+    <col min="2305" max="2305" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2560" width="8.7265625" style="13"/>
+    <col min="2561" max="2561" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2816" width="8.7265625" style="13"/>
+    <col min="2817" max="2817" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2818" max="3072" width="8.7265625" style="13"/>
+    <col min="3073" max="3073" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3328" width="8.7265625" style="13"/>
+    <col min="3329" max="3329" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3584" width="8.7265625" style="13"/>
+    <col min="3585" max="3585" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3840" width="8.7265625" style="13"/>
+    <col min="3841" max="3841" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3842" max="4096" width="8.7265625" style="13"/>
+    <col min="4097" max="4097" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4352" width="8.7265625" style="13"/>
+    <col min="4353" max="4353" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4608" width="8.7265625" style="13"/>
+    <col min="4609" max="4609" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4864" width="8.7265625" style="13"/>
+    <col min="4865" max="4865" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4866" max="5120" width="8.7265625" style="13"/>
+    <col min="5121" max="5121" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5376" width="8.7265625" style="13"/>
+    <col min="5377" max="5377" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5632" width="8.7265625" style="13"/>
+    <col min="5633" max="5633" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5888" width="8.7265625" style="13"/>
+    <col min="5889" max="5889" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5890" max="6144" width="8.7265625" style="13"/>
+    <col min="6145" max="6145" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6400" width="8.7265625" style="13"/>
+    <col min="6401" max="6401" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6656" width="8.7265625" style="13"/>
+    <col min="6657" max="6657" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6912" width="8.7265625" style="13"/>
+    <col min="6913" max="6913" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6914" max="7168" width="8.7265625" style="13"/>
+    <col min="7169" max="7169" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7424" width="8.7265625" style="13"/>
+    <col min="7425" max="7425" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7680" width="8.7265625" style="13"/>
+    <col min="7681" max="7681" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7936" width="8.7265625" style="13"/>
+    <col min="7937" max="7937" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7938" max="8192" width="8.7265625" style="13"/>
+    <col min="8193" max="8193" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8448" width="8.7265625" style="13"/>
+    <col min="8449" max="8449" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8704" width="8.7265625" style="13"/>
+    <col min="8705" max="8705" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8960" width="8.7265625" style="13"/>
+    <col min="8961" max="8961" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8962" max="9216" width="8.7265625" style="13"/>
+    <col min="9217" max="9217" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9472" width="8.7265625" style="13"/>
+    <col min="9473" max="9473" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9728" width="8.7265625" style="13"/>
+    <col min="9729" max="9729" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9984" width="8.7265625" style="13"/>
+    <col min="9985" max="9985" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9986" max="10240" width="8.7265625" style="13"/>
+    <col min="10241" max="10241" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10496" width="8.7265625" style="13"/>
+    <col min="10497" max="10497" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10752" width="8.7265625" style="13"/>
+    <col min="10753" max="10753" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10754" max="11008" width="8.7265625" style="13"/>
+    <col min="11009" max="11009" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11264" width="8.7265625" style="13"/>
+    <col min="11265" max="11265" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11520" width="8.7265625" style="13"/>
+    <col min="11521" max="11521" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11776" width="8.7265625" style="13"/>
+    <col min="11777" max="11777" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11778" max="12032" width="8.7265625" style="13"/>
+    <col min="12033" max="12033" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12288" width="8.7265625" style="13"/>
+    <col min="12289" max="12289" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12544" width="8.7265625" style="13"/>
+    <col min="12545" max="12545" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12800" width="8.7265625" style="13"/>
+    <col min="12801" max="12801" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12802" max="13056" width="8.7265625" style="13"/>
+    <col min="13057" max="13057" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13312" width="8.7265625" style="13"/>
+    <col min="13313" max="13313" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13568" width="8.7265625" style="13"/>
+    <col min="13569" max="13569" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13824" width="8.7265625" style="13"/>
+    <col min="13825" max="13825" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13826" max="14080" width="8.7265625" style="13"/>
+    <col min="14081" max="14081" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14336" width="8.7265625" style="13"/>
+    <col min="14337" max="14337" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14592" width="8.7265625" style="13"/>
+    <col min="14593" max="14593" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14848" width="8.7265625" style="13"/>
+    <col min="14849" max="14849" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14850" max="15104" width="8.7265625" style="13"/>
+    <col min="15105" max="15105" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15360" width="8.7265625" style="13"/>
+    <col min="15361" max="15361" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15616" width="8.7265625" style="13"/>
+    <col min="15617" max="15617" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15872" width="8.7265625" style="13"/>
+    <col min="15873" max="15873" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15874" max="16128" width="8.7265625" style="13"/>
+    <col min="16129" max="16129" width="31.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16384" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A1" s="12" t="s">
         <v>127</v>
       </c>
@@ -26251,7 +26251,7 @@
         <v>6_2_3_MR</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A2" s="13" t="s">
         <v>128</v>
       </c>
@@ -26269,134 +26269,134 @@
       </c>
       <c r="E2" s="13" t="str">
         <f>IF([1]raw_data!E2&gt;[1]LOQ!E2,ROUND(([1]raw_data!E2/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E2/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,003</v>
+        <v>&lt;0.003</v>
       </c>
       <c r="F2" s="13" t="str">
         <f>IF([1]raw_data!F2&gt;[1]LOQ!F2,ROUND(([1]raw_data!F2/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F2/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,064</v>
+        <v>&lt;0.064</v>
       </c>
       <c r="G2" s="13" t="str">
         <f>IF([1]raw_data!G2&gt;[1]LOQ!G2,ROUND(([1]raw_data!G2/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G2/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,003</v>
+        <v>&lt;0.003</v>
       </c>
       <c r="H2" s="13" t="str">
         <f>IF([1]raw_data!H2&gt;[1]LOQ!H2,ROUND(([1]raw_data!H2/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H2/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,054</v>
+        <v>&lt;0.054</v>
       </c>
       <c r="I2" s="13" t="str">
         <f>IF([1]raw_data!I2&gt;[1]LOQ!I2,ROUND(([1]raw_data!I2/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I2/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,041</v>
+        <v>&lt;0.041</v>
       </c>
       <c r="J2" s="13" t="str">
         <f>IF([1]raw_data!J2&gt;[1]LOQ!J2,ROUND(([1]raw_data!J2/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J2/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,037</v>
+        <v>&lt;0.037</v>
       </c>
       <c r="K2" s="13" t="str">
         <f>IF([1]raw_data!K2&gt;[1]LOQ!K2,ROUND(([1]raw_data!K2/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K2/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,054</v>
+        <v>&lt;0.054</v>
       </c>
       <c r="L2" s="13" t="str">
         <f>IF([1]raw_data!L2&gt;[1]LOQ!L2,ROUND(([1]raw_data!L2/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L2/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,066</v>
+        <v>&lt;0.066</v>
       </c>
       <c r="M2" s="13" t="str">
         <f>IF([1]raw_data!M2&gt;[1]LOQ!M2,ROUND(([1]raw_data!M2/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M2/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,055</v>
+        <v>&lt;0.055</v>
       </c>
       <c r="N2" s="13" t="str">
         <f>IF([1]raw_data!N2&gt;[1]LOQ!N2,ROUND(([1]raw_data!N2/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N2/[1]raw_data!N$37),3))))</f>
-        <v>&lt;0,191</v>
+        <v>&lt;0.191</v>
       </c>
       <c r="O2" s="13" t="str">
         <f>IF([1]raw_data!O2&gt;[1]LOQ!O2,ROUND(([1]raw_data!O2/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O2/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,065</v>
+        <v>&lt;0.065</v>
       </c>
       <c r="P2" s="13" t="str">
         <f>IF([1]raw_data!P2&gt;[1]LOQ!P2,ROUND(([1]raw_data!P2/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P2/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,048</v>
+        <v>&lt;0.048</v>
       </c>
       <c r="Q2" s="13" t="str">
         <f>IF([1]raw_data!Q2&gt;[1]LOQ!Q2,ROUND(([1]raw_data!Q2/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q2/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,144</v>
+        <v>&lt;0.144</v>
       </c>
       <c r="R2" s="13" t="str">
         <f>IF([1]raw_data!R2&gt;[1]LOQ!R2,ROUND(([1]raw_data!R2/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R2/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,002</v>
+        <v>&lt;0.002</v>
       </c>
       <c r="S2" s="13" t="str">
         <f>IF([1]raw_data!S2&gt;[1]LOQ!S2,ROUND(([1]raw_data!S2/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S2/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,004</v>
+        <v>&lt;0.004</v>
       </c>
       <c r="T2" s="13" t="str">
         <f>IF([1]raw_data!T2&gt;[1]LOQ!T2,ROUND(([1]raw_data!T2/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T2/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,105</v>
+        <v>&lt;0.105</v>
       </c>
       <c r="U2" s="13" t="str">
         <f>IF([1]raw_data!U2&gt;[1]LOQ!U2,ROUND(([1]raw_data!U2/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U2/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,048</v>
+        <v>&lt;0.048</v>
       </c>
       <c r="V2" s="13" t="str">
         <f>IF([1]raw_data!V2&gt;[1]LOQ!V2,ROUND(([1]raw_data!V2/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V2/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,066</v>
+        <v>&lt;0.066</v>
       </c>
       <c r="W2" s="13" t="str">
         <f>IF([1]raw_data!W2&gt;[1]LOQ!W2,ROUND(([1]raw_data!W2/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W2/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,053</v>
+        <v>&lt;0.053</v>
       </c>
       <c r="X2" s="13" t="str">
         <f>IF([1]raw_data!X2&gt;[1]LOQ!X2,ROUND(([1]raw_data!X2/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X2/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,099</v>
+        <v>&lt;0.099</v>
       </c>
       <c r="Y2" s="13" t="str">
         <f>IF([1]raw_data!Y2&gt;[1]LOQ!Y2,ROUND(([1]raw_data!Y2/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y2/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,162</v>
+        <v>&lt;0.162</v>
       </c>
       <c r="Z2" s="13" t="str">
         <f>IF([1]raw_data!Z2&gt;[1]LOQ!Z2,ROUND(([1]raw_data!Z2/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z2/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,069</v>
+        <v>&lt;0.069</v>
       </c>
       <c r="AA2" s="13" t="str">
         <f>IF([1]raw_data!AA2&gt;[1]LOQ!AA2,ROUND(([1]raw_data!AA2/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA2/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,048</v>
+        <v>&lt;0.048</v>
       </c>
       <c r="AB2" s="13" t="str">
         <f>IF([1]raw_data!AB2&gt;[1]LOQ!AB2,ROUND(([1]raw_data!AB2/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB2/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,004</v>
+        <v>&lt;0.004</v>
       </c>
       <c r="AC2" s="13" t="str">
         <f>IF([1]raw_data!AC2&gt;[1]LOQ!AC2,ROUND(([1]raw_data!AC2/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC2/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,003</v>
+        <v>&lt;0.003</v>
       </c>
       <c r="AD2" s="13" t="str">
         <f>IF([1]raw_data!AD2&gt;[1]LOQ!AD2,ROUND(([1]raw_data!AD2/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD2/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,052</v>
+        <v>&lt;0.052</v>
       </c>
       <c r="AE2" s="13" t="str">
         <f>IF([1]raw_data!AE2&gt;[1]LOQ!AE2,ROUND(([1]raw_data!AE2/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE2/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,051</v>
+        <v>&lt;0.051</v>
       </c>
       <c r="AF2" s="13" t="str">
         <f>IF([1]raw_data!AF2&gt;[1]LOQ!AF2,ROUND(([1]raw_data!AF2/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF2/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,004</v>
+        <v>&lt;0.004</v>
       </c>
       <c r="AG2" s="13" t="str">
         <f>IF([1]raw_data!AG2&gt;[1]LOQ!AG2,ROUND(([1]raw_data!AG2/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG2/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,007</v>
+        <v>&lt;0.007</v>
       </c>
       <c r="AH2" s="13" t="str">
         <f>IF([1]raw_data!AH2&gt;[1]LOQ!AH2,ROUND(([1]raw_data!AH2/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH2/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,058</v>
+        <v>&lt;0.058</v>
       </c>
       <c r="AI2" s="13" t="str">
         <f>IF([1]raw_data!AI2&gt;[1]LOQ!AI2,ROUND(([1]raw_data!AI2/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI2/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,047</v>
+        <v>&lt;0.047</v>
       </c>
       <c r="AJ2" s="13" t="str">
         <f>IF([1]raw_data!AJ2&gt;[1]LOQ!AJ2,ROUND(([1]raw_data!AJ2/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ2/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,068</v>
+        <v>&lt;0.068</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A3" s="13" t="s">
         <v>129</v>
       </c>
@@ -26414,134 +26414,134 @@
       </c>
       <c r="E3" s="13" t="str">
         <f>IF([1]raw_data!E3&gt;[1]LOQ!E3,ROUND(([1]raw_data!E3/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E3/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,022</v>
+        <v>&lt;0.022</v>
       </c>
       <c r="F3" s="13" t="str">
         <f>IF([1]raw_data!F3&gt;[1]LOQ!F3,ROUND(([1]raw_data!F3/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F3/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,754</v>
+        <v>&lt;0.754</v>
       </c>
       <c r="G3" s="13" t="str">
         <f>IF([1]raw_data!G3&gt;[1]LOQ!G3,ROUND(([1]raw_data!G3/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G3/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,015</v>
+        <v>&lt;0.015</v>
       </c>
       <c r="H3" s="13" t="str">
         <f>IF([1]raw_data!H3&gt;[1]LOQ!H3,ROUND(([1]raw_data!H3/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H3/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,726</v>
+        <v>&lt;0.726</v>
       </c>
       <c r="I3" s="13" t="str">
         <f>IF([1]raw_data!I3&gt;[1]LOQ!I3,ROUND(([1]raw_data!I3/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I3/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,446</v>
+        <v>&lt;0.446</v>
       </c>
       <c r="J3" s="13" t="str">
         <f>IF([1]raw_data!J3&gt;[1]LOQ!J3,ROUND(([1]raw_data!J3/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J3/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,52</v>
+        <v>&lt;0.52</v>
       </c>
       <c r="K3" s="13" t="str">
         <f>IF([1]raw_data!K3&gt;[1]LOQ!K3,ROUND(([1]raw_data!K3/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K3/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,329</v>
+        <v>&lt;0.329</v>
       </c>
       <c r="L3" s="13" t="str">
         <f>IF([1]raw_data!L3&gt;[1]LOQ!L3,ROUND(([1]raw_data!L3/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L3/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,95</v>
+        <v>&lt;0.95</v>
       </c>
       <c r="M3" s="13" t="str">
         <f>IF([1]raw_data!M3&gt;[1]LOQ!M3,ROUND(([1]raw_data!M3/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M3/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,487</v>
+        <v>&lt;0.487</v>
       </c>
       <c r="N3" s="13" t="str">
         <f>IF([1]raw_data!N3&gt;[1]LOQ!N3,ROUND(([1]raw_data!N3/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N3/[1]raw_data!N$37),3))))</f>
-        <v>&lt;1,939</v>
+        <v>&lt;1.939</v>
       </c>
       <c r="O3" s="13" t="str">
         <f>IF([1]raw_data!O3&gt;[1]LOQ!O3,ROUND(([1]raw_data!O3/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O3/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,311</v>
+        <v>&lt;0.311</v>
       </c>
       <c r="P3" s="13" t="str">
         <f>IF([1]raw_data!P3&gt;[1]LOQ!P3,ROUND(([1]raw_data!P3/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P3/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,157</v>
+        <v>&lt;0.157</v>
       </c>
       <c r="Q3" s="13" t="str">
         <f>IF([1]raw_data!Q3&gt;[1]LOQ!Q3,ROUND(([1]raw_data!Q3/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q3/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,883</v>
+        <v>&lt;0.883</v>
       </c>
       <c r="R3" s="13" t="str">
         <f>IF([1]raw_data!R3&gt;[1]LOQ!R3,ROUND(([1]raw_data!R3/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R3/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,004</v>
+        <v>&lt;0.004</v>
       </c>
       <c r="S3" s="13" t="str">
         <f>IF([1]raw_data!S3&gt;[1]LOQ!S3,ROUND(([1]raw_data!S3/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S3/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="T3" s="13" t="str">
         <f>IF([1]raw_data!T3&gt;[1]LOQ!T3,ROUND(([1]raw_data!T3/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T3/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,368</v>
+        <v>&lt;0.368</v>
       </c>
       <c r="U3" s="13" t="str">
         <f>IF([1]raw_data!U3&gt;[1]LOQ!U3,ROUND(([1]raw_data!U3/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U3/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,115</v>
+        <v>&lt;0.115</v>
       </c>
       <c r="V3" s="13" t="str">
         <f>IF([1]raw_data!V3&gt;[1]LOQ!V3,ROUND(([1]raw_data!V3/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V3/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,049</v>
+        <v>&lt;0.049</v>
       </c>
       <c r="W3" s="13" t="str">
         <f>IF([1]raw_data!W3&gt;[1]LOQ!W3,ROUND(([1]raw_data!W3/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W3/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,143</v>
+        <v>&lt;0.143</v>
       </c>
       <c r="X3" s="13" t="str">
         <f>IF([1]raw_data!X3&gt;[1]LOQ!X3,ROUND(([1]raw_data!X3/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X3/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,191</v>
+        <v>&lt;0.191</v>
       </c>
       <c r="Y3" s="13" t="str">
         <f>IF([1]raw_data!Y3&gt;[1]LOQ!Y3,ROUND(([1]raw_data!Y3/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y3/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,368</v>
+        <v>&lt;0.368</v>
       </c>
       <c r="Z3" s="13" t="str">
         <f>IF([1]raw_data!Z3&gt;[1]LOQ!Z3,ROUND(([1]raw_data!Z3/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z3/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,107</v>
+        <v>&lt;0.107</v>
       </c>
       <c r="AA3" s="13" t="str">
         <f>IF([1]raw_data!AA3&gt;[1]LOQ!AA3,ROUND(([1]raw_data!AA3/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA3/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,085</v>
+        <v>&lt;0.085</v>
       </c>
       <c r="AB3" s="13" t="str">
         <f>IF([1]raw_data!AB3&gt;[1]LOQ!AB3,ROUND(([1]raw_data!AB3/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB3/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,004</v>
+        <v>&lt;0.004</v>
       </c>
       <c r="AC3" s="13" t="str">
         <f>IF([1]raw_data!AC3&gt;[1]LOQ!AC3,ROUND(([1]raw_data!AC3/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC3/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,003</v>
+        <v>&lt;0.003</v>
       </c>
       <c r="AD3" s="13" t="str">
         <f>IF([1]raw_data!AD3&gt;[1]LOQ!AD3,ROUND(([1]raw_data!AD3/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD3/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,053</v>
+        <v>&lt;0.053</v>
       </c>
       <c r="AE3" s="13" t="str">
         <f>IF([1]raw_data!AE3&gt;[1]LOQ!AE3,ROUND(([1]raw_data!AE3/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE3/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,058</v>
+        <v>&lt;0.058</v>
       </c>
       <c r="AF3" s="13" t="str">
         <f>IF([1]raw_data!AF3&gt;[1]LOQ!AF3,ROUND(([1]raw_data!AF3/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF3/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,003</v>
+        <v>&lt;0.003</v>
       </c>
       <c r="AG3" s="13" t="str">
         <f>IF([1]raw_data!AG3&gt;[1]LOQ!AG3,ROUND(([1]raw_data!AG3/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG3/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,003</v>
+        <v>&lt;0.003</v>
       </c>
       <c r="AH3" s="13" t="str">
         <f>IF([1]raw_data!AH3&gt;[1]LOQ!AH3,ROUND(([1]raw_data!AH3/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH3/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,058</v>
+        <v>&lt;0.058</v>
       </c>
       <c r="AI3" s="13" t="str">
         <f>IF([1]raw_data!AI3&gt;[1]LOQ!AI3,ROUND(([1]raw_data!AI3/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI3/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,044</v>
+        <v>&lt;0.044</v>
       </c>
       <c r="AJ3" s="13" t="str">
         <f>IF([1]raw_data!AJ3&gt;[1]LOQ!AJ3,ROUND(([1]raw_data!AJ3/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ3/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,075</v>
+        <v>&lt;0.075</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A4" s="13" t="s">
         <v>130</v>
       </c>
@@ -26559,55 +26559,55 @@
       </c>
       <c r="E4" s="13" t="str">
         <f>IF([1]raw_data!E4&gt;[1]LOQ!E4,ROUND(([1]raw_data!E4/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E4/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,037</v>
+        <v>&lt;0.037</v>
       </c>
       <c r="F4" s="13" t="str">
         <f>IF([1]raw_data!F4&gt;[1]LOQ!F4,ROUND(([1]raw_data!F4/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F4/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,864</v>
+        <v>&lt;0.864</v>
       </c>
       <c r="G4" s="13" t="str">
         <f>IF([1]raw_data!G4&gt;[1]LOQ!G4,ROUND(([1]raw_data!G4/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G4/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,054</v>
+        <v>&lt;0.054</v>
       </c>
       <c r="H4" s="13" t="str">
         <f>IF([1]raw_data!H4&gt;[1]LOQ!H4,ROUND(([1]raw_data!H4/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H4/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,971</v>
+        <v>&lt;0.971</v>
       </c>
       <c r="I4" s="13" t="str">
         <f>IF([1]raw_data!I4&gt;[1]LOQ!I4,ROUND(([1]raw_data!I4/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I4/[1]raw_data!I$37),3))))</f>
-        <v>&lt;1,05</v>
+        <v>&lt;1.05</v>
       </c>
       <c r="J4" s="13" t="str">
         <f>IF([1]raw_data!J4&gt;[1]LOQ!J4,ROUND(([1]raw_data!J4/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J4/[1]raw_data!J$37),3))))</f>
-        <v>&lt;1,441</v>
+        <v>&lt;1.441</v>
       </c>
       <c r="K4" s="13" t="str">
         <f>IF([1]raw_data!K4&gt;[1]LOQ!K4,ROUND(([1]raw_data!K4/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K4/[1]raw_data!K$37),3))))</f>
-        <v>&lt;1,31</v>
+        <v>&lt;1.31</v>
       </c>
       <c r="L4" s="13" t="str">
         <f>IF([1]raw_data!L4&gt;[1]LOQ!L4,ROUND(([1]raw_data!L4/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L4/[1]raw_data!L$37),3))))</f>
-        <v>&lt;1,406</v>
+        <v>&lt;1.406</v>
       </c>
       <c r="M4" s="13" t="str">
         <f>IF([1]raw_data!M4&gt;[1]LOQ!M4,ROUND(([1]raw_data!M4/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M4/[1]raw_data!M$37),3))))</f>
-        <v>&lt;1,203</v>
+        <v>&lt;1.203</v>
       </c>
       <c r="N4" s="13" t="str">
         <f>IF([1]raw_data!N4&gt;[1]LOQ!N4,ROUND(([1]raw_data!N4/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N4/[1]raw_data!N$37),3))))</f>
-        <v>&lt;2,334</v>
+        <v>&lt;2.334</v>
       </c>
       <c r="O4" s="13" t="str">
         <f>IF([1]raw_data!O4&gt;[1]LOQ!O4,ROUND(([1]raw_data!O4/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O4/[1]raw_data!O$37),3))))</f>
-        <v>&lt;1,768</v>
+        <v>&lt;1.768</v>
       </c>
       <c r="P4" s="13" t="str">
         <f>IF([1]raw_data!P4&gt;[1]LOQ!P4,ROUND(([1]raw_data!P4/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P4/[1]raw_data!P$37),3))))</f>
-        <v>&lt;1,603</v>
+        <v>&lt;1.603</v>
       </c>
       <c r="Q4" s="13" t="str">
         <f>IF([1]raw_data!Q4&gt;[1]LOQ!Q4,ROUND(([1]raw_data!Q4/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q4/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;2,738</v>
+        <v>&lt;2.738</v>
       </c>
       <c r="R4" s="13">
         <f>IF([1]raw_data!R4&gt;[1]LOQ!R4,ROUND(([1]raw_data!R4/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R4/[1]raw_data!R$37),3))))</f>
@@ -26619,35 +26619,35 @@
       </c>
       <c r="T4" s="13" t="str">
         <f>IF([1]raw_data!T4&gt;[1]LOQ!T4,ROUND(([1]raw_data!T4/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T4/[1]raw_data!T$37),3))))</f>
-        <v>&lt;3,326</v>
+        <v>&lt;3.326</v>
       </c>
       <c r="U4" s="13" t="str">
         <f>IF([1]raw_data!U4&gt;[1]LOQ!U4,ROUND(([1]raw_data!U4/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U4/[1]raw_data!U$37),3))))</f>
-        <v>&lt;1,86</v>
+        <v>&lt;1.86</v>
       </c>
       <c r="V4" s="13" t="str">
         <f>IF([1]raw_data!V4&gt;[1]LOQ!V4,ROUND(([1]raw_data!V4/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V4/[1]raw_data!V$37),3))))</f>
-        <v>&lt;1,42</v>
+        <v>&lt;1.42</v>
       </c>
       <c r="W4" s="13" t="str">
         <f>IF([1]raw_data!W4&gt;[1]LOQ!W4,ROUND(([1]raw_data!W4/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W4/[1]raw_data!W$37),3))))</f>
-        <v>&lt;1,361</v>
+        <v>&lt;1.361</v>
       </c>
       <c r="X4" s="13" t="str">
         <f>IF([1]raw_data!X4&gt;[1]LOQ!X4,ROUND(([1]raw_data!X4/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X4/[1]raw_data!X$37),3))))</f>
-        <v>&lt;2,95</v>
+        <v>&lt;2.95</v>
       </c>
       <c r="Y4" s="13" t="str">
         <f>IF([1]raw_data!Y4&gt;[1]LOQ!Y4,ROUND(([1]raw_data!Y4/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y4/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;2,862</v>
+        <v>&lt;2.862</v>
       </c>
       <c r="Z4" s="13" t="str">
         <f>IF([1]raw_data!Z4&gt;[1]LOQ!Z4,ROUND(([1]raw_data!Z4/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z4/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;1,437</v>
+        <v>&lt;1.437</v>
       </c>
       <c r="AA4" s="13" t="str">
         <f>IF([1]raw_data!AA4&gt;[1]LOQ!AA4,ROUND(([1]raw_data!AA4/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA4/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;1,314</v>
+        <v>&lt;1.314</v>
       </c>
       <c r="AB4" s="13">
         <f>IF([1]raw_data!AB4&gt;[1]LOQ!AB4,ROUND(([1]raw_data!AB4/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB4/[1]raw_data!AB$37),3))))</f>
@@ -26659,11 +26659,11 @@
       </c>
       <c r="AD4" s="13" t="str">
         <f>IF([1]raw_data!AD4&gt;[1]LOQ!AD4,ROUND(([1]raw_data!AD4/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD4/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;1,65</v>
+        <v>&lt;1.65</v>
       </c>
       <c r="AE4" s="13" t="str">
         <f>IF([1]raw_data!AE4&gt;[1]LOQ!AE4,ROUND(([1]raw_data!AE4/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE4/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;1,68</v>
+        <v>&lt;1.68</v>
       </c>
       <c r="AF4" s="13">
         <f>IF([1]raw_data!AF4&gt;[1]LOQ!AF4,ROUND(([1]raw_data!AF4/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF4/[1]raw_data!AF$37),3))))</f>
@@ -26675,18 +26675,18 @@
       </c>
       <c r="AH4" s="13" t="str">
         <f>IF([1]raw_data!AH4&gt;[1]LOQ!AH4,ROUND(([1]raw_data!AH4/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH4/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;1,667</v>
+        <v>&lt;1.667</v>
       </c>
       <c r="AI4" s="13" t="str">
         <f>IF([1]raw_data!AI4&gt;[1]LOQ!AI4,ROUND(([1]raw_data!AI4/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI4/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;1,096</v>
+        <v>&lt;1.096</v>
       </c>
       <c r="AJ4" s="13" t="str">
         <f>IF([1]raw_data!AJ4&gt;[1]LOQ!AJ4,ROUND(([1]raw_data!AJ4/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ4/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;1,673</v>
+        <v>&lt;1.673</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A5" s="13" t="s">
         <v>131</v>
       </c>
@@ -26704,134 +26704,134 @@
       </c>
       <c r="E5" s="13" t="str">
         <f>IF([1]raw_data!E5&gt;[1]LOQ!E5,ROUND(([1]raw_data!E5/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E5/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="F5" s="13" t="str">
         <f>IF([1]raw_data!F5&gt;[1]LOQ!F5,ROUND(([1]raw_data!F5/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F5/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,085</v>
+        <v>&lt;0.085</v>
       </c>
       <c r="G5" s="13" t="str">
         <f>IF([1]raw_data!G5&gt;[1]LOQ!G5,ROUND(([1]raw_data!G5/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G5/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,002</v>
+        <v>&lt;0.002</v>
       </c>
       <c r="H5" s="13" t="str">
         <f>IF([1]raw_data!H5&gt;[1]LOQ!H5,ROUND(([1]raw_data!H5/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H5/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,103</v>
+        <v>&lt;0.103</v>
       </c>
       <c r="I5" s="13" t="str">
         <f>IF([1]raw_data!I5&gt;[1]LOQ!I5,ROUND(([1]raw_data!I5/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I5/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,074</v>
+        <v>&lt;0.074</v>
       </c>
       <c r="J5" s="13" t="str">
         <f>IF([1]raw_data!J5&gt;[1]LOQ!J5,ROUND(([1]raw_data!J5/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J5/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,071</v>
+        <v>&lt;0.071</v>
       </c>
       <c r="K5" s="13" t="str">
         <f>IF([1]raw_data!K5&gt;[1]LOQ!K5,ROUND(([1]raw_data!K5/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K5/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,226</v>
+        <v>&lt;0.226</v>
       </c>
       <c r="L5" s="13" t="str">
         <f>IF([1]raw_data!L5&gt;[1]LOQ!L5,ROUND(([1]raw_data!L5/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L5/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,287</v>
+        <v>&lt;0.287</v>
       </c>
       <c r="M5" s="13" t="str">
         <f>IF([1]raw_data!M5&gt;[1]LOQ!M5,ROUND(([1]raw_data!M5/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M5/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,039</v>
+        <v>&lt;0.039</v>
       </c>
       <c r="N5" s="13" t="str">
         <f>IF([1]raw_data!N5&gt;[1]LOQ!N5,ROUND(([1]raw_data!N5/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N5/[1]raw_data!N$37),3))))</f>
-        <v>&lt;0,569</v>
+        <v>&lt;0.569</v>
       </c>
       <c r="O5" s="13" t="str">
         <f>IF([1]raw_data!O5&gt;[1]LOQ!O5,ROUND(([1]raw_data!O5/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O5/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,192</v>
+        <v>&lt;0.192</v>
       </c>
       <c r="P5" s="13" t="str">
         <f>IF([1]raw_data!P5&gt;[1]LOQ!P5,ROUND(([1]raw_data!P5/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P5/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,126</v>
+        <v>&lt;0.126</v>
       </c>
       <c r="Q5" s="13" t="str">
         <f>IF([1]raw_data!Q5&gt;[1]LOQ!Q5,ROUND(([1]raw_data!Q5/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q5/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,188</v>
+        <v>&lt;0.188</v>
       </c>
       <c r="R5" s="13" t="str">
         <f>IF([1]raw_data!R5&gt;[1]LOQ!R5,ROUND(([1]raw_data!R5/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R5/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,004</v>
+        <v>&lt;0.004</v>
       </c>
       <c r="S5" s="13" t="str">
         <f>IF([1]raw_data!S5&gt;[1]LOQ!S5,ROUND(([1]raw_data!S5/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S5/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,002</v>
+        <v>&lt;0.002</v>
       </c>
       <c r="T5" s="13" t="str">
         <f>IF([1]raw_data!T5&gt;[1]LOQ!T5,ROUND(([1]raw_data!T5/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T5/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,135</v>
+        <v>&lt;0.135</v>
       </c>
       <c r="U5" s="13" t="str">
         <f>IF([1]raw_data!U5&gt;[1]LOQ!U5,ROUND(([1]raw_data!U5/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U5/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,064</v>
+        <v>&lt;0.064</v>
       </c>
       <c r="V5" s="13" t="str">
         <f>IF([1]raw_data!V5&gt;[1]LOQ!V5,ROUND(([1]raw_data!V5/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V5/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,038</v>
+        <v>&lt;0.038</v>
       </c>
       <c r="W5" s="13" t="str">
         <f>IF([1]raw_data!W5&gt;[1]LOQ!W5,ROUND(([1]raw_data!W5/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W5/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,057</v>
+        <v>&lt;0.057</v>
       </c>
       <c r="X5" s="13" t="str">
         <f>IF([1]raw_data!X5&gt;[1]LOQ!X5,ROUND(([1]raw_data!X5/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X5/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,121</v>
+        <v>&lt;0.121</v>
       </c>
       <c r="Y5" s="13" t="str">
         <f>IF([1]raw_data!Y5&gt;[1]LOQ!Y5,ROUND(([1]raw_data!Y5/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y5/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,304</v>
+        <v>&lt;0.304</v>
       </c>
       <c r="Z5" s="13" t="str">
         <f>IF([1]raw_data!Z5&gt;[1]LOQ!Z5,ROUND(([1]raw_data!Z5/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z5/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,069</v>
+        <v>&lt;0.069</v>
       </c>
       <c r="AA5" s="13" t="str">
         <f>IF([1]raw_data!AA5&gt;[1]LOQ!AA5,ROUND(([1]raw_data!AA5/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA5/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,122</v>
+        <v>&lt;0.122</v>
       </c>
       <c r="AB5" s="13" t="str">
         <f>IF([1]raw_data!AB5&gt;[1]LOQ!AB5,ROUND(([1]raw_data!AB5/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB5/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,017</v>
+        <v>&lt;0.017</v>
       </c>
       <c r="AC5" s="13" t="str">
         <f>IF([1]raw_data!AC5&gt;[1]LOQ!AC5,ROUND(([1]raw_data!AC5/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC5/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="AD5" s="13" t="str">
         <f>IF([1]raw_data!AD5&gt;[1]LOQ!AD5,ROUND(([1]raw_data!AD5/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD5/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,059</v>
+        <v>&lt;0.059</v>
       </c>
       <c r="AE5" s="13" t="str">
         <f>IF([1]raw_data!AE5&gt;[1]LOQ!AE5,ROUND(([1]raw_data!AE5/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE5/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,137</v>
+        <v>&lt;0.137</v>
       </c>
       <c r="AF5" s="13" t="str">
         <f>IF([1]raw_data!AF5&gt;[1]LOQ!AF5,ROUND(([1]raw_data!AF5/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF5/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,007</v>
+        <v>&lt;0.007</v>
       </c>
       <c r="AG5" s="13" t="str">
         <f>IF([1]raw_data!AG5&gt;[1]LOQ!AG5,ROUND(([1]raw_data!AG5/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG5/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,006</v>
+        <v>&lt;0.006</v>
       </c>
       <c r="AH5" s="13" t="str">
         <f>IF([1]raw_data!AH5&gt;[1]LOQ!AH5,ROUND(([1]raw_data!AH5/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH5/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,06</v>
+        <v>&lt;0.06</v>
       </c>
       <c r="AI5" s="13" t="str">
         <f>IF([1]raw_data!AI5&gt;[1]LOQ!AI5,ROUND(([1]raw_data!AI5/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI5/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,068</v>
+        <v>&lt;0.068</v>
       </c>
       <c r="AJ5" s="13" t="str">
         <f>IF([1]raw_data!AJ5&gt;[1]LOQ!AJ5,ROUND(([1]raw_data!AJ5/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ5/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,133</v>
+        <v>&lt;0.133</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A6" s="13" t="s">
         <v>132</v>
       </c>
@@ -26849,134 +26849,134 @@
       </c>
       <c r="E6" s="13" t="str">
         <f>IF([1]raw_data!E6&gt;[1]LOQ!E6,ROUND(([1]raw_data!E6/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E6/[1]raw_data!E$37),3))))</f>
-        <v>&lt;3,245</v>
+        <v>&lt;3.245</v>
       </c>
       <c r="F6" s="13" t="str">
         <f>IF([1]raw_data!F6&gt;[1]LOQ!F6,ROUND(([1]raw_data!F6/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F6/[1]raw_data!F$37),3))))</f>
-        <v>&lt;60,761</v>
+        <v>&lt;60.761</v>
       </c>
       <c r="G6" s="13" t="str">
         <f>IF([1]raw_data!G6&gt;[1]LOQ!G6,ROUND(([1]raw_data!G6/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G6/[1]raw_data!G$37),3))))</f>
-        <v>&lt;3,47</v>
+        <v>&lt;3.47</v>
       </c>
       <c r="H6" s="13" t="str">
         <f>IF([1]raw_data!H6&gt;[1]LOQ!H6,ROUND(([1]raw_data!H6/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H6/[1]raw_data!H$37),3))))</f>
-        <v>&lt;60,162</v>
+        <v>&lt;60.162</v>
       </c>
       <c r="I6" s="13" t="str">
         <f>IF([1]raw_data!I6&gt;[1]LOQ!I6,ROUND(([1]raw_data!I6/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I6/[1]raw_data!I$37),3))))</f>
-        <v>&lt;45,774</v>
+        <v>&lt;45.774</v>
       </c>
       <c r="J6" s="13" t="str">
         <f>IF([1]raw_data!J6&gt;[1]LOQ!J6,ROUND(([1]raw_data!J6/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J6/[1]raw_data!J$37),3))))</f>
-        <v>&lt;44,55</v>
+        <v>&lt;44.55</v>
       </c>
       <c r="K6" s="13" t="str">
         <f>IF([1]raw_data!K6&gt;[1]LOQ!K6,ROUND(([1]raw_data!K6/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K6/[1]raw_data!K$37),3))))</f>
-        <v>&lt;44,948</v>
+        <v>&lt;44.948</v>
       </c>
       <c r="L6" s="13" t="str">
         <f>IF([1]raw_data!L6&gt;[1]LOQ!L6,ROUND(([1]raw_data!L6/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L6/[1]raw_data!L$37),3))))</f>
-        <v>&lt;93,659</v>
+        <v>&lt;93.659</v>
       </c>
       <c r="M6" s="13" t="str">
         <f>IF([1]raw_data!M6&gt;[1]LOQ!M6,ROUND(([1]raw_data!M6/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M6/[1]raw_data!M$37),3))))</f>
-        <v>&lt;77,673</v>
+        <v>&lt;77.673</v>
       </c>
       <c r="N6" s="13" t="str">
         <f>IF([1]raw_data!N6&gt;[1]LOQ!N6,ROUND(([1]raw_data!N6/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N6/[1]raw_data!N$37),3))))</f>
-        <v>&lt;180,006</v>
+        <v>&lt;180.006</v>
       </c>
       <c r="O6" s="13" t="str">
         <f>IF([1]raw_data!O6&gt;[1]LOQ!O6,ROUND(([1]raw_data!O6/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O6/[1]raw_data!O$37),3))))</f>
-        <v>&lt;55,448</v>
+        <v>&lt;55.448</v>
       </c>
       <c r="P6" s="13" t="str">
         <f>IF([1]raw_data!P6&gt;[1]LOQ!P6,ROUND(([1]raw_data!P6/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P6/[1]raw_data!P$37),3))))</f>
-        <v>&lt;39,97</v>
+        <v>&lt;39.97</v>
       </c>
       <c r="Q6" s="13" t="str">
         <f>IF([1]raw_data!Q6&gt;[1]LOQ!Q6,ROUND(([1]raw_data!Q6/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q6/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;134,882</v>
+        <v>&lt;134.882</v>
       </c>
       <c r="R6" s="13" t="str">
         <f>IF([1]raw_data!R6&gt;[1]LOQ!R6,ROUND(([1]raw_data!R6/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R6/[1]raw_data!R$37),3))))</f>
-        <v>&lt;2,962</v>
+        <v>&lt;2.962</v>
       </c>
       <c r="S6" s="13" t="str">
         <f>IF([1]raw_data!S6&gt;[1]LOQ!S6,ROUND(([1]raw_data!S6/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S6/[1]raw_data!S$37),3))))</f>
-        <v>&lt;2,633</v>
+        <v>&lt;2.633</v>
       </c>
       <c r="T6" s="13" t="str">
         <f>IF([1]raw_data!T6&gt;[1]LOQ!T6,ROUND(([1]raw_data!T6/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T6/[1]raw_data!T$37),3))))</f>
-        <v>&lt;118,493</v>
+        <v>&lt;118.493</v>
       </c>
       <c r="U6" s="13" t="str">
         <f>IF([1]raw_data!U6&gt;[1]LOQ!U6,ROUND(([1]raw_data!U6/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U6/[1]raw_data!U$37),3))))</f>
-        <v>&lt;42,502</v>
+        <v>&lt;42.502</v>
       </c>
       <c r="V6" s="13" t="str">
         <f>IF([1]raw_data!V6&gt;[1]LOQ!V6,ROUND(([1]raw_data!V6/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V6/[1]raw_data!V$37),3))))</f>
-        <v>&lt;38,582</v>
+        <v>&lt;38.582</v>
       </c>
       <c r="W6" s="13" t="str">
         <f>IF([1]raw_data!W6&gt;[1]LOQ!W6,ROUND(([1]raw_data!W6/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W6/[1]raw_data!W$37),3))))</f>
-        <v>&lt;48,528</v>
+        <v>&lt;48.528</v>
       </c>
       <c r="X6" s="13" t="str">
         <f>IF([1]raw_data!X6&gt;[1]LOQ!X6,ROUND(([1]raw_data!X6/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X6/[1]raw_data!X$37),3))))</f>
-        <v>&lt;71,725</v>
+        <v>&lt;71.725</v>
       </c>
       <c r="Y6" s="13" t="str">
         <f>IF([1]raw_data!Y6&gt;[1]LOQ!Y6,ROUND(([1]raw_data!Y6/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y6/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;95,963</v>
+        <v>&lt;95.963</v>
       </c>
       <c r="Z6" s="13" t="str">
         <f>IF([1]raw_data!Z6&gt;[1]LOQ!Z6,ROUND(([1]raw_data!Z6/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z6/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;53,757</v>
+        <v>&lt;53.757</v>
       </c>
       <c r="AA6" s="13" t="str">
         <f>IF([1]raw_data!AA6&gt;[1]LOQ!AA6,ROUND(([1]raw_data!AA6/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA6/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;42,212</v>
+        <v>&lt;42.212</v>
       </c>
       <c r="AB6" s="13" t="str">
         <f>IF([1]raw_data!AB6&gt;[1]LOQ!AB6,ROUND(([1]raw_data!AB6/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB6/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;2,886</v>
+        <v>&lt;2.886</v>
       </c>
       <c r="AC6" s="13" t="str">
         <f>IF([1]raw_data!AC6&gt;[1]LOQ!AC6,ROUND(([1]raw_data!AC6/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC6/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;1,713</v>
+        <v>&lt;1.713</v>
       </c>
       <c r="AD6" s="13" t="str">
         <f>IF([1]raw_data!AD6&gt;[1]LOQ!AD6,ROUND(([1]raw_data!AD6/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD6/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;47,17</v>
+        <v>&lt;47.17</v>
       </c>
       <c r="AE6" s="13" t="str">
         <f>IF([1]raw_data!AE6&gt;[1]LOQ!AE6,ROUND(([1]raw_data!AE6/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE6/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;39,474</v>
+        <v>&lt;39.474</v>
       </c>
       <c r="AF6" s="13" t="str">
         <f>IF([1]raw_data!AF6&gt;[1]LOQ!AF6,ROUND(([1]raw_data!AF6/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF6/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;3,374</v>
+        <v>&lt;3.374</v>
       </c>
       <c r="AG6" s="13" t="str">
         <f>IF([1]raw_data!AG6&gt;[1]LOQ!AG6,ROUND(([1]raw_data!AG6/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG6/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;3,046</v>
+        <v>&lt;3.046</v>
       </c>
       <c r="AH6" s="13" t="str">
         <f>IF([1]raw_data!AH6&gt;[1]LOQ!AH6,ROUND(([1]raw_data!AH6/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH6/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;28,578</v>
+        <v>&lt;28.578</v>
       </c>
       <c r="AI6" s="13" t="str">
         <f>IF([1]raw_data!AI6&gt;[1]LOQ!AI6,ROUND(([1]raw_data!AI6/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI6/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;39,856</v>
+        <v>&lt;39.856</v>
       </c>
       <c r="AJ6" s="13" t="str">
         <f>IF([1]raw_data!AJ6&gt;[1]LOQ!AJ6,ROUND(([1]raw_data!AJ6/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ6/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;36,874</v>
+        <v>&lt;36.874</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A7" s="13" t="s">
         <v>133</v>
       </c>
@@ -26994,134 +26994,134 @@
       </c>
       <c r="E7" s="13" t="str">
         <f>IF([1]raw_data!E7&gt;[1]LOQ!E7,ROUND(([1]raw_data!E7/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E7/[1]raw_data!E$37),3))))</f>
-        <v>&lt;6,315</v>
+        <v>&lt;6.315</v>
       </c>
       <c r="F7" s="13" t="str">
         <f>IF([1]raw_data!F7&gt;[1]LOQ!F7,ROUND(([1]raw_data!F7/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F7/[1]raw_data!F$37),3))))</f>
-        <v>&lt;101,638</v>
+        <v>&lt;101.638</v>
       </c>
       <c r="G7" s="13" t="str">
         <f>IF([1]raw_data!G7&gt;[1]LOQ!G7,ROUND(([1]raw_data!G7/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G7/[1]raw_data!G$37),3))))</f>
-        <v>&lt;2,775</v>
+        <v>&lt;2.775</v>
       </c>
       <c r="H7" s="13" t="str">
         <f>IF([1]raw_data!H7&gt;[1]LOQ!H7,ROUND(([1]raw_data!H7/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H7/[1]raw_data!H$37),3))))</f>
-        <v>&lt;95,708</v>
+        <v>&lt;95.708</v>
       </c>
       <c r="I7" s="13" t="str">
         <f>IF([1]raw_data!I7&gt;[1]LOQ!I7,ROUND(([1]raw_data!I7/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I7/[1]raw_data!I$37),3))))</f>
-        <v>&lt;75,363</v>
+        <v>&lt;75.363</v>
       </c>
       <c r="J7" s="13" t="str">
         <f>IF([1]raw_data!J7&gt;[1]LOQ!J7,ROUND(([1]raw_data!J7/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J7/[1]raw_data!J$37),3))))</f>
-        <v>&lt;71,038</v>
+        <v>&lt;71.038</v>
       </c>
       <c r="K7" s="13" t="str">
         <f>IF([1]raw_data!K7&gt;[1]LOQ!K7,ROUND(([1]raw_data!K7/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K7/[1]raw_data!K$37),3))))</f>
-        <v>&lt;63,986</v>
+        <v>&lt;63.986</v>
       </c>
       <c r="L7" s="13" t="str">
         <f>IF([1]raw_data!L7&gt;[1]LOQ!L7,ROUND(([1]raw_data!L7/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L7/[1]raw_data!L$37),3))))</f>
-        <v>&lt;115,399</v>
+        <v>&lt;115.399</v>
       </c>
       <c r="M7" s="13" t="str">
         <f>IF([1]raw_data!M7&gt;[1]LOQ!M7,ROUND(([1]raw_data!M7/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M7/[1]raw_data!M$37),3))))</f>
-        <v>&lt;67,341</v>
+        <v>&lt;67.341</v>
       </c>
       <c r="N7" s="13" t="str">
         <f>IF([1]raw_data!N7&gt;[1]LOQ!N7,ROUND(([1]raw_data!N7/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N7/[1]raw_data!N$37),3))))</f>
-        <v>&lt;182,226</v>
+        <v>&lt;182.226</v>
       </c>
       <c r="O7" s="13" t="str">
         <f>IF([1]raw_data!O7&gt;[1]LOQ!O7,ROUND(([1]raw_data!O7/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O7/[1]raw_data!O$37),3))))</f>
-        <v>&lt;39,369</v>
+        <v>&lt;39.369</v>
       </c>
       <c r="P7" s="13" t="str">
         <f>IF([1]raw_data!P7&gt;[1]LOQ!P7,ROUND(([1]raw_data!P7/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P7/[1]raw_data!P$37),3))))</f>
-        <v>&lt;17,456</v>
+        <v>&lt;17.456</v>
       </c>
       <c r="Q7" s="13" t="str">
         <f>IF([1]raw_data!Q7&gt;[1]LOQ!Q7,ROUND(([1]raw_data!Q7/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q7/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;41,293</v>
+        <v>&lt;41.293</v>
       </c>
       <c r="R7" s="13" t="str">
         <f>IF([1]raw_data!R7&gt;[1]LOQ!R7,ROUND(([1]raw_data!R7/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R7/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,348</v>
+        <v>&lt;0.348</v>
       </c>
       <c r="S7" s="13" t="str">
         <f>IF([1]raw_data!S7&gt;[1]LOQ!S7,ROUND(([1]raw_data!S7/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S7/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,809</v>
+        <v>&lt;0.809</v>
       </c>
       <c r="T7" s="13" t="str">
         <f>IF([1]raw_data!T7&gt;[1]LOQ!T7,ROUND(([1]raw_data!T7/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T7/[1]raw_data!T$37),3))))</f>
-        <v>&lt;11,59</v>
+        <v>&lt;11.59</v>
       </c>
       <c r="U7" s="13" t="str">
         <f>IF([1]raw_data!U7&gt;[1]LOQ!U7,ROUND(([1]raw_data!U7/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U7/[1]raw_data!U$37),3))))</f>
-        <v>&lt;6,133</v>
+        <v>&lt;6.133</v>
       </c>
       <c r="V7" s="13" t="str">
         <f>IF([1]raw_data!V7&gt;[1]LOQ!V7,ROUND(([1]raw_data!V7/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V7/[1]raw_data!V$37),3))))</f>
-        <v>&lt;4,389</v>
+        <v>&lt;4.389</v>
       </c>
       <c r="W7" s="13" t="str">
         <f>IF([1]raw_data!W7&gt;[1]LOQ!W7,ROUND(([1]raw_data!W7/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W7/[1]raw_data!W$37),3))))</f>
-        <v>&lt;5,389</v>
+        <v>&lt;5.389</v>
       </c>
       <c r="X7" s="13" t="str">
         <f>IF([1]raw_data!X7&gt;[1]LOQ!X7,ROUND(([1]raw_data!X7/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X7/[1]raw_data!X$37),3))))</f>
-        <v>&lt;9,097</v>
+        <v>&lt;9.097</v>
       </c>
       <c r="Y7" s="13" t="str">
         <f>IF([1]raw_data!Y7&gt;[1]LOQ!Y7,ROUND(([1]raw_data!Y7/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y7/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;8,917</v>
+        <v>&lt;8.917</v>
       </c>
       <c r="Z7" s="13" t="str">
         <f>IF([1]raw_data!Z7&gt;[1]LOQ!Z7,ROUND(([1]raw_data!Z7/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z7/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;6,771</v>
+        <v>&lt;6.771</v>
       </c>
       <c r="AA7" s="13" t="str">
         <f>IF([1]raw_data!AA7&gt;[1]LOQ!AA7,ROUND(([1]raw_data!AA7/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA7/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;7,899</v>
+        <v>&lt;7.899</v>
       </c>
       <c r="AB7" s="13" t="str">
         <f>IF([1]raw_data!AB7&gt;[1]LOQ!AB7,ROUND(([1]raw_data!AB7/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB7/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,257</v>
+        <v>&lt;0.257</v>
       </c>
       <c r="AC7" s="13" t="str">
         <f>IF([1]raw_data!AC7&gt;[1]LOQ!AC7,ROUND(([1]raw_data!AC7/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC7/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,307</v>
+        <v>&lt;0.307</v>
       </c>
       <c r="AD7" s="13" t="str">
         <f>IF([1]raw_data!AD7&gt;[1]LOQ!AD7,ROUND(([1]raw_data!AD7/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD7/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;4,163</v>
+        <v>&lt;4.163</v>
       </c>
       <c r="AE7" s="13" t="str">
         <f>IF([1]raw_data!AE7&gt;[1]LOQ!AE7,ROUND(([1]raw_data!AE7/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE7/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;3,02</v>
+        <v>&lt;3.02</v>
       </c>
       <c r="AF7" s="13" t="str">
         <f>IF([1]raw_data!AF7&gt;[1]LOQ!AF7,ROUND(([1]raw_data!AF7/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF7/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,267</v>
+        <v>&lt;0.267</v>
       </c>
       <c r="AG7" s="13" t="str">
         <f>IF([1]raw_data!AG7&gt;[1]LOQ!AG7,ROUND(([1]raw_data!AG7/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG7/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,262</v>
+        <v>&lt;0.262</v>
       </c>
       <c r="AH7" s="13" t="str">
         <f>IF([1]raw_data!AH7&gt;[1]LOQ!AH7,ROUND(([1]raw_data!AH7/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH7/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;5,278</v>
+        <v>&lt;5.278</v>
       </c>
       <c r="AI7" s="13" t="str">
         <f>IF([1]raw_data!AI7&gt;[1]LOQ!AI7,ROUND(([1]raw_data!AI7/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI7/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;4,326</v>
+        <v>&lt;4.326</v>
       </c>
       <c r="AJ7" s="13" t="str">
         <f>IF([1]raw_data!AJ7&gt;[1]LOQ!AJ7,ROUND(([1]raw_data!AJ7/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ7/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;6,857</v>
+        <v>&lt;6.857</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A8" s="13" t="s">
         <v>134</v>
       </c>
@@ -27139,134 +27139,134 @@
       </c>
       <c r="E8" s="13" t="str">
         <f>IF([1]raw_data!E8&gt;[1]LOQ!E8,ROUND(([1]raw_data!E8/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E8/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,004</v>
+        <v>&lt;0.004</v>
       </c>
       <c r="F8" s="13" t="str">
         <f>IF([1]raw_data!F8&gt;[1]LOQ!F8,ROUND(([1]raw_data!F8/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F8/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,115</v>
+        <v>&lt;0.115</v>
       </c>
       <c r="G8" s="13" t="str">
         <f>IF([1]raw_data!G8&gt;[1]LOQ!G8,ROUND(([1]raw_data!G8/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G8/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,004</v>
+        <v>&lt;0.004</v>
       </c>
       <c r="H8" s="13" t="str">
         <f>IF([1]raw_data!H8&gt;[1]LOQ!H8,ROUND(([1]raw_data!H8/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H8/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,09</v>
+        <v>&lt;0.09</v>
       </c>
       <c r="I8" s="13" t="str">
         <f>IF([1]raw_data!I8&gt;[1]LOQ!I8,ROUND(([1]raw_data!I8/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I8/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,142</v>
+        <v>&lt;0.142</v>
       </c>
       <c r="J8" s="13" t="str">
         <f>IF([1]raw_data!J8&gt;[1]LOQ!J8,ROUND(([1]raw_data!J8/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J8/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,08</v>
+        <v>&lt;0.08</v>
       </c>
       <c r="K8" s="13" t="str">
         <f>IF([1]raw_data!K8&gt;[1]LOQ!K8,ROUND(([1]raw_data!K8/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K8/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,1</v>
+        <v>&lt;0.1</v>
       </c>
       <c r="L8" s="13" t="str">
         <f>IF([1]raw_data!L8&gt;[1]LOQ!L8,ROUND(([1]raw_data!L8/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L8/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,058</v>
+        <v>&lt;0.058</v>
       </c>
       <c r="M8" s="13" t="str">
         <f>IF([1]raw_data!M8&gt;[1]LOQ!M8,ROUND(([1]raw_data!M8/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M8/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,065</v>
+        <v>&lt;0.065</v>
       </c>
       <c r="N8" s="13" t="str">
         <f>IF([1]raw_data!N8&gt;[1]LOQ!N8,ROUND(([1]raw_data!N8/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N8/[1]raw_data!N$37),3))))</f>
-        <v>&lt;0,434</v>
+        <v>&lt;0.434</v>
       </c>
       <c r="O8" s="13" t="str">
         <f>IF([1]raw_data!O8&gt;[1]LOQ!O8,ROUND(([1]raw_data!O8/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O8/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,061</v>
+        <v>&lt;0.061</v>
       </c>
       <c r="P8" s="13" t="str">
         <f>IF([1]raw_data!P8&gt;[1]LOQ!P8,ROUND(([1]raw_data!P8/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P8/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,086</v>
+        <v>&lt;0.086</v>
       </c>
       <c r="Q8" s="13" t="str">
         <f>IF([1]raw_data!Q8&gt;[1]LOQ!Q8,ROUND(([1]raw_data!Q8/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q8/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,1</v>
+        <v>&lt;0.1</v>
       </c>
       <c r="R8" s="13" t="str">
         <f>IF([1]raw_data!R8&gt;[1]LOQ!R8,ROUND(([1]raw_data!R8/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R8/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,003</v>
+        <v>&lt;0.003</v>
       </c>
       <c r="S8" s="13" t="str">
         <f>IF([1]raw_data!S8&gt;[1]LOQ!S8,ROUND(([1]raw_data!S8/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S8/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,004</v>
+        <v>&lt;0.004</v>
       </c>
       <c r="T8" s="13" t="str">
         <f>IF([1]raw_data!T8&gt;[1]LOQ!T8,ROUND(([1]raw_data!T8/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T8/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,202</v>
+        <v>&lt;0.202</v>
       </c>
       <c r="U8" s="13" t="str">
         <f>IF([1]raw_data!U8&gt;[1]LOQ!U8,ROUND(([1]raw_data!U8/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U8/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,071</v>
+        <v>&lt;0.071</v>
       </c>
       <c r="V8" s="13" t="str">
         <f>IF([1]raw_data!V8&gt;[1]LOQ!V8,ROUND(([1]raw_data!V8/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V8/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,06</v>
+        <v>&lt;0.06</v>
       </c>
       <c r="W8" s="13" t="str">
         <f>IF([1]raw_data!W8&gt;[1]LOQ!W8,ROUND(([1]raw_data!W8/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W8/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,084</v>
+        <v>&lt;0.084</v>
       </c>
       <c r="X8" s="13" t="str">
         <f>IF([1]raw_data!X8&gt;[1]LOQ!X8,ROUND(([1]raw_data!X8/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X8/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,365</v>
+        <v>&lt;0.365</v>
       </c>
       <c r="Y8" s="13" t="str">
         <f>IF([1]raw_data!Y8&gt;[1]LOQ!Y8,ROUND(([1]raw_data!Y8/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y8/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,139</v>
+        <v>&lt;0.139</v>
       </c>
       <c r="Z8" s="13" t="str">
         <f>IF([1]raw_data!Z8&gt;[1]LOQ!Z8,ROUND(([1]raw_data!Z8/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z8/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,088</v>
+        <v>&lt;0.088</v>
       </c>
       <c r="AA8" s="13" t="str">
         <f>IF([1]raw_data!AA8&gt;[1]LOQ!AA8,ROUND(([1]raw_data!AA8/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA8/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,095</v>
+        <v>&lt;0.095</v>
       </c>
       <c r="AB8" s="13" t="str">
         <f>IF([1]raw_data!AB8&gt;[1]LOQ!AB8,ROUND(([1]raw_data!AB8/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB8/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,012</v>
+        <v>&lt;0.012</v>
       </c>
       <c r="AC8" s="13" t="str">
         <f>IF([1]raw_data!AC8&gt;[1]LOQ!AC8,ROUND(([1]raw_data!AC8/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC8/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="AD8" s="13" t="str">
         <f>IF([1]raw_data!AD8&gt;[1]LOQ!AD8,ROUND(([1]raw_data!AD8/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD8/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,057</v>
+        <v>&lt;0.057</v>
       </c>
       <c r="AE8" s="13" t="str">
         <f>IF([1]raw_data!AE8&gt;[1]LOQ!AE8,ROUND(([1]raw_data!AE8/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE8/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,124</v>
+        <v>&lt;0.124</v>
       </c>
       <c r="AF8" s="13" t="str">
         <f>IF([1]raw_data!AF8&gt;[1]LOQ!AF8,ROUND(([1]raw_data!AF8/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF8/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,004</v>
+        <v>&lt;0.004</v>
       </c>
       <c r="AG8" s="13" t="str">
         <f>IF([1]raw_data!AG8&gt;[1]LOQ!AG8,ROUND(([1]raw_data!AG8/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG8/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,004</v>
+        <v>&lt;0.004</v>
       </c>
       <c r="AH8" s="13" t="str">
         <f>IF([1]raw_data!AH8&gt;[1]LOQ!AH8,ROUND(([1]raw_data!AH8/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH8/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,08</v>
+        <v>&lt;0.08</v>
       </c>
       <c r="AI8" s="13" t="str">
         <f>IF([1]raw_data!AI8&gt;[1]LOQ!AI8,ROUND(([1]raw_data!AI8/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI8/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,063</v>
+        <v>&lt;0.063</v>
       </c>
       <c r="AJ8" s="13" t="str">
         <f>IF([1]raw_data!AJ8&gt;[1]LOQ!AJ8,ROUND(([1]raw_data!AJ8/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ8/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,077</v>
+        <v>&lt;0.077</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A9" s="13" t="s">
         <v>135</v>
       </c>
@@ -27284,134 +27284,134 @@
       </c>
       <c r="E9" s="13" t="str">
         <f>IF([1]raw_data!E9&gt;[1]LOQ!E9,ROUND(([1]raw_data!E9/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E9/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,007</v>
+        <v>&lt;0.007</v>
       </c>
       <c r="F9" s="13" t="str">
         <f>IF([1]raw_data!F9&gt;[1]LOQ!F9,ROUND(([1]raw_data!F9/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F9/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,123</v>
+        <v>&lt;0.123</v>
       </c>
       <c r="G9" s="13" t="str">
         <f>IF([1]raw_data!G9&gt;[1]LOQ!G9,ROUND(([1]raw_data!G9/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G9/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,006</v>
+        <v>&lt;0.006</v>
       </c>
       <c r="H9" s="13" t="str">
         <f>IF([1]raw_data!H9&gt;[1]LOQ!H9,ROUND(([1]raw_data!H9/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H9/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,091</v>
+        <v>&lt;0.091</v>
       </c>
       <c r="I9" s="13" t="str">
         <f>IF([1]raw_data!I9&gt;[1]LOQ!I9,ROUND(([1]raw_data!I9/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I9/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,096</v>
+        <v>&lt;0.096</v>
       </c>
       <c r="J9" s="13" t="str">
         <f>IF([1]raw_data!J9&gt;[1]LOQ!J9,ROUND(([1]raw_data!J9/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J9/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,098</v>
+        <v>&lt;0.098</v>
       </c>
       <c r="K9" s="13" t="str">
         <f>IF([1]raw_data!K9&gt;[1]LOQ!K9,ROUND(([1]raw_data!K9/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K9/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,076</v>
+        <v>&lt;0.076</v>
       </c>
       <c r="L9" s="13" t="str">
         <f>IF([1]raw_data!L9&gt;[1]LOQ!L9,ROUND(([1]raw_data!L9/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L9/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,098</v>
+        <v>&lt;0.098</v>
       </c>
       <c r="M9" s="13" t="str">
         <f>IF([1]raw_data!M9&gt;[1]LOQ!M9,ROUND(([1]raw_data!M9/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M9/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,097</v>
+        <v>&lt;0.097</v>
       </c>
       <c r="N9" s="13" t="str">
         <f>IF([1]raw_data!N9&gt;[1]LOQ!N9,ROUND(([1]raw_data!N9/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N9/[1]raw_data!N$37),3))))</f>
-        <v>&lt;0,23</v>
+        <v>&lt;0.23</v>
       </c>
       <c r="O9" s="13" t="str">
         <f>IF([1]raw_data!O9&gt;[1]LOQ!O9,ROUND(([1]raw_data!O9/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O9/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,1</v>
+        <v>&lt;0.1</v>
       </c>
       <c r="P9" s="13" t="str">
         <f>IF([1]raw_data!P9&gt;[1]LOQ!P9,ROUND(([1]raw_data!P9/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P9/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,099</v>
+        <v>&lt;0.099</v>
       </c>
       <c r="Q9" s="13" t="str">
         <f>IF([1]raw_data!Q9&gt;[1]LOQ!Q9,ROUND(([1]raw_data!Q9/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q9/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,173</v>
+        <v>&lt;0.173</v>
       </c>
       <c r="R9" s="13" t="str">
         <f>IF([1]raw_data!R9&gt;[1]LOQ!R9,ROUND(([1]raw_data!R9/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R9/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="S9" s="13" t="str">
         <f>IF([1]raw_data!S9&gt;[1]LOQ!S9,ROUND(([1]raw_data!S9/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S9/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,008</v>
+        <v>&lt;0.008</v>
       </c>
       <c r="T9" s="13" t="str">
         <f>IF([1]raw_data!T9&gt;[1]LOQ!T9,ROUND(([1]raw_data!T9/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T9/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,209</v>
+        <v>&lt;0.209</v>
       </c>
       <c r="U9" s="13" t="str">
         <f>IF([1]raw_data!U9&gt;[1]LOQ!U9,ROUND(([1]raw_data!U9/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U9/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,079</v>
+        <v>&lt;0.079</v>
       </c>
       <c r="V9" s="13" t="str">
         <f>IF([1]raw_data!V9&gt;[1]LOQ!V9,ROUND(([1]raw_data!V9/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V9/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,061</v>
+        <v>&lt;0.061</v>
       </c>
       <c r="W9" s="13" t="str">
         <f>IF([1]raw_data!W9&gt;[1]LOQ!W9,ROUND(([1]raw_data!W9/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W9/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,089</v>
+        <v>&lt;0.089</v>
       </c>
       <c r="X9" s="13" t="str">
         <f>IF([1]raw_data!X9&gt;[1]LOQ!X9,ROUND(([1]raw_data!X9/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X9/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,183</v>
+        <v>&lt;0.183</v>
       </c>
       <c r="Y9" s="13" t="str">
         <f>IF([1]raw_data!Y9&gt;[1]LOQ!Y9,ROUND(([1]raw_data!Y9/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y9/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,17</v>
+        <v>&lt;0.17</v>
       </c>
       <c r="Z9" s="13" t="str">
         <f>IF([1]raw_data!Z9&gt;[1]LOQ!Z9,ROUND(([1]raw_data!Z9/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z9/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,064</v>
+        <v>&lt;0.064</v>
       </c>
       <c r="AA9" s="13" t="str">
         <f>IF([1]raw_data!AA9&gt;[1]LOQ!AA9,ROUND(([1]raw_data!AA9/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA9/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,086</v>
+        <v>&lt;0.086</v>
       </c>
       <c r="AB9" s="13" t="str">
         <f>IF([1]raw_data!AB9&gt;[1]LOQ!AB9,ROUND(([1]raw_data!AB9/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB9/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="AC9" s="13" t="str">
         <f>IF([1]raw_data!AC9&gt;[1]LOQ!AC9,ROUND(([1]raw_data!AC9/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC9/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="AD9" s="13" t="str">
         <f>IF([1]raw_data!AD9&gt;[1]LOQ!AD9,ROUND(([1]raw_data!AD9/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD9/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,087</v>
+        <v>&lt;0.087</v>
       </c>
       <c r="AE9" s="13" t="str">
         <f>IF([1]raw_data!AE9&gt;[1]LOQ!AE9,ROUND(([1]raw_data!AE9/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE9/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,065</v>
+        <v>&lt;0.065</v>
       </c>
       <c r="AF9" s="13" t="str">
         <f>IF([1]raw_data!AF9&gt;[1]LOQ!AF9,ROUND(([1]raw_data!AF9/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF9/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="AG9" s="13" t="str">
         <f>IF([1]raw_data!AG9&gt;[1]LOQ!AG9,ROUND(([1]raw_data!AG9/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG9/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="AH9" s="13" t="str">
         <f>IF([1]raw_data!AH9&gt;[1]LOQ!AH9,ROUND(([1]raw_data!AH9/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH9/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,092</v>
+        <v>&lt;0.092</v>
       </c>
       <c r="AI9" s="13" t="str">
         <f>IF([1]raw_data!AI9&gt;[1]LOQ!AI9,ROUND(([1]raw_data!AI9/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI9/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,079</v>
+        <v>&lt;0.079</v>
       </c>
       <c r="AJ9" s="13" t="str">
         <f>IF([1]raw_data!AJ9&gt;[1]LOQ!AJ9,ROUND(([1]raw_data!AJ9/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ9/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,117</v>
+        <v>&lt;0.117</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A10" s="13" t="s">
         <v>136</v>
       </c>
@@ -27429,134 +27429,134 @@
       </c>
       <c r="E10" s="13" t="str">
         <f>IF([1]raw_data!E10&gt;[1]LOQ!E10,ROUND(([1]raw_data!E10/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E10/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,075</v>
+        <v>&lt;0.075</v>
       </c>
       <c r="F10" s="13" t="str">
         <f>IF([1]raw_data!F10&gt;[1]LOQ!F10,ROUND(([1]raw_data!F10/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F10/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,863</v>
+        <v>&lt;0.863</v>
       </c>
       <c r="G10" s="13" t="str">
         <f>IF([1]raw_data!G10&gt;[1]LOQ!G10,ROUND(([1]raw_data!G10/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G10/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,074</v>
+        <v>&lt;0.074</v>
       </c>
       <c r="H10" s="13" t="str">
         <f>IF([1]raw_data!H10&gt;[1]LOQ!H10,ROUND(([1]raw_data!H10/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H10/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,936</v>
+        <v>&lt;0.936</v>
       </c>
       <c r="I10" s="13" t="str">
         <f>IF([1]raw_data!I10&gt;[1]LOQ!I10,ROUND(([1]raw_data!I10/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I10/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,261</v>
+        <v>&lt;0.261</v>
       </c>
       <c r="J10" s="13" t="str">
         <f>IF([1]raw_data!J10&gt;[1]LOQ!J10,ROUND(([1]raw_data!J10/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J10/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,537</v>
+        <v>&lt;0.537</v>
       </c>
       <c r="K10" s="13" t="str">
         <f>IF([1]raw_data!K10&gt;[1]LOQ!K10,ROUND(([1]raw_data!K10/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K10/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,856</v>
+        <v>&lt;0.856</v>
       </c>
       <c r="L10" s="13" t="str">
         <f>IF([1]raw_data!L10&gt;[1]LOQ!L10,ROUND(([1]raw_data!L10/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L10/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,963</v>
+        <v>&lt;0.963</v>
       </c>
       <c r="M10" s="13" t="str">
         <f>IF([1]raw_data!M10&gt;[1]LOQ!M10,ROUND(([1]raw_data!M10/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M10/[1]raw_data!M$37),3))))</f>
-        <v>&lt;1,766</v>
+        <v>&lt;1.766</v>
       </c>
       <c r="N10" s="13" t="str">
         <f>IF([1]raw_data!N10&gt;[1]LOQ!N10,ROUND(([1]raw_data!N10/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N10/[1]raw_data!N$37),3))))</f>
-        <v>&lt;1,468</v>
+        <v>&lt;1.468</v>
       </c>
       <c r="O10" s="13" t="str">
         <f>IF([1]raw_data!O10&gt;[1]LOQ!O10,ROUND(([1]raw_data!O10/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O10/[1]raw_data!O$37),3))))</f>
-        <v>&lt;1,03</v>
+        <v>&lt;1.03</v>
       </c>
       <c r="P10" s="13" t="str">
         <f>IF([1]raw_data!P10&gt;[1]LOQ!P10,ROUND(([1]raw_data!P10/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P10/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,89</v>
+        <v>&lt;0.89</v>
       </c>
       <c r="Q10" s="13" t="str">
         <f>IF([1]raw_data!Q10&gt;[1]LOQ!Q10,ROUND(([1]raw_data!Q10/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q10/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,793</v>
+        <v>&lt;0.793</v>
       </c>
       <c r="R10" s="13" t="str">
         <f>IF([1]raw_data!R10&gt;[1]LOQ!R10,ROUND(([1]raw_data!R10/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R10/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,069</v>
+        <v>&lt;0.069</v>
       </c>
       <c r="S10" s="13" t="str">
         <f>IF([1]raw_data!S10&gt;[1]LOQ!S10,ROUND(([1]raw_data!S10/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S10/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,073</v>
+        <v>&lt;0.073</v>
       </c>
       <c r="T10" s="13" t="str">
         <f>IF([1]raw_data!T10&gt;[1]LOQ!T10,ROUND(([1]raw_data!T10/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T10/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,833</v>
+        <v>&lt;0.833</v>
       </c>
       <c r="U10" s="13" t="str">
         <f>IF([1]raw_data!U10&gt;[1]LOQ!U10,ROUND(([1]raw_data!U10/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U10/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,622</v>
+        <v>&lt;0.622</v>
       </c>
       <c r="V10" s="13" t="str">
         <f>IF([1]raw_data!V10&gt;[1]LOQ!V10,ROUND(([1]raw_data!V10/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V10/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,804</v>
+        <v>&lt;0.804</v>
       </c>
       <c r="W10" s="13" t="str">
         <f>IF([1]raw_data!W10&gt;[1]LOQ!W10,ROUND(([1]raw_data!W10/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W10/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,339</v>
+        <v>&lt;0.339</v>
       </c>
       <c r="X10" s="13" t="str">
         <f>IF([1]raw_data!X10&gt;[1]LOQ!X10,ROUND(([1]raw_data!X10/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X10/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,475</v>
+        <v>&lt;0.475</v>
       </c>
       <c r="Y10" s="13" t="str">
         <f>IF([1]raw_data!Y10&gt;[1]LOQ!Y10,ROUND(([1]raw_data!Y10/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y10/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,574</v>
+        <v>&lt;0.574</v>
       </c>
       <c r="Z10" s="13" t="str">
         <f>IF([1]raw_data!Z10&gt;[1]LOQ!Z10,ROUND(([1]raw_data!Z10/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z10/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,714</v>
+        <v>&lt;0.714</v>
       </c>
       <c r="AA10" s="13" t="str">
         <f>IF([1]raw_data!AA10&gt;[1]LOQ!AA10,ROUND(([1]raw_data!AA10/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA10/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,651</v>
+        <v>&lt;0.651</v>
       </c>
       <c r="AB10" s="13" t="str">
         <f>IF([1]raw_data!AB10&gt;[1]LOQ!AB10,ROUND(([1]raw_data!AB10/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB10/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,071</v>
+        <v>&lt;0.071</v>
       </c>
       <c r="AC10" s="13" t="str">
         <f>IF([1]raw_data!AC10&gt;[1]LOQ!AC10,ROUND(([1]raw_data!AC10/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC10/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,096</v>
+        <v>&lt;0.096</v>
       </c>
       <c r="AD10" s="13" t="str">
         <f>IF([1]raw_data!AD10&gt;[1]LOQ!AD10,ROUND(([1]raw_data!AD10/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD10/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,578</v>
+        <v>&lt;0.578</v>
       </c>
       <c r="AE10" s="13" t="str">
         <f>IF([1]raw_data!AE10&gt;[1]LOQ!AE10,ROUND(([1]raw_data!AE10/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE10/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,307</v>
+        <v>&lt;0.307</v>
       </c>
       <c r="AF10" s="13" t="str">
         <f>IF([1]raw_data!AF10&gt;[1]LOQ!AF10,ROUND(([1]raw_data!AF10/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF10/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,04</v>
+        <v>&lt;0.04</v>
       </c>
       <c r="AG10" s="13" t="str">
         <f>IF([1]raw_data!AG10&gt;[1]LOQ!AG10,ROUND(([1]raw_data!AG10/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG10/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,068</v>
+        <v>&lt;0.068</v>
       </c>
       <c r="AH10" s="13" t="str">
         <f>IF([1]raw_data!AH10&gt;[1]LOQ!AH10,ROUND(([1]raw_data!AH10/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH10/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,802</v>
+        <v>&lt;0.802</v>
       </c>
       <c r="AI10" s="13" t="str">
         <f>IF([1]raw_data!AI10&gt;[1]LOQ!AI10,ROUND(([1]raw_data!AI10/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI10/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,536</v>
+        <v>&lt;0.536</v>
       </c>
       <c r="AJ10" s="13" t="str">
         <f>IF([1]raw_data!AJ10&gt;[1]LOQ!AJ10,ROUND(([1]raw_data!AJ10/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ10/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,959</v>
+        <v>&lt;0.959</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A11" s="13" t="s">
         <v>137</v>
       </c>
@@ -27574,15 +27574,15 @@
       </c>
       <c r="E11" s="13" t="str">
         <f>IF([1]raw_data!E11&gt;[1]LOQ!E11,ROUND(([1]raw_data!E11/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E11/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,008</v>
+        <v>&lt;0.008</v>
       </c>
       <c r="F11" s="13" t="str">
         <f>IF([1]raw_data!F11&gt;[1]LOQ!F11,ROUND(([1]raw_data!F11/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F11/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,166</v>
+        <v>&lt;0.166</v>
       </c>
       <c r="G11" s="13" t="str">
         <f>IF([1]raw_data!G11&gt;[1]LOQ!G11,ROUND(([1]raw_data!G11/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G11/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,01</v>
+        <v>&lt;0.01</v>
       </c>
       <c r="H11" s="13">
         <f>IF([1]raw_data!H11&gt;[1]LOQ!H11,ROUND(([1]raw_data!H11/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H11/[1]raw_data!H$37),3))))</f>
@@ -27606,39 +27606,39 @@
       </c>
       <c r="M11" s="13" t="str">
         <f>IF([1]raw_data!M11&gt;[1]LOQ!M11,ROUND(([1]raw_data!M11/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M11/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,203</v>
+        <v>&lt;0.203</v>
       </c>
       <c r="N11" s="13" t="str">
         <f>IF([1]raw_data!N11&gt;[1]LOQ!N11,ROUND(([1]raw_data!N11/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N11/[1]raw_data!N$37),3))))</f>
-        <v>&lt;0,275</v>
+        <v>&lt;0.275</v>
       </c>
       <c r="O11" s="13" t="str">
         <f>IF([1]raw_data!O11&gt;[1]LOQ!O11,ROUND(([1]raw_data!O11/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O11/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,136</v>
+        <v>&lt;0.136</v>
       </c>
       <c r="P11" s="13" t="str">
         <f>IF([1]raw_data!P11&gt;[1]LOQ!P11,ROUND(([1]raw_data!P11/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P11/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,109</v>
+        <v>&lt;0.109</v>
       </c>
       <c r="Q11" s="13" t="str">
         <f>IF([1]raw_data!Q11&gt;[1]LOQ!Q11,ROUND(([1]raw_data!Q11/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q11/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,158</v>
+        <v>&lt;0.158</v>
       </c>
       <c r="R11" s="13" t="str">
         <f>IF([1]raw_data!R11&gt;[1]LOQ!R11,ROUND(([1]raw_data!R11/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R11/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,009</v>
+        <v>&lt;0.009</v>
       </c>
       <c r="S11" s="13" t="str">
         <f>IF([1]raw_data!S11&gt;[1]LOQ!S11,ROUND(([1]raw_data!S11/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S11/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,008</v>
+        <v>&lt;0.008</v>
       </c>
       <c r="T11" s="13" t="str">
         <f>IF([1]raw_data!T11&gt;[1]LOQ!T11,ROUND(([1]raw_data!T11/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T11/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,117</v>
+        <v>&lt;0.117</v>
       </c>
       <c r="U11" s="13" t="str">
         <f>IF([1]raw_data!U11&gt;[1]LOQ!U11,ROUND(([1]raw_data!U11/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U11/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,1</v>
+        <v>&lt;0.1</v>
       </c>
       <c r="V11" s="13">
         <f>IF([1]raw_data!V11&gt;[1]LOQ!V11,ROUND(([1]raw_data!V11/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V11/[1]raw_data!V$37),3))))</f>
@@ -27654,15 +27654,15 @@
       </c>
       <c r="Y11" s="13" t="str">
         <f>IF([1]raw_data!Y11&gt;[1]LOQ!Y11,ROUND(([1]raw_data!Y11/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y11/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,102</v>
+        <v>&lt;0.102</v>
       </c>
       <c r="Z11" s="13" t="str">
         <f>IF([1]raw_data!Z11&gt;[1]LOQ!Z11,ROUND(([1]raw_data!Z11/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z11/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,124</v>
+        <v>&lt;0.124</v>
       </c>
       <c r="AA11" s="13" t="str">
         <f>IF([1]raw_data!AA11&gt;[1]LOQ!AA11,ROUND(([1]raw_data!AA11/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA11/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,085</v>
+        <v>&lt;0.085</v>
       </c>
       <c r="AB11" s="13">
         <f>IF([1]raw_data!AB11&gt;[1]LOQ!AB11,ROUND(([1]raw_data!AB11/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB11/[1]raw_data!AB$37),3))))</f>
@@ -27678,30 +27678,30 @@
       </c>
       <c r="AE11" s="13" t="str">
         <f>IF([1]raw_data!AE11&gt;[1]LOQ!AE11,ROUND(([1]raw_data!AE11/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE11/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,055</v>
+        <v>&lt;0.055</v>
       </c>
       <c r="AF11" s="13" t="str">
         <f>IF([1]raw_data!AF11&gt;[1]LOQ!AF11,ROUND(([1]raw_data!AF11/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF11/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="AG11" s="13" t="str">
         <f>IF([1]raw_data!AG11&gt;[1]LOQ!AG11,ROUND(([1]raw_data!AG11/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG11/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,007</v>
+        <v>&lt;0.007</v>
       </c>
       <c r="AH11" s="13" t="str">
         <f>IF([1]raw_data!AH11&gt;[1]LOQ!AH11,ROUND(([1]raw_data!AH11/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH11/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,059</v>
+        <v>&lt;0.059</v>
       </c>
       <c r="AI11" s="13" t="str">
         <f>IF([1]raw_data!AI11&gt;[1]LOQ!AI11,ROUND(([1]raw_data!AI11/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI11/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,079</v>
+        <v>&lt;0.079</v>
       </c>
       <c r="AJ11" s="13" t="str">
         <f>IF([1]raw_data!AJ11&gt;[1]LOQ!AJ11,ROUND(([1]raw_data!AJ11/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ11/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,039</v>
+        <v>&lt;0.039</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A12" s="13" t="s">
         <v>138</v>
       </c>
@@ -27719,134 +27719,134 @@
       </c>
       <c r="E12" s="13" t="str">
         <f>IF([1]raw_data!E12&gt;[1]LOQ!E12,ROUND(([1]raw_data!E12/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E12/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,05</v>
+        <v>&lt;0.05</v>
       </c>
       <c r="F12" s="13" t="str">
         <f>IF([1]raw_data!F12&gt;[1]LOQ!F12,ROUND(([1]raw_data!F12/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F12/[1]raw_data!F$37),3))))</f>
-        <v>&lt;1,296</v>
+        <v>&lt;1.296</v>
       </c>
       <c r="G12" s="13" t="str">
         <f>IF([1]raw_data!G12&gt;[1]LOQ!G12,ROUND(([1]raw_data!G12/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G12/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,047</v>
+        <v>&lt;0.047</v>
       </c>
       <c r="H12" s="13" t="str">
         <f>IF([1]raw_data!H12&gt;[1]LOQ!H12,ROUND(([1]raw_data!H12/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H12/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,894</v>
+        <v>&lt;0.894</v>
       </c>
       <c r="I12" s="13" t="str">
         <f>IF([1]raw_data!I12&gt;[1]LOQ!I12,ROUND(([1]raw_data!I12/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I12/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,541</v>
+        <v>&lt;0.541</v>
       </c>
       <c r="J12" s="13" t="str">
         <f>IF([1]raw_data!J12&gt;[1]LOQ!J12,ROUND(([1]raw_data!J12/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J12/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,739</v>
+        <v>&lt;0.739</v>
       </c>
       <c r="K12" s="13" t="str">
         <f>IF([1]raw_data!K12&gt;[1]LOQ!K12,ROUND(([1]raw_data!K12/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K12/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,757</v>
+        <v>&lt;0.757</v>
       </c>
       <c r="L12" s="13" t="str">
         <f>IF([1]raw_data!L12&gt;[1]LOQ!L12,ROUND(([1]raw_data!L12/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L12/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,64</v>
+        <v>&lt;0.64</v>
       </c>
       <c r="M12" s="13" t="str">
         <f>IF([1]raw_data!M12&gt;[1]LOQ!M12,ROUND(([1]raw_data!M12/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M12/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,739</v>
+        <v>&lt;0.739</v>
       </c>
       <c r="N12" s="13" t="str">
         <f>IF([1]raw_data!N12&gt;[1]LOQ!N12,ROUND(([1]raw_data!N12/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N12/[1]raw_data!N$37),3))))</f>
-        <v>&lt;1,532</v>
+        <v>&lt;1.532</v>
       </c>
       <c r="O12" s="13" t="str">
         <f>IF([1]raw_data!O12&gt;[1]LOQ!O12,ROUND(([1]raw_data!O12/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O12/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,69</v>
+        <v>&lt;0.69</v>
       </c>
       <c r="P12" s="13" t="str">
         <f>IF([1]raw_data!P12&gt;[1]LOQ!P12,ROUND(([1]raw_data!P12/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P12/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,816</v>
+        <v>&lt;0.816</v>
       </c>
       <c r="Q12" s="13" t="str">
         <f>IF([1]raw_data!Q12&gt;[1]LOQ!Q12,ROUND(([1]raw_data!Q12/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q12/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;1,724</v>
+        <v>&lt;1.724</v>
       </c>
       <c r="R12" s="13" t="str">
         <f>IF([1]raw_data!R12&gt;[1]LOQ!R12,ROUND(([1]raw_data!R12/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R12/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,046</v>
+        <v>&lt;0.046</v>
       </c>
       <c r="S12" s="13" t="str">
         <f>IF([1]raw_data!S12&gt;[1]LOQ!S12,ROUND(([1]raw_data!S12/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S12/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,05</v>
+        <v>&lt;0.05</v>
       </c>
       <c r="T12" s="13" t="str">
         <f>IF([1]raw_data!T12&gt;[1]LOQ!T12,ROUND(([1]raw_data!T12/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T12/[1]raw_data!T$37),3))))</f>
-        <v>&lt;1,822</v>
+        <v>&lt;1.822</v>
       </c>
       <c r="U12" s="13" t="str">
         <f>IF([1]raw_data!U12&gt;[1]LOQ!U12,ROUND(([1]raw_data!U12/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U12/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,74</v>
+        <v>&lt;0.74</v>
       </c>
       <c r="V12" s="13" t="str">
         <f>IF([1]raw_data!V12&gt;[1]LOQ!V12,ROUND(([1]raw_data!V12/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V12/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,655</v>
+        <v>&lt;0.655</v>
       </c>
       <c r="W12" s="13" t="str">
         <f>IF([1]raw_data!W12&gt;[1]LOQ!W12,ROUND(([1]raw_data!W12/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W12/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,712</v>
+        <v>&lt;0.712</v>
       </c>
       <c r="X12" s="13" t="str">
         <f>IF([1]raw_data!X12&gt;[1]LOQ!X12,ROUND(([1]raw_data!X12/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X12/[1]raw_data!X$37),3))))</f>
-        <v>&lt;1,359</v>
+        <v>&lt;1.359</v>
       </c>
       <c r="Y12" s="13" t="str">
         <f>IF([1]raw_data!Y12&gt;[1]LOQ!Y12,ROUND(([1]raw_data!Y12/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y12/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;1,348</v>
+        <v>&lt;1.348</v>
       </c>
       <c r="Z12" s="13" t="str">
         <f>IF([1]raw_data!Z12&gt;[1]LOQ!Z12,ROUND(([1]raw_data!Z12/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z12/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,582</v>
+        <v>&lt;0.582</v>
       </c>
       <c r="AA12" s="13" t="str">
         <f>IF([1]raw_data!AA12&gt;[1]LOQ!AA12,ROUND(([1]raw_data!AA12/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA12/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,646</v>
+        <v>&lt;0.646</v>
       </c>
       <c r="AB12" s="13" t="str">
         <f>IF([1]raw_data!AB12&gt;[1]LOQ!AB12,ROUND(([1]raw_data!AB12/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB12/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,043</v>
+        <v>&lt;0.043</v>
       </c>
       <c r="AC12" s="13" t="str">
         <f>IF([1]raw_data!AC12&gt;[1]LOQ!AC12,ROUND(([1]raw_data!AC12/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC12/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,045</v>
+        <v>&lt;0.045</v>
       </c>
       <c r="AD12" s="13" t="str">
         <f>IF([1]raw_data!AD12&gt;[1]LOQ!AD12,ROUND(([1]raw_data!AD12/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD12/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,645</v>
+        <v>&lt;0.645</v>
       </c>
       <c r="AE12" s="13" t="str">
         <f>IF([1]raw_data!AE12&gt;[1]LOQ!AE12,ROUND(([1]raw_data!AE12/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE12/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,566</v>
+        <v>&lt;0.566</v>
       </c>
       <c r="AF12" s="13" t="str">
         <f>IF([1]raw_data!AF12&gt;[1]LOQ!AF12,ROUND(([1]raw_data!AF12/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF12/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,046</v>
+        <v>&lt;0.046</v>
       </c>
       <c r="AG12" s="13" t="str">
         <f>IF([1]raw_data!AG12&gt;[1]LOQ!AG12,ROUND(([1]raw_data!AG12/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG12/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,045</v>
+        <v>&lt;0.045</v>
       </c>
       <c r="AH12" s="13" t="str">
         <f>IF([1]raw_data!AH12&gt;[1]LOQ!AH12,ROUND(([1]raw_data!AH12/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH12/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,861</v>
+        <v>&lt;0.861</v>
       </c>
       <c r="AI12" s="13" t="str">
         <f>IF([1]raw_data!AI12&gt;[1]LOQ!AI12,ROUND(([1]raw_data!AI12/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI12/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,707</v>
+        <v>&lt;0.707</v>
       </c>
       <c r="AJ12" s="13" t="str">
         <f>IF([1]raw_data!AJ12&gt;[1]LOQ!AJ12,ROUND(([1]raw_data!AJ12/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ12/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;1,497</v>
+        <v>&lt;1.497</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A13" s="13" t="s">
         <v>139</v>
       </c>
@@ -27864,134 +27864,134 @@
       </c>
       <c r="E13" s="13" t="str">
         <f>IF([1]raw_data!E13&gt;[1]LOQ!E13,ROUND(([1]raw_data!E13/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E13/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="F13" s="13" t="str">
         <f>IF([1]raw_data!F13&gt;[1]LOQ!F13,ROUND(([1]raw_data!F13/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F13/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,097</v>
+        <v>&lt;0.097</v>
       </c>
       <c r="G13" s="13" t="str">
         <f>IF([1]raw_data!G13&gt;[1]LOQ!G13,ROUND(([1]raw_data!G13/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G13/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,007</v>
+        <v>&lt;0.007</v>
       </c>
       <c r="H13" s="13" t="str">
         <f>IF([1]raw_data!H13&gt;[1]LOQ!H13,ROUND(([1]raw_data!H13/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H13/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,077</v>
+        <v>&lt;0.077</v>
       </c>
       <c r="I13" s="13" t="str">
         <f>IF([1]raw_data!I13&gt;[1]LOQ!I13,ROUND(([1]raw_data!I13/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I13/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,059</v>
+        <v>&lt;0.059</v>
       </c>
       <c r="J13" s="13" t="str">
         <f>IF([1]raw_data!J13&gt;[1]LOQ!J13,ROUND(([1]raw_data!J13/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J13/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,07</v>
+        <v>&lt;0.07</v>
       </c>
       <c r="K13" s="13" t="str">
         <f>IF([1]raw_data!K13&gt;[1]LOQ!K13,ROUND(([1]raw_data!K13/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K13/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,053</v>
+        <v>&lt;0.053</v>
       </c>
       <c r="L13" s="13" t="str">
         <f>IF([1]raw_data!L13&gt;[1]LOQ!L13,ROUND(([1]raw_data!L13/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L13/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,083</v>
+        <v>&lt;0.083</v>
       </c>
       <c r="M13" s="13" t="str">
         <f>IF([1]raw_data!M13&gt;[1]LOQ!M13,ROUND(([1]raw_data!M13/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M13/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,131</v>
+        <v>&lt;0.131</v>
       </c>
       <c r="N13" s="13" t="str">
         <f>IF([1]raw_data!N13&gt;[1]LOQ!N13,ROUND(([1]raw_data!N13/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N13/[1]raw_data!N$37),3))))</f>
-        <v>&lt;0,3</v>
+        <v>&lt;0.3</v>
       </c>
       <c r="O13" s="13" t="str">
         <f>IF([1]raw_data!O13&gt;[1]LOQ!O13,ROUND(([1]raw_data!O13/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O13/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,169</v>
+        <v>&lt;0.169</v>
       </c>
       <c r="P13" s="13" t="str">
         <f>IF([1]raw_data!P13&gt;[1]LOQ!P13,ROUND(([1]raw_data!P13/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P13/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,135</v>
+        <v>&lt;0.135</v>
       </c>
       <c r="Q13" s="13" t="str">
         <f>IF([1]raw_data!Q13&gt;[1]LOQ!Q13,ROUND(([1]raw_data!Q13/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q13/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,178</v>
+        <v>&lt;0.178</v>
       </c>
       <c r="R13" s="13" t="str">
         <f>IF([1]raw_data!R13&gt;[1]LOQ!R13,ROUND(([1]raw_data!R13/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R13/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,008</v>
+        <v>&lt;0.008</v>
       </c>
       <c r="S13" s="13" t="str">
         <f>IF([1]raw_data!S13&gt;[1]LOQ!S13,ROUND(([1]raw_data!S13/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S13/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,018</v>
+        <v>&lt;0.018</v>
       </c>
       <c r="T13" s="13" t="str">
         <f>IF([1]raw_data!T13&gt;[1]LOQ!T13,ROUND(([1]raw_data!T13/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T13/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,047</v>
+        <v>&lt;0.047</v>
       </c>
       <c r="U13" s="13" t="str">
         <f>IF([1]raw_data!U13&gt;[1]LOQ!U13,ROUND(([1]raw_data!U13/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U13/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,105</v>
+        <v>&lt;0.105</v>
       </c>
       <c r="V13" s="13" t="str">
         <f>IF([1]raw_data!V13&gt;[1]LOQ!V13,ROUND(([1]raw_data!V13/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V13/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,053</v>
+        <v>&lt;0.053</v>
       </c>
       <c r="W13" s="13" t="str">
         <f>IF([1]raw_data!W13&gt;[1]LOQ!W13,ROUND(([1]raw_data!W13/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W13/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,082</v>
+        <v>&lt;0.082</v>
       </c>
       <c r="X13" s="13" t="str">
         <f>IF([1]raw_data!X13&gt;[1]LOQ!X13,ROUND(([1]raw_data!X13/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X13/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,09</v>
+        <v>&lt;0.09</v>
       </c>
       <c r="Y13" s="13" t="str">
         <f>IF([1]raw_data!Y13&gt;[1]LOQ!Y13,ROUND(([1]raw_data!Y13/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y13/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,046</v>
+        <v>&lt;0.046</v>
       </c>
       <c r="Z13" s="13" t="str">
         <f>IF([1]raw_data!Z13&gt;[1]LOQ!Z13,ROUND(([1]raw_data!Z13/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z13/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,057</v>
+        <v>&lt;0.057</v>
       </c>
       <c r="AA13" s="13" t="str">
         <f>IF([1]raw_data!AA13&gt;[1]LOQ!AA13,ROUND(([1]raw_data!AA13/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA13/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,08</v>
+        <v>&lt;0.08</v>
       </c>
       <c r="AB13" s="13" t="str">
         <f>IF([1]raw_data!AB13&gt;[1]LOQ!AB13,ROUND(([1]raw_data!AB13/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB13/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,006</v>
+        <v>&lt;0.006</v>
       </c>
       <c r="AC13" s="13" t="str">
         <f>IF([1]raw_data!AC13&gt;[1]LOQ!AC13,ROUND(([1]raw_data!AC13/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC13/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,01</v>
+        <v>&lt;0.01</v>
       </c>
       <c r="AD13" s="13" t="str">
         <f>IF([1]raw_data!AD13&gt;[1]LOQ!AD13,ROUND(([1]raw_data!AD13/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD13/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,061</v>
+        <v>&lt;0.061</v>
       </c>
       <c r="AE13" s="13" t="str">
         <f>IF([1]raw_data!AE13&gt;[1]LOQ!AE13,ROUND(([1]raw_data!AE13/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE13/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,061</v>
+        <v>&lt;0.061</v>
       </c>
       <c r="AF13" s="13" t="str">
         <f>IF([1]raw_data!AF13&gt;[1]LOQ!AF13,ROUND(([1]raw_data!AF13/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF13/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,014</v>
+        <v>&lt;0.014</v>
       </c>
       <c r="AG13" s="13" t="str">
         <f>IF([1]raw_data!AG13&gt;[1]LOQ!AG13,ROUND(([1]raw_data!AG13/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG13/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,012</v>
+        <v>&lt;0.012</v>
       </c>
       <c r="AH13" s="13" t="str">
         <f>IF([1]raw_data!AH13&gt;[1]LOQ!AH13,ROUND(([1]raw_data!AH13/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH13/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,038</v>
+        <v>&lt;0.038</v>
       </c>
       <c r="AI13" s="13" t="str">
         <f>IF([1]raw_data!AI13&gt;[1]LOQ!AI13,ROUND(([1]raw_data!AI13/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI13/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,04</v>
+        <v>&lt;0.04</v>
       </c>
       <c r="AJ13" s="13" t="str">
         <f>IF([1]raw_data!AJ13&gt;[1]LOQ!AJ13,ROUND(([1]raw_data!AJ13/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ13/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,069</v>
+        <v>&lt;0.069</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A14" s="13" t="s">
         <v>140</v>
       </c>
@@ -28013,11 +28013,11 @@
       </c>
       <c r="F14" s="13" t="str">
         <f>IF([1]raw_data!F14&gt;[1]LOQ!F14,ROUND(([1]raw_data!F14/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F14/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,144</v>
+        <v>&lt;0.144</v>
       </c>
       <c r="G14" s="13" t="str">
         <f>IF([1]raw_data!G14&gt;[1]LOQ!G14,ROUND(([1]raw_data!G14/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G14/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,01</v>
+        <v>&lt;0.01</v>
       </c>
       <c r="H14" s="13">
         <f>IF([1]raw_data!H14&gt;[1]LOQ!H14,ROUND(([1]raw_data!H14/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H14/[1]raw_data!H$37),3))))</f>
@@ -28029,7 +28029,7 @@
       </c>
       <c r="J14" s="13" t="str">
         <f>IF([1]raw_data!J14&gt;[1]LOQ!J14,ROUND(([1]raw_data!J14/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J14/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,104</v>
+        <v>&lt;0.104</v>
       </c>
       <c r="K14" s="13">
         <f>IF([1]raw_data!K14&gt;[1]LOQ!K14,ROUND(([1]raw_data!K14/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K14/[1]raw_data!K$37),3))))</f>
@@ -28037,7 +28037,7 @@
       </c>
       <c r="L14" s="13" t="str">
         <f>IF([1]raw_data!L14&gt;[1]LOQ!L14,ROUND(([1]raw_data!L14/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L14/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,123</v>
+        <v>&lt;0.123</v>
       </c>
       <c r="M14" s="13">
         <f>IF([1]raw_data!M14&gt;[1]LOQ!M14,ROUND(([1]raw_data!M14/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M14/[1]raw_data!M$37),3))))</f>
@@ -28069,7 +28069,7 @@
       </c>
       <c r="T14" s="13" t="str">
         <f>IF([1]raw_data!T14&gt;[1]LOQ!T14,ROUND(([1]raw_data!T14/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T14/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,069</v>
+        <v>&lt;0.069</v>
       </c>
       <c r="U14" s="13">
         <f>IF([1]raw_data!U14&gt;[1]LOQ!U14,ROUND(([1]raw_data!U14/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U14/[1]raw_data!U$37),3))))</f>
@@ -28085,15 +28085,15 @@
       </c>
       <c r="X14" s="13" t="str">
         <f>IF([1]raw_data!X14&gt;[1]LOQ!X14,ROUND(([1]raw_data!X14/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X14/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,133</v>
+        <v>&lt;0.133</v>
       </c>
       <c r="Y14" s="13" t="str">
         <f>IF([1]raw_data!Y14&gt;[1]LOQ!Y14,ROUND(([1]raw_data!Y14/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y14/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,067</v>
+        <v>&lt;0.067</v>
       </c>
       <c r="Z14" s="13" t="str">
         <f>IF([1]raw_data!Z14&gt;[1]LOQ!Z14,ROUND(([1]raw_data!Z14/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z14/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,084</v>
+        <v>&lt;0.084</v>
       </c>
       <c r="AA14" s="13">
         <f>IF([1]raw_data!AA14&gt;[1]LOQ!AA14,ROUND(([1]raw_data!AA14/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA14/[1]raw_data!AA$37),3))))</f>
@@ -28113,7 +28113,7 @@
       </c>
       <c r="AE14" s="13" t="str">
         <f>IF([1]raw_data!AE14&gt;[1]LOQ!AE14,ROUND(([1]raw_data!AE14/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE14/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,091</v>
+        <v>&lt;0.091</v>
       </c>
       <c r="AF14" s="13">
         <f>IF([1]raw_data!AF14&gt;[1]LOQ!AF14,ROUND(([1]raw_data!AF14/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF14/[1]raw_data!AF$37),3))))</f>
@@ -28133,10 +28133,10 @@
       </c>
       <c r="AJ14" s="13" t="str">
         <f>IF([1]raw_data!AJ14&gt;[1]LOQ!AJ14,ROUND(([1]raw_data!AJ14/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ14/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,102</v>
+        <v>&lt;0.102</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -28154,134 +28154,134 @@
       </c>
       <c r="E15" s="13" t="str">
         <f>IF([1]raw_data!E15&gt;[1]LOQ!E15,ROUND(([1]raw_data!E15/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E15/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,168</v>
+        <v>&lt;0.168</v>
       </c>
       <c r="F15" s="13" t="str">
         <f>IF([1]raw_data!F15&gt;[1]LOQ!F15,ROUND(([1]raw_data!F15/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F15/[1]raw_data!F$37),3))))</f>
-        <v>&lt;2,847</v>
+        <v>&lt;2.847</v>
       </c>
       <c r="G15" s="13" t="str">
         <f>IF([1]raw_data!G15&gt;[1]LOQ!G15,ROUND(([1]raw_data!G15/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G15/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,143</v>
+        <v>&lt;0.143</v>
       </c>
       <c r="H15" s="13" t="str">
         <f>IF([1]raw_data!H15&gt;[1]LOQ!H15,ROUND(([1]raw_data!H15/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H15/[1]raw_data!H$37),3))))</f>
-        <v>&lt;2,679</v>
+        <v>&lt;2.679</v>
       </c>
       <c r="I15" s="13" t="str">
         <f>IF([1]raw_data!I15&gt;[1]LOQ!I15,ROUND(([1]raw_data!I15/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I15/[1]raw_data!I$37),3))))</f>
-        <v>&lt;1,547</v>
+        <v>&lt;1.547</v>
       </c>
       <c r="J15" s="13" t="str">
         <f>IF([1]raw_data!J15&gt;[1]LOQ!J15,ROUND(([1]raw_data!J15/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J15/[1]raw_data!J$37),3))))</f>
-        <v>&lt;2,176</v>
+        <v>&lt;2.176</v>
       </c>
       <c r="K15" s="13" t="str">
         <f>IF([1]raw_data!K15&gt;[1]LOQ!K15,ROUND(([1]raw_data!K15/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K15/[1]raw_data!K$37),3))))</f>
-        <v>&lt;2,744</v>
+        <v>&lt;2.744</v>
       </c>
       <c r="L15" s="13" t="str">
         <f>IF([1]raw_data!L15&gt;[1]LOQ!L15,ROUND(([1]raw_data!L15/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L15/[1]raw_data!L$37),3))))</f>
-        <v>&lt;3,223</v>
+        <v>&lt;3.223</v>
       </c>
       <c r="M15" s="13" t="str">
         <f>IF([1]raw_data!M15&gt;[1]LOQ!M15,ROUND(([1]raw_data!M15/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M15/[1]raw_data!M$37),3))))</f>
-        <v>&lt;2,56</v>
+        <v>&lt;2.56</v>
       </c>
       <c r="N15" s="13" t="str">
         <f>IF([1]raw_data!N15&gt;[1]LOQ!N15,ROUND(([1]raw_data!N15/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N15/[1]raw_data!N$37),3))))</f>
-        <v>&lt;4,778</v>
+        <v>&lt;4.778</v>
       </c>
       <c r="O15" s="13" t="str">
         <f>IF([1]raw_data!O15&gt;[1]LOQ!O15,ROUND(([1]raw_data!O15/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O15/[1]raw_data!O$37),3))))</f>
-        <v>&lt;3,09</v>
+        <v>&lt;3.09</v>
       </c>
       <c r="P15" s="13" t="str">
         <f>IF([1]raw_data!P15&gt;[1]LOQ!P15,ROUND(([1]raw_data!P15/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P15/[1]raw_data!P$37),3))))</f>
-        <v>&lt;2,718</v>
+        <v>&lt;2.718</v>
       </c>
       <c r="Q15" s="13" t="str">
         <f>IF([1]raw_data!Q15&gt;[1]LOQ!Q15,ROUND(([1]raw_data!Q15/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q15/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;3,495</v>
+        <v>&lt;3.495</v>
       </c>
       <c r="R15" s="13" t="str">
         <f>IF([1]raw_data!R15&gt;[1]LOQ!R15,ROUND(([1]raw_data!R15/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R15/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,136</v>
+        <v>&lt;0.136</v>
       </c>
       <c r="S15" s="13" t="str">
         <f>IF([1]raw_data!S15&gt;[1]LOQ!S15,ROUND(([1]raw_data!S15/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S15/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,147</v>
+        <v>&lt;0.147</v>
       </c>
       <c r="T15" s="13" t="str">
         <f>IF([1]raw_data!T15&gt;[1]LOQ!T15,ROUND(([1]raw_data!T15/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T15/[1]raw_data!T$37),3))))</f>
-        <v>&lt;3,197</v>
+        <v>&lt;3.197</v>
       </c>
       <c r="U15" s="13" t="str">
         <f>IF([1]raw_data!U15&gt;[1]LOQ!U15,ROUND(([1]raw_data!U15/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U15/[1]raw_data!U$37),3))))</f>
-        <v>&lt;2,694</v>
+        <v>&lt;2.694</v>
       </c>
       <c r="V15" s="13" t="str">
         <f>IF([1]raw_data!V15&gt;[1]LOQ!V15,ROUND(([1]raw_data!V15/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V15/[1]raw_data!V$37),3))))</f>
-        <v>&lt;2,304</v>
+        <v>&lt;2.304</v>
       </c>
       <c r="W15" s="13" t="str">
         <f>IF([1]raw_data!W15&gt;[1]LOQ!W15,ROUND(([1]raw_data!W15/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W15/[1]raw_data!W$37),3))))</f>
-        <v>&lt;2,578</v>
+        <v>&lt;2.578</v>
       </c>
       <c r="X15" s="13" t="str">
         <f>IF([1]raw_data!X15&gt;[1]LOQ!X15,ROUND(([1]raw_data!X15/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X15/[1]raw_data!X$37),3))))</f>
-        <v>&lt;2,643</v>
+        <v>&lt;2.643</v>
       </c>
       <c r="Y15" s="13" t="str">
         <f>IF([1]raw_data!Y15&gt;[1]LOQ!Y15,ROUND(([1]raw_data!Y15/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y15/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;3,355</v>
+        <v>&lt;3.355</v>
       </c>
       <c r="Z15" s="13" t="str">
         <f>IF([1]raw_data!Z15&gt;[1]LOQ!Z15,ROUND(([1]raw_data!Z15/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z15/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;2,239</v>
+        <v>&lt;2.239</v>
       </c>
       <c r="AA15" s="13" t="str">
         <f>IF([1]raw_data!AA15&gt;[1]LOQ!AA15,ROUND(([1]raw_data!AA15/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA15/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;2,887</v>
+        <v>&lt;2.887</v>
       </c>
       <c r="AB15" s="13" t="str">
         <f>IF([1]raw_data!AB15&gt;[1]LOQ!AB15,ROUND(([1]raw_data!AB15/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB15/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,154</v>
+        <v>&lt;0.154</v>
       </c>
       <c r="AC15" s="13" t="str">
         <f>IF([1]raw_data!AC15&gt;[1]LOQ!AC15,ROUND(([1]raw_data!AC15/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC15/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,134</v>
+        <v>&lt;0.134</v>
       </c>
       <c r="AD15" s="13" t="str">
         <f>IF([1]raw_data!AD15&gt;[1]LOQ!AD15,ROUND(([1]raw_data!AD15/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD15/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;2,195</v>
+        <v>&lt;2.195</v>
       </c>
       <c r="AE15" s="13" t="str">
         <f>IF([1]raw_data!AE15&gt;[1]LOQ!AE15,ROUND(([1]raw_data!AE15/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE15/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;2,549</v>
+        <v>&lt;2.549</v>
       </c>
       <c r="AF15" s="13" t="str">
         <f>IF([1]raw_data!AF15&gt;[1]LOQ!AF15,ROUND(([1]raw_data!AF15/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF15/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,11</v>
+        <v>&lt;0.11</v>
       </c>
       <c r="AG15" s="13" t="str">
         <f>IF([1]raw_data!AG15&gt;[1]LOQ!AG15,ROUND(([1]raw_data!AG15/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG15/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,113</v>
+        <v>&lt;0.113</v>
       </c>
       <c r="AH15" s="13" t="str">
         <f>IF([1]raw_data!AH15&gt;[1]LOQ!AH15,ROUND(([1]raw_data!AH15/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH15/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;2,332</v>
+        <v>&lt;2.332</v>
       </c>
       <c r="AI15" s="13" t="str">
         <f>IF([1]raw_data!AI15&gt;[1]LOQ!AI15,ROUND(([1]raw_data!AI15/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI15/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;2,148</v>
+        <v>&lt;2.148</v>
       </c>
       <c r="AJ15" s="13" t="str">
         <f>IF([1]raw_data!AJ15&gt;[1]LOQ!AJ15,ROUND(([1]raw_data!AJ15/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ15/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;2,915</v>
+        <v>&lt;2.915</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A16" s="13" t="s">
         <v>142</v>
       </c>
@@ -28299,134 +28299,134 @@
       </c>
       <c r="E16" s="13" t="str">
         <f>IF([1]raw_data!E16&gt;[1]LOQ!E16,ROUND(([1]raw_data!E16/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E16/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,008</v>
+        <v>&lt;0.008</v>
       </c>
       <c r="F16" s="13" t="str">
         <f>IF([1]raw_data!F16&gt;[1]LOQ!F16,ROUND(([1]raw_data!F16/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F16/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,195</v>
+        <v>&lt;0.195</v>
       </c>
       <c r="G16" s="13" t="str">
         <f>IF([1]raw_data!G16&gt;[1]LOQ!G16,ROUND(([1]raw_data!G16/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G16/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,006</v>
+        <v>&lt;0.006</v>
       </c>
       <c r="H16" s="13" t="str">
         <f>IF([1]raw_data!H16&gt;[1]LOQ!H16,ROUND(([1]raw_data!H16/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H16/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,162</v>
+        <v>&lt;0.162</v>
       </c>
       <c r="I16" s="13" t="str">
         <f>IF([1]raw_data!I16&gt;[1]LOQ!I16,ROUND(([1]raw_data!I16/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I16/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,055</v>
+        <v>&lt;0.055</v>
       </c>
       <c r="J16" s="13" t="str">
         <f>IF([1]raw_data!J16&gt;[1]LOQ!J16,ROUND(([1]raw_data!J16/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J16/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,103</v>
+        <v>&lt;0.103</v>
       </c>
       <c r="K16" s="13" t="str">
         <f>IF([1]raw_data!K16&gt;[1]LOQ!K16,ROUND(([1]raw_data!K16/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K16/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,116</v>
+        <v>&lt;0.116</v>
       </c>
       <c r="L16" s="13" t="str">
         <f>IF([1]raw_data!L16&gt;[1]LOQ!L16,ROUND(([1]raw_data!L16/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L16/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,26</v>
+        <v>&lt;0.26</v>
       </c>
       <c r="M16" s="13" t="str">
         <f>IF([1]raw_data!M16&gt;[1]LOQ!M16,ROUND(([1]raw_data!M16/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M16/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,293</v>
+        <v>&lt;0.293</v>
       </c>
       <c r="N16" s="13" t="str">
         <f>IF([1]raw_data!N16&gt;[1]LOQ!N16,ROUND(([1]raw_data!N16/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N16/[1]raw_data!N$37),3))))</f>
-        <v>&lt;0,225</v>
+        <v>&lt;0.225</v>
       </c>
       <c r="O16" s="13" t="str">
         <f>IF([1]raw_data!O16&gt;[1]LOQ!O16,ROUND(([1]raw_data!O16/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O16/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,229</v>
+        <v>&lt;0.229</v>
       </c>
       <c r="P16" s="13" t="str">
         <f>IF([1]raw_data!P16&gt;[1]LOQ!P16,ROUND(([1]raw_data!P16/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P16/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,153</v>
+        <v>&lt;0.153</v>
       </c>
       <c r="Q16" s="13" t="str">
         <f>IF([1]raw_data!Q16&gt;[1]LOQ!Q16,ROUND(([1]raw_data!Q16/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q16/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,119</v>
+        <v>&lt;0.119</v>
       </c>
       <c r="R16" s="13" t="str">
         <f>IF([1]raw_data!R16&gt;[1]LOQ!R16,ROUND(([1]raw_data!R16/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R16/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,006</v>
+        <v>&lt;0.006</v>
       </c>
       <c r="S16" s="13" t="str">
         <f>IF([1]raw_data!S16&gt;[1]LOQ!S16,ROUND(([1]raw_data!S16/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S16/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,008</v>
+        <v>&lt;0.008</v>
       </c>
       <c r="T16" s="13" t="str">
         <f>IF([1]raw_data!T16&gt;[1]LOQ!T16,ROUND(([1]raw_data!T16/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T16/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,09</v>
+        <v>&lt;0.09</v>
       </c>
       <c r="U16" s="13" t="str">
         <f>IF([1]raw_data!U16&gt;[1]LOQ!U16,ROUND(([1]raw_data!U16/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U16/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,103</v>
+        <v>&lt;0.103</v>
       </c>
       <c r="V16" s="13" t="str">
         <f>IF([1]raw_data!V16&gt;[1]LOQ!V16,ROUND(([1]raw_data!V16/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V16/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,066</v>
+        <v>&lt;0.066</v>
       </c>
       <c r="W16" s="13" t="str">
         <f>IF([1]raw_data!W16&gt;[1]LOQ!W16,ROUND(([1]raw_data!W16/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W16/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,051</v>
+        <v>&lt;0.051</v>
       </c>
       <c r="X16" s="13" t="str">
         <f>IF([1]raw_data!X16&gt;[1]LOQ!X16,ROUND(([1]raw_data!X16/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X16/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,085</v>
+        <v>&lt;0.085</v>
       </c>
       <c r="Y16" s="13" t="str">
         <f>IF([1]raw_data!Y16&gt;[1]LOQ!Y16,ROUND(([1]raw_data!Y16/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y16/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,114</v>
+        <v>&lt;0.114</v>
       </c>
       <c r="Z16" s="13" t="str">
         <f>IF([1]raw_data!Z16&gt;[1]LOQ!Z16,ROUND(([1]raw_data!Z16/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z16/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,088</v>
+        <v>&lt;0.088</v>
       </c>
       <c r="AA16" s="13" t="str">
         <f>IF([1]raw_data!AA16&gt;[1]LOQ!AA16,ROUND(([1]raw_data!AA16/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA16/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,057</v>
+        <v>&lt;0.057</v>
       </c>
       <c r="AB16" s="13" t="str">
         <f>IF([1]raw_data!AB16&gt;[1]LOQ!AB16,ROUND(([1]raw_data!AB16/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB16/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,009</v>
+        <v>&lt;0.009</v>
       </c>
       <c r="AC16" s="13" t="str">
         <f>IF([1]raw_data!AC16&gt;[1]LOQ!AC16,ROUND(([1]raw_data!AC16/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC16/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="AD16" s="13" t="str">
         <f>IF([1]raw_data!AD16&gt;[1]LOQ!AD16,ROUND(([1]raw_data!AD16/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD16/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,043</v>
+        <v>&lt;0.043</v>
       </c>
       <c r="AE16" s="13" t="str">
         <f>IF([1]raw_data!AE16&gt;[1]LOQ!AE16,ROUND(([1]raw_data!AE16/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE16/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,128</v>
+        <v>&lt;0.128</v>
       </c>
       <c r="AF16" s="13" t="str">
         <f>IF([1]raw_data!AF16&gt;[1]LOQ!AF16,ROUND(([1]raw_data!AF16/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF16/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,003</v>
+        <v>&lt;0.003</v>
       </c>
       <c r="AG16" s="13" t="str">
         <f>IF([1]raw_data!AG16&gt;[1]LOQ!AG16,ROUND(([1]raw_data!AG16/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG16/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="AH16" s="13" t="str">
         <f>IF([1]raw_data!AH16&gt;[1]LOQ!AH16,ROUND(([1]raw_data!AH16/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH16/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,053</v>
+        <v>&lt;0.053</v>
       </c>
       <c r="AI16" s="13" t="str">
         <f>IF([1]raw_data!AI16&gt;[1]LOQ!AI16,ROUND(([1]raw_data!AI16/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI16/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,057</v>
+        <v>&lt;0.057</v>
       </c>
       <c r="AJ16" s="13" t="str">
         <f>IF([1]raw_data!AJ16&gt;[1]LOQ!AJ16,ROUND(([1]raw_data!AJ16/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ16/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,057</v>
+        <v>&lt;0.057</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A17" s="13" t="s">
         <v>143</v>
       </c>
@@ -28444,134 +28444,134 @@
       </c>
       <c r="E17" s="13" t="str">
         <f>IF([1]raw_data!E17&gt;[1]LOQ!E17,ROUND(([1]raw_data!E17/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E17/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,013</v>
+        <v>&lt;0.013</v>
       </c>
       <c r="F17" s="13" t="str">
         <f>IF([1]raw_data!F17&gt;[1]LOQ!F17,ROUND(([1]raw_data!F17/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F17/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,288</v>
+        <v>&lt;0.288</v>
       </c>
       <c r="G17" s="13" t="str">
         <f>IF([1]raw_data!G17&gt;[1]LOQ!G17,ROUND(([1]raw_data!G17/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G17/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,009</v>
+        <v>&lt;0.009</v>
       </c>
       <c r="H17" s="13" t="str">
         <f>IF([1]raw_data!H17&gt;[1]LOQ!H17,ROUND(([1]raw_data!H17/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H17/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,24</v>
+        <v>&lt;0.24</v>
       </c>
       <c r="I17" s="13" t="str">
         <f>IF([1]raw_data!I17&gt;[1]LOQ!I17,ROUND(([1]raw_data!I17/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I17/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,081</v>
+        <v>&lt;0.081</v>
       </c>
       <c r="J17" s="13" t="str">
         <f>IF([1]raw_data!J17&gt;[1]LOQ!J17,ROUND(([1]raw_data!J17/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J17/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,152</v>
+        <v>&lt;0.152</v>
       </c>
       <c r="K17" s="13" t="str">
         <f>IF([1]raw_data!K17&gt;[1]LOQ!K17,ROUND(([1]raw_data!K17/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K17/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,172</v>
+        <v>&lt;0.172</v>
       </c>
       <c r="L17" s="13" t="str">
         <f>IF([1]raw_data!L17&gt;[1]LOQ!L17,ROUND(([1]raw_data!L17/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L17/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,384</v>
+        <v>&lt;0.384</v>
       </c>
       <c r="M17" s="13" t="str">
         <f>IF([1]raw_data!M17&gt;[1]LOQ!M17,ROUND(([1]raw_data!M17/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M17/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,434</v>
+        <v>&lt;0.434</v>
       </c>
       <c r="N17" s="13" t="str">
         <f>IF([1]raw_data!N17&gt;[1]LOQ!N17,ROUND(([1]raw_data!N17/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N17/[1]raw_data!N$37),3))))</f>
-        <v>&lt;0,333</v>
+        <v>&lt;0.333</v>
       </c>
       <c r="O17" s="13" t="str">
         <f>IF([1]raw_data!O17&gt;[1]LOQ!O17,ROUND(([1]raw_data!O17/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O17/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,339</v>
+        <v>&lt;0.339</v>
       </c>
       <c r="P17" s="13" t="str">
         <f>IF([1]raw_data!P17&gt;[1]LOQ!P17,ROUND(([1]raw_data!P17/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P17/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,226</v>
+        <v>&lt;0.226</v>
       </c>
       <c r="Q17" s="13" t="str">
         <f>IF([1]raw_data!Q17&gt;[1]LOQ!Q17,ROUND(([1]raw_data!Q17/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q17/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,175</v>
+        <v>&lt;0.175</v>
       </c>
       <c r="R17" s="13" t="str">
         <f>IF([1]raw_data!R17&gt;[1]LOQ!R17,ROUND(([1]raw_data!R17/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R17/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,009</v>
+        <v>&lt;0.009</v>
       </c>
       <c r="S17" s="13" t="str">
         <f>IF([1]raw_data!S17&gt;[1]LOQ!S17,ROUND(([1]raw_data!S17/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S17/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,012</v>
+        <v>&lt;0.012</v>
       </c>
       <c r="T17" s="13" t="str">
         <f>IF([1]raw_data!T17&gt;[1]LOQ!T17,ROUND(([1]raw_data!T17/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T17/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,134</v>
+        <v>&lt;0.134</v>
       </c>
       <c r="U17" s="13" t="str">
         <f>IF([1]raw_data!U17&gt;[1]LOQ!U17,ROUND(([1]raw_data!U17/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U17/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,152</v>
+        <v>&lt;0.152</v>
       </c>
       <c r="V17" s="13" t="str">
         <f>IF([1]raw_data!V17&gt;[1]LOQ!V17,ROUND(([1]raw_data!V17/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V17/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,097</v>
+        <v>&lt;0.097</v>
       </c>
       <c r="W17" s="13" t="str">
         <f>IF([1]raw_data!W17&gt;[1]LOQ!W17,ROUND(([1]raw_data!W17/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W17/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,076</v>
+        <v>&lt;0.076</v>
       </c>
       <c r="X17" s="13" t="str">
         <f>IF([1]raw_data!X17&gt;[1]LOQ!X17,ROUND(([1]raw_data!X17/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X17/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,125</v>
+        <v>&lt;0.125</v>
       </c>
       <c r="Y17" s="13" t="str">
         <f>IF([1]raw_data!Y17&gt;[1]LOQ!Y17,ROUND(([1]raw_data!Y17/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y17/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,169</v>
+        <v>&lt;0.169</v>
       </c>
       <c r="Z17" s="13" t="str">
         <f>IF([1]raw_data!Z17&gt;[1]LOQ!Z17,ROUND(([1]raw_data!Z17/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z17/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,13</v>
+        <v>&lt;0.13</v>
       </c>
       <c r="AA17" s="13" t="str">
         <f>IF([1]raw_data!AA17&gt;[1]LOQ!AA17,ROUND(([1]raw_data!AA17/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA17/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,084</v>
+        <v>&lt;0.084</v>
       </c>
       <c r="AB17" s="13" t="str">
         <f>IF([1]raw_data!AB17&gt;[1]LOQ!AB17,ROUND(([1]raw_data!AB17/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB17/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,013</v>
+        <v>&lt;0.013</v>
       </c>
       <c r="AC17" s="13" t="str">
         <f>IF([1]raw_data!AC17&gt;[1]LOQ!AC17,ROUND(([1]raw_data!AC17/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC17/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,007</v>
+        <v>&lt;0.007</v>
       </c>
       <c r="AD17" s="13" t="str">
         <f>IF([1]raw_data!AD17&gt;[1]LOQ!AD17,ROUND(([1]raw_data!AD17/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD17/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,063</v>
+        <v>&lt;0.063</v>
       </c>
       <c r="AE17" s="13" t="str">
         <f>IF([1]raw_data!AE17&gt;[1]LOQ!AE17,ROUND(([1]raw_data!AE17/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE17/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,189</v>
+        <v>&lt;0.189</v>
       </c>
       <c r="AF17" s="13" t="str">
         <f>IF([1]raw_data!AF17&gt;[1]LOQ!AF17,ROUND(([1]raw_data!AF17/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF17/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="AG17" s="13" t="str">
         <f>IF([1]raw_data!AG17&gt;[1]LOQ!AG17,ROUND(([1]raw_data!AG17/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG17/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,007</v>
+        <v>&lt;0.007</v>
       </c>
       <c r="AH17" s="13" t="str">
         <f>IF([1]raw_data!AH17&gt;[1]LOQ!AH17,ROUND(([1]raw_data!AH17/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH17/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,078</v>
+        <v>&lt;0.078</v>
       </c>
       <c r="AI17" s="13" t="str">
         <f>IF([1]raw_data!AI17&gt;[1]LOQ!AI17,ROUND(([1]raw_data!AI17/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI17/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,084</v>
+        <v>&lt;0.084</v>
       </c>
       <c r="AJ17" s="13" t="str">
         <f>IF([1]raw_data!AJ17&gt;[1]LOQ!AJ17,ROUND(([1]raw_data!AJ17/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ17/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,084</v>
+        <v>&lt;0.084</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A18" s="13" t="s">
         <v>144</v>
       </c>
@@ -28589,134 +28589,134 @@
       </c>
       <c r="E18" s="13" t="str">
         <f>IF([1]raw_data!E18&gt;[1]LOQ!E18,ROUND(([1]raw_data!E18/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E18/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,009</v>
+        <v>&lt;0.009</v>
       </c>
       <c r="F18" s="13" t="str">
         <f>IF([1]raw_data!F18&gt;[1]LOQ!F18,ROUND(([1]raw_data!F18/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F18/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,216</v>
+        <v>&lt;0.216</v>
       </c>
       <c r="G18" s="13" t="str">
         <f>IF([1]raw_data!G18&gt;[1]LOQ!G18,ROUND(([1]raw_data!G18/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G18/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,007</v>
+        <v>&lt;0.007</v>
       </c>
       <c r="H18" s="13" t="str">
         <f>IF([1]raw_data!H18&gt;[1]LOQ!H18,ROUND(([1]raw_data!H18/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H18/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,18</v>
+        <v>&lt;0.18</v>
       </c>
       <c r="I18" s="13" t="str">
         <f>IF([1]raw_data!I18&gt;[1]LOQ!I18,ROUND(([1]raw_data!I18/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I18/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,061</v>
+        <v>&lt;0.061</v>
       </c>
       <c r="J18" s="13" t="str">
         <f>IF([1]raw_data!J18&gt;[1]LOQ!J18,ROUND(([1]raw_data!J18/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J18/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,114</v>
+        <v>&lt;0.114</v>
       </c>
       <c r="K18" s="13" t="str">
         <f>IF([1]raw_data!K18&gt;[1]LOQ!K18,ROUND(([1]raw_data!K18/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K18/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,129</v>
+        <v>&lt;0.129</v>
       </c>
       <c r="L18" s="13" t="str">
         <f>IF([1]raw_data!L18&gt;[1]LOQ!L18,ROUND(([1]raw_data!L18/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L18/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,288</v>
+        <v>&lt;0.288</v>
       </c>
       <c r="M18" s="13" t="str">
         <f>IF([1]raw_data!M18&gt;[1]LOQ!M18,ROUND(([1]raw_data!M18/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M18/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,325</v>
+        <v>&lt;0.325</v>
       </c>
       <c r="N18" s="13" t="str">
         <f>IF([1]raw_data!N18&gt;[1]LOQ!N18,ROUND(([1]raw_data!N18/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N18/[1]raw_data!N$37),3))))</f>
-        <v>&lt;0,249</v>
+        <v>&lt;0.249</v>
       </c>
       <c r="O18" s="13" t="str">
         <f>IF([1]raw_data!O18&gt;[1]LOQ!O18,ROUND(([1]raw_data!O18/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O18/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,253</v>
+        <v>&lt;0.253</v>
       </c>
       <c r="P18" s="13" t="str">
         <f>IF([1]raw_data!P18&gt;[1]LOQ!P18,ROUND(([1]raw_data!P18/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P18/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,169</v>
+        <v>&lt;0.169</v>
       </c>
       <c r="Q18" s="13" t="str">
         <f>IF([1]raw_data!Q18&gt;[1]LOQ!Q18,ROUND(([1]raw_data!Q18/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q18/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,131</v>
+        <v>&lt;0.131</v>
       </c>
       <c r="R18" s="13" t="str">
         <f>IF([1]raw_data!R18&gt;[1]LOQ!R18,ROUND(([1]raw_data!R18/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R18/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,006</v>
+        <v>&lt;0.006</v>
       </c>
       <c r="S18" s="13" t="str">
         <f>IF([1]raw_data!S18&gt;[1]LOQ!S18,ROUND(([1]raw_data!S18/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S18/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,009</v>
+        <v>&lt;0.009</v>
       </c>
       <c r="T18" s="13" t="str">
         <f>IF([1]raw_data!T18&gt;[1]LOQ!T18,ROUND(([1]raw_data!T18/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T18/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,1</v>
+        <v>&lt;0.1</v>
       </c>
       <c r="U18" s="13" t="str">
         <f>IF([1]raw_data!U18&gt;[1]LOQ!U18,ROUND(([1]raw_data!U18/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U18/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,114</v>
+        <v>&lt;0.114</v>
       </c>
       <c r="V18" s="13" t="str">
         <f>IF([1]raw_data!V18&gt;[1]LOQ!V18,ROUND(([1]raw_data!V18/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V18/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,073</v>
+        <v>&lt;0.073</v>
       </c>
       <c r="W18" s="13" t="str">
         <f>IF([1]raw_data!W18&gt;[1]LOQ!W18,ROUND(([1]raw_data!W18/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W18/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,057</v>
+        <v>&lt;0.057</v>
       </c>
       <c r="X18" s="13" t="str">
         <f>IF([1]raw_data!X18&gt;[1]LOQ!X18,ROUND(([1]raw_data!X18/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X18/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,094</v>
+        <v>&lt;0.094</v>
       </c>
       <c r="Y18" s="13" t="str">
         <f>IF([1]raw_data!Y18&gt;[1]LOQ!Y18,ROUND(([1]raw_data!Y18/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y18/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,127</v>
+        <v>&lt;0.127</v>
       </c>
       <c r="Z18" s="13" t="str">
         <f>IF([1]raw_data!Z18&gt;[1]LOQ!Z18,ROUND(([1]raw_data!Z18/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z18/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,097</v>
+        <v>&lt;0.097</v>
       </c>
       <c r="AA18" s="13" t="str">
         <f>IF([1]raw_data!AA18&gt;[1]LOQ!AA18,ROUND(([1]raw_data!AA18/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA18/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,063</v>
+        <v>&lt;0.063</v>
       </c>
       <c r="AB18" s="13" t="str">
         <f>IF([1]raw_data!AB18&gt;[1]LOQ!AB18,ROUND(([1]raw_data!AB18/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB18/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,01</v>
+        <v>&lt;0.01</v>
       </c>
       <c r="AC18" s="13" t="str">
         <f>IF([1]raw_data!AC18&gt;[1]LOQ!AC18,ROUND(([1]raw_data!AC18/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC18/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,006</v>
+        <v>&lt;0.006</v>
       </c>
       <c r="AD18" s="13" t="str">
         <f>IF([1]raw_data!AD18&gt;[1]LOQ!AD18,ROUND(([1]raw_data!AD18/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD18/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,047</v>
+        <v>&lt;0.047</v>
       </c>
       <c r="AE18" s="13" t="str">
         <f>IF([1]raw_data!AE18&gt;[1]LOQ!AE18,ROUND(([1]raw_data!AE18/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE18/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,141</v>
+        <v>&lt;0.141</v>
       </c>
       <c r="AF18" s="13" t="str">
         <f>IF([1]raw_data!AF18&gt;[1]LOQ!AF18,ROUND(([1]raw_data!AF18/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF18/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,004</v>
+        <v>&lt;0.004</v>
       </c>
       <c r="AG18" s="13" t="str">
         <f>IF([1]raw_data!AG18&gt;[1]LOQ!AG18,ROUND(([1]raw_data!AG18/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG18/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,006</v>
+        <v>&lt;0.006</v>
       </c>
       <c r="AH18" s="13" t="str">
         <f>IF([1]raw_data!AH18&gt;[1]LOQ!AH18,ROUND(([1]raw_data!AH18/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH18/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,058</v>
+        <v>&lt;0.058</v>
       </c>
       <c r="AI18" s="13" t="str">
         <f>IF([1]raw_data!AI18&gt;[1]LOQ!AI18,ROUND(([1]raw_data!AI18/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI18/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,063</v>
+        <v>&lt;0.063</v>
       </c>
       <c r="AJ18" s="13" t="str">
         <f>IF([1]raw_data!AJ18&gt;[1]LOQ!AJ18,ROUND(([1]raw_data!AJ18/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ18/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,063</v>
+        <v>&lt;0.063</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A19" s="13" t="s">
         <v>145</v>
       </c>
@@ -28734,134 +28734,134 @@
       </c>
       <c r="E19" s="13" t="str">
         <f>IF([1]raw_data!E19&gt;[1]LOQ!E19,ROUND(([1]raw_data!E19/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E19/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,013</v>
+        <v>&lt;0.013</v>
       </c>
       <c r="F19" s="13" t="str">
         <f>IF([1]raw_data!F19&gt;[1]LOQ!F19,ROUND(([1]raw_data!F19/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F19/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,31</v>
+        <v>&lt;0.31</v>
       </c>
       <c r="G19" s="13" t="str">
         <f>IF([1]raw_data!G19&gt;[1]LOQ!G19,ROUND(([1]raw_data!G19/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G19/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,01</v>
+        <v>&lt;0.01</v>
       </c>
       <c r="H19" s="13" t="str">
         <f>IF([1]raw_data!H19&gt;[1]LOQ!H19,ROUND(([1]raw_data!H19/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H19/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,258</v>
+        <v>&lt;0.258</v>
       </c>
       <c r="I19" s="13" t="str">
         <f>IF([1]raw_data!I19&gt;[1]LOQ!I19,ROUND(([1]raw_data!I19/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I19/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,087</v>
+        <v>&lt;0.087</v>
       </c>
       <c r="J19" s="13" t="str">
         <f>IF([1]raw_data!J19&gt;[1]LOQ!J19,ROUND(([1]raw_data!J19/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J19/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,163</v>
+        <v>&lt;0.163</v>
       </c>
       <c r="K19" s="13" t="str">
         <f>IF([1]raw_data!K19&gt;[1]LOQ!K19,ROUND(([1]raw_data!K19/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K19/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,185</v>
+        <v>&lt;0.185</v>
       </c>
       <c r="L19" s="13" t="str">
         <f>IF([1]raw_data!L19&gt;[1]LOQ!L19,ROUND(([1]raw_data!L19/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L19/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,412</v>
+        <v>&lt;0.412</v>
       </c>
       <c r="M19" s="13" t="str">
         <f>IF([1]raw_data!M19&gt;[1]LOQ!M19,ROUND(([1]raw_data!M19/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M19/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,467</v>
+        <v>&lt;0.467</v>
       </c>
       <c r="N19" s="13" t="str">
         <f>IF([1]raw_data!N19&gt;[1]LOQ!N19,ROUND(([1]raw_data!N19/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N19/[1]raw_data!N$37),3))))</f>
-        <v>&lt;0,358</v>
+        <v>&lt;0.358</v>
       </c>
       <c r="O19" s="13" t="str">
         <f>IF([1]raw_data!O19&gt;[1]LOQ!O19,ROUND(([1]raw_data!O19/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O19/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,364</v>
+        <v>&lt;0.364</v>
       </c>
       <c r="P19" s="13" t="str">
         <f>IF([1]raw_data!P19&gt;[1]LOQ!P19,ROUND(([1]raw_data!P19/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P19/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,242</v>
+        <v>&lt;0.242</v>
       </c>
       <c r="Q19" s="13" t="str">
         <f>IF([1]raw_data!Q19&gt;[1]LOQ!Q19,ROUND(([1]raw_data!Q19/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q19/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,188</v>
+        <v>&lt;0.188</v>
       </c>
       <c r="R19" s="13" t="str">
         <f>IF([1]raw_data!R19&gt;[1]LOQ!R19,ROUND(([1]raw_data!R19/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R19/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,009</v>
+        <v>&lt;0.009</v>
       </c>
       <c r="S19" s="13" t="str">
         <f>IF([1]raw_data!S19&gt;[1]LOQ!S19,ROUND(([1]raw_data!S19/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S19/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,013</v>
+        <v>&lt;0.013</v>
       </c>
       <c r="T19" s="13" t="str">
         <f>IF([1]raw_data!T19&gt;[1]LOQ!T19,ROUND(([1]raw_data!T19/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T19/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,143</v>
+        <v>&lt;0.143</v>
       </c>
       <c r="U19" s="13" t="str">
         <f>IF([1]raw_data!U19&gt;[1]LOQ!U19,ROUND(([1]raw_data!U19/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U19/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,163</v>
+        <v>&lt;0.163</v>
       </c>
       <c r="V19" s="13" t="str">
         <f>IF([1]raw_data!V19&gt;[1]LOQ!V19,ROUND(([1]raw_data!V19/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V19/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,104</v>
+        <v>&lt;0.104</v>
       </c>
       <c r="W19" s="13" t="str">
         <f>IF([1]raw_data!W19&gt;[1]LOQ!W19,ROUND(([1]raw_data!W19/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W19/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,082</v>
+        <v>&lt;0.082</v>
       </c>
       <c r="X19" s="13" t="str">
         <f>IF([1]raw_data!X19&gt;[1]LOQ!X19,ROUND(([1]raw_data!X19/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X19/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,135</v>
+        <v>&lt;0.135</v>
       </c>
       <c r="Y19" s="13" t="str">
         <f>IF([1]raw_data!Y19&gt;[1]LOQ!Y19,ROUND(([1]raw_data!Y19/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y19/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,181</v>
+        <v>&lt;0.181</v>
       </c>
       <c r="Z19" s="13" t="str">
         <f>IF([1]raw_data!Z19&gt;[1]LOQ!Z19,ROUND(([1]raw_data!Z19/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z19/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,14</v>
+        <v>&lt;0.14</v>
       </c>
       <c r="AA19" s="13" t="str">
         <f>IF([1]raw_data!AA19&gt;[1]LOQ!AA19,ROUND(([1]raw_data!AA19/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA19/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,091</v>
+        <v>&lt;0.091</v>
       </c>
       <c r="AB19" s="13" t="str">
         <f>IF([1]raw_data!AB19&gt;[1]LOQ!AB19,ROUND(([1]raw_data!AB19/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB19/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,014</v>
+        <v>&lt;0.014</v>
       </c>
       <c r="AC19" s="13" t="str">
         <f>IF([1]raw_data!AC19&gt;[1]LOQ!AC19,ROUND(([1]raw_data!AC19/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC19/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,008</v>
+        <v>&lt;0.008</v>
       </c>
       <c r="AD19" s="13" t="str">
         <f>IF([1]raw_data!AD19&gt;[1]LOQ!AD19,ROUND(([1]raw_data!AD19/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD19/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,068</v>
+        <v>&lt;0.068</v>
       </c>
       <c r="AE19" s="13" t="str">
         <f>IF([1]raw_data!AE19&gt;[1]LOQ!AE19,ROUND(([1]raw_data!AE19/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE19/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,203</v>
+        <v>&lt;0.203</v>
       </c>
       <c r="AF19" s="13" t="str">
         <f>IF([1]raw_data!AF19&gt;[1]LOQ!AF19,ROUND(([1]raw_data!AF19/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF19/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="AG19" s="13" t="str">
         <f>IF([1]raw_data!AG19&gt;[1]LOQ!AG19,ROUND(([1]raw_data!AG19/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG19/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,008</v>
+        <v>&lt;0.008</v>
       </c>
       <c r="AH19" s="13" t="str">
         <f>IF([1]raw_data!AH19&gt;[1]LOQ!AH19,ROUND(([1]raw_data!AH19/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH19/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,084</v>
+        <v>&lt;0.084</v>
       </c>
       <c r="AI19" s="13" t="str">
         <f>IF([1]raw_data!AI19&gt;[1]LOQ!AI19,ROUND(([1]raw_data!AI19/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI19/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,091</v>
+        <v>&lt;0.091</v>
       </c>
       <c r="AJ19" s="13" t="str">
         <f>IF([1]raw_data!AJ19&gt;[1]LOQ!AJ19,ROUND(([1]raw_data!AJ19/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ19/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,091</v>
+        <v>&lt;0.091</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A20" s="13" t="s">
         <v>146</v>
       </c>
@@ -28879,134 +28879,134 @@
       </c>
       <c r="E20" s="13" t="str">
         <f>IF([1]raw_data!E20&gt;[1]LOQ!E20,ROUND(([1]raw_data!E20/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E20/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,019</v>
+        <v>&lt;0.019</v>
       </c>
       <c r="F20" s="13" t="str">
         <f>IF([1]raw_data!F20&gt;[1]LOQ!F20,ROUND(([1]raw_data!F20/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F20/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,213</v>
+        <v>&lt;0.213</v>
       </c>
       <c r="G20" s="13" t="str">
         <f>IF([1]raw_data!G20&gt;[1]LOQ!G20,ROUND(([1]raw_data!G20/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G20/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,013</v>
+        <v>&lt;0.013</v>
       </c>
       <c r="H20" s="13" t="str">
         <f>IF([1]raw_data!H20&gt;[1]LOQ!H20,ROUND(([1]raw_data!H20/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H20/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,245</v>
+        <v>&lt;0.245</v>
       </c>
       <c r="I20" s="13" t="str">
         <f>IF([1]raw_data!I20&gt;[1]LOQ!I20,ROUND(([1]raw_data!I20/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I20/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,18</v>
+        <v>&lt;0.18</v>
       </c>
       <c r="J20" s="13" t="str">
         <f>IF([1]raw_data!J20&gt;[1]LOQ!J20,ROUND(([1]raw_data!J20/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J20/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,148</v>
+        <v>&lt;0.148</v>
       </c>
       <c r="K20" s="13" t="str">
         <f>IF([1]raw_data!K20&gt;[1]LOQ!K20,ROUND(([1]raw_data!K20/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K20/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,19</v>
+        <v>&lt;0.19</v>
       </c>
       <c r="L20" s="13" t="str">
         <f>IF([1]raw_data!L20&gt;[1]LOQ!L20,ROUND(([1]raw_data!L20/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L20/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,202</v>
+        <v>&lt;0.202</v>
       </c>
       <c r="M20" s="13" t="str">
         <f>IF([1]raw_data!M20&gt;[1]LOQ!M20,ROUND(([1]raw_data!M20/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M20/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,373</v>
+        <v>&lt;0.373</v>
       </c>
       <c r="N20" s="13" t="str">
         <f>IF([1]raw_data!N20&gt;[1]LOQ!N20,ROUND(([1]raw_data!N20/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N20/[1]raw_data!N$37),3))))</f>
-        <v>&lt;1,182</v>
+        <v>&lt;1.182</v>
       </c>
       <c r="O20" s="13" t="str">
         <f>IF([1]raw_data!O20&gt;[1]LOQ!O20,ROUND(([1]raw_data!O20/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O20/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,312</v>
+        <v>&lt;0.312</v>
       </c>
       <c r="P20" s="13" t="str">
         <f>IF([1]raw_data!P20&gt;[1]LOQ!P20,ROUND(([1]raw_data!P20/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P20/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,292</v>
+        <v>&lt;0.292</v>
       </c>
       <c r="Q20" s="13" t="str">
         <f>IF([1]raw_data!Q20&gt;[1]LOQ!Q20,ROUND(([1]raw_data!Q20/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q20/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,358</v>
+        <v>&lt;0.358</v>
       </c>
       <c r="R20" s="13" t="str">
         <f>IF([1]raw_data!R20&gt;[1]LOQ!R20,ROUND(([1]raw_data!R20/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R20/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,018</v>
+        <v>&lt;0.018</v>
       </c>
       <c r="S20" s="13" t="str">
         <f>IF([1]raw_data!S20&gt;[1]LOQ!S20,ROUND(([1]raw_data!S20/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S20/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,012</v>
+        <v>&lt;0.012</v>
       </c>
       <c r="T20" s="13" t="str">
         <f>IF([1]raw_data!T20&gt;[1]LOQ!T20,ROUND(([1]raw_data!T20/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T20/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,611</v>
+        <v>&lt;0.611</v>
       </c>
       <c r="U20" s="13" t="str">
         <f>IF([1]raw_data!U20&gt;[1]LOQ!U20,ROUND(([1]raw_data!U20/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U20/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,238</v>
+        <v>&lt;0.238</v>
       </c>
       <c r="V20" s="13" t="str">
         <f>IF([1]raw_data!V20&gt;[1]LOQ!V20,ROUND(([1]raw_data!V20/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V20/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,119</v>
+        <v>&lt;0.119</v>
       </c>
       <c r="W20" s="13" t="str">
         <f>IF([1]raw_data!W20&gt;[1]LOQ!W20,ROUND(([1]raw_data!W20/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W20/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,189</v>
+        <v>&lt;0.189</v>
       </c>
       <c r="X20" s="13" t="str">
         <f>IF([1]raw_data!X20&gt;[1]LOQ!X20,ROUND(([1]raw_data!X20/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X20/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,425</v>
+        <v>&lt;0.425</v>
       </c>
       <c r="Y20" s="13" t="str">
         <f>IF([1]raw_data!Y20&gt;[1]LOQ!Y20,ROUND(([1]raw_data!Y20/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y20/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,234</v>
+        <v>&lt;0.234</v>
       </c>
       <c r="Z20" s="13" t="str">
         <f>IF([1]raw_data!Z20&gt;[1]LOQ!Z20,ROUND(([1]raw_data!Z20/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z20/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,142</v>
+        <v>&lt;0.142</v>
       </c>
       <c r="AA20" s="13" t="str">
         <f>IF([1]raw_data!AA20&gt;[1]LOQ!AA20,ROUND(([1]raw_data!AA20/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA20/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,181</v>
+        <v>&lt;0.181</v>
       </c>
       <c r="AB20" s="13" t="str">
         <f>IF([1]raw_data!AB20&gt;[1]LOQ!AB20,ROUND(([1]raw_data!AB20/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB20/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,021</v>
+        <v>&lt;0.021</v>
       </c>
       <c r="AC20" s="13" t="str">
         <f>IF([1]raw_data!AC20&gt;[1]LOQ!AC20,ROUND(([1]raw_data!AC20/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC20/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,014</v>
+        <v>&lt;0.014</v>
       </c>
       <c r="AD20" s="13" t="str">
         <f>IF([1]raw_data!AD20&gt;[1]LOQ!AD20,ROUND(([1]raw_data!AD20/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD20/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,179</v>
+        <v>&lt;0.179</v>
       </c>
       <c r="AE20" s="13" t="str">
         <f>IF([1]raw_data!AE20&gt;[1]LOQ!AE20,ROUND(([1]raw_data!AE20/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE20/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,2</v>
+        <v>&lt;0.2</v>
       </c>
       <c r="AF20" s="13" t="str">
         <f>IF([1]raw_data!AF20&gt;[1]LOQ!AF20,ROUND(([1]raw_data!AF20/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF20/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,014</v>
+        <v>&lt;0.014</v>
       </c>
       <c r="AG20" s="13" t="str">
         <f>IF([1]raw_data!AG20&gt;[1]LOQ!AG20,ROUND(([1]raw_data!AG20/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG20/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,023</v>
+        <v>&lt;0.023</v>
       </c>
       <c r="AH20" s="13" t="str">
         <f>IF([1]raw_data!AH20&gt;[1]LOQ!AH20,ROUND(([1]raw_data!AH20/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH20/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,166</v>
+        <v>&lt;0.166</v>
       </c>
       <c r="AI20" s="13" t="str">
         <f>IF([1]raw_data!AI20&gt;[1]LOQ!AI20,ROUND(([1]raw_data!AI20/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI20/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,165</v>
+        <v>&lt;0.165</v>
       </c>
       <c r="AJ20" s="13" t="str">
         <f>IF([1]raw_data!AJ20&gt;[1]LOQ!AJ20,ROUND(([1]raw_data!AJ20/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ20/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,137</v>
+        <v>&lt;0.137</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A21" s="13" t="s">
         <v>147</v>
       </c>
@@ -29024,134 +29024,134 @@
       </c>
       <c r="E21" s="13" t="str">
         <f>IF([1]raw_data!E21&gt;[1]LOQ!E21,ROUND(([1]raw_data!E21/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E21/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,106</v>
+        <v>&lt;0.106</v>
       </c>
       <c r="F21" s="13" t="str">
         <f>IF([1]raw_data!F21&gt;[1]LOQ!F21,ROUND(([1]raw_data!F21/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F21/[1]raw_data!F$37),3))))</f>
-        <v>&lt;2,901</v>
+        <v>&lt;2.901</v>
       </c>
       <c r="G21" s="13" t="str">
         <f>IF([1]raw_data!G21&gt;[1]LOQ!G21,ROUND(([1]raw_data!G21/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G21/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,139</v>
+        <v>&lt;0.139</v>
       </c>
       <c r="H21" s="13" t="str">
         <f>IF([1]raw_data!H21&gt;[1]LOQ!H21,ROUND(([1]raw_data!H21/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H21/[1]raw_data!H$37),3))))</f>
-        <v>&lt;2,732</v>
+        <v>&lt;2.732</v>
       </c>
       <c r="I21" s="13" t="str">
         <f>IF([1]raw_data!I21&gt;[1]LOQ!I21,ROUND(([1]raw_data!I21/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I21/[1]raw_data!I$37),3))))</f>
-        <v>&lt;1,989</v>
+        <v>&lt;1.989</v>
       </c>
       <c r="J21" s="13" t="str">
         <f>IF([1]raw_data!J21&gt;[1]LOQ!J21,ROUND(([1]raw_data!J21/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J21/[1]raw_data!J$37),3))))</f>
-        <v>&lt;1,844</v>
+        <v>&lt;1.844</v>
       </c>
       <c r="K21" s="13" t="str">
         <f>IF([1]raw_data!K21&gt;[1]LOQ!K21,ROUND(([1]raw_data!K21/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K21/[1]raw_data!K$37),3))))</f>
-        <v>&lt;1,916</v>
+        <v>&lt;1.916</v>
       </c>
       <c r="L21" s="13" t="str">
         <f>IF([1]raw_data!L21&gt;[1]LOQ!L21,ROUND(([1]raw_data!L21/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L21/[1]raw_data!L$37),3))))</f>
-        <v>&lt;2,05</v>
+        <v>&lt;2.05</v>
       </c>
       <c r="M21" s="13" t="str">
         <f>IF([1]raw_data!M21&gt;[1]LOQ!M21,ROUND(([1]raw_data!M21/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M21/[1]raw_data!M$37),3))))</f>
-        <v>&lt;2,217</v>
+        <v>&lt;2.217</v>
       </c>
       <c r="N21" s="13" t="str">
         <f>IF([1]raw_data!N21&gt;[1]LOQ!N21,ROUND(([1]raw_data!N21/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N21/[1]raw_data!N$37),3))))</f>
-        <v>&lt;8,325</v>
+        <v>&lt;8.325</v>
       </c>
       <c r="O21" s="13" t="str">
         <f>IF([1]raw_data!O21&gt;[1]LOQ!O21,ROUND(([1]raw_data!O21/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O21/[1]raw_data!O$37),3))))</f>
-        <v>&lt;2,344</v>
+        <v>&lt;2.344</v>
       </c>
       <c r="P21" s="13" t="str">
         <f>IF([1]raw_data!P21&gt;[1]LOQ!P21,ROUND(([1]raw_data!P21/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P21/[1]raw_data!P$37),3))))</f>
-        <v>&lt;2,301</v>
+        <v>&lt;2.301</v>
       </c>
       <c r="Q21" s="13" t="str">
         <f>IF([1]raw_data!Q21&gt;[1]LOQ!Q21,ROUND(([1]raw_data!Q21/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q21/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;3,386</v>
+        <v>&lt;3.386</v>
       </c>
       <c r="R21" s="13" t="str">
         <f>IF([1]raw_data!R21&gt;[1]LOQ!R21,ROUND(([1]raw_data!R21/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R21/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,137</v>
+        <v>&lt;0.137</v>
       </c>
       <c r="S21" s="13" t="str">
         <f>IF([1]raw_data!S21&gt;[1]LOQ!S21,ROUND(([1]raw_data!S21/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S21/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,176</v>
+        <v>&lt;0.176</v>
       </c>
       <c r="T21" s="13" t="str">
         <f>IF([1]raw_data!T21&gt;[1]LOQ!T21,ROUND(([1]raw_data!T21/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T21/[1]raw_data!T$37),3))))</f>
-        <v>&lt;5,251</v>
+        <v>&lt;5.251</v>
       </c>
       <c r="U21" s="13" t="str">
         <f>IF([1]raw_data!U21&gt;[1]LOQ!U21,ROUND(([1]raw_data!U21/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U21/[1]raw_data!U$37),3))))</f>
-        <v>&lt;1,884</v>
+        <v>&lt;1.884</v>
       </c>
       <c r="V21" s="13" t="str">
         <f>IF([1]raw_data!V21&gt;[1]LOQ!V21,ROUND(([1]raw_data!V21/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V21/[1]raw_data!V$37),3))))</f>
-        <v>&lt;1,339</v>
+        <v>&lt;1.339</v>
       </c>
       <c r="W21" s="13" t="str">
         <f>IF([1]raw_data!W21&gt;[1]LOQ!W21,ROUND(([1]raw_data!W21/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W21/[1]raw_data!W$37),3))))</f>
-        <v>&lt;2,166</v>
+        <v>&lt;2.166</v>
       </c>
       <c r="X21" s="13" t="str">
         <f>IF([1]raw_data!X21&gt;[1]LOQ!X21,ROUND(([1]raw_data!X21/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X21/[1]raw_data!X$37),3))))</f>
-        <v>&lt;3,858</v>
+        <v>&lt;3.858</v>
       </c>
       <c r="Y21" s="13" t="str">
         <f>IF([1]raw_data!Y21&gt;[1]LOQ!Y21,ROUND(([1]raw_data!Y21/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y21/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;2,876</v>
+        <v>&lt;2.876</v>
       </c>
       <c r="Z21" s="13" t="str">
         <f>IF([1]raw_data!Z21&gt;[1]LOQ!Z21,ROUND(([1]raw_data!Z21/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z21/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;1,607</v>
+        <v>&lt;1.607</v>
       </c>
       <c r="AA21" s="13" t="str">
         <f>IF([1]raw_data!AA21&gt;[1]LOQ!AA21,ROUND(([1]raw_data!AA21/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA21/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;1,664</v>
+        <v>&lt;1.664</v>
       </c>
       <c r="AB21" s="13" t="str">
         <f>IF([1]raw_data!AB21&gt;[1]LOQ!AB21,ROUND(([1]raw_data!AB21/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB21/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,144</v>
+        <v>&lt;0.144</v>
       </c>
       <c r="AC21" s="13" t="str">
         <f>IF([1]raw_data!AC21&gt;[1]LOQ!AC21,ROUND(([1]raw_data!AC21/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC21/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,138</v>
+        <v>&lt;0.138</v>
       </c>
       <c r="AD21" s="13" t="str">
         <f>IF([1]raw_data!AD21&gt;[1]LOQ!AD21,ROUND(([1]raw_data!AD21/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD21/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;1,78</v>
+        <v>&lt;1.78</v>
       </c>
       <c r="AE21" s="13" t="str">
         <f>IF([1]raw_data!AE21&gt;[1]LOQ!AE21,ROUND(([1]raw_data!AE21/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE21/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;2,011</v>
+        <v>&lt;2.011</v>
       </c>
       <c r="AF21" s="13" t="str">
         <f>IF([1]raw_data!AF21&gt;[1]LOQ!AF21,ROUND(([1]raw_data!AF21/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF21/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,122</v>
+        <v>&lt;0.122</v>
       </c>
       <c r="AG21" s="13" t="str">
         <f>IF([1]raw_data!AG21&gt;[1]LOQ!AG21,ROUND(([1]raw_data!AG21/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG21/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,178</v>
+        <v>&lt;0.178</v>
       </c>
       <c r="AH21" s="13" t="str">
         <f>IF([1]raw_data!AH21&gt;[1]LOQ!AH21,ROUND(([1]raw_data!AH21/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH21/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;2,064</v>
+        <v>&lt;2.064</v>
       </c>
       <c r="AI21" s="13" t="str">
         <f>IF([1]raw_data!AI21&gt;[1]LOQ!AI21,ROUND(([1]raw_data!AI21/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI21/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;1,543</v>
+        <v>&lt;1.543</v>
       </c>
       <c r="AJ21" s="13" t="str">
         <f>IF([1]raw_data!AJ21&gt;[1]LOQ!AJ21,ROUND(([1]raw_data!AJ21/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ21/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;3,368</v>
+        <v>&lt;3.368</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A22" s="13" t="s">
         <v>148</v>
       </c>
@@ -29169,15 +29169,15 @@
       </c>
       <c r="E22" s="13" t="str">
         <f>IF([1]raw_data!E22&gt;[1]LOQ!E22,ROUND(([1]raw_data!E22/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E22/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,013</v>
+        <v>&lt;0.013</v>
       </c>
       <c r="F22" s="13" t="str">
         <f>IF([1]raw_data!F22&gt;[1]LOQ!F22,ROUND(([1]raw_data!F22/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F22/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,136</v>
+        <v>&lt;0.136</v>
       </c>
       <c r="G22" s="13" t="str">
         <f>IF([1]raw_data!G22&gt;[1]LOQ!G22,ROUND(([1]raw_data!G22/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G22/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,011</v>
+        <v>&lt;0.011</v>
       </c>
       <c r="H22" s="13">
         <f>IF([1]raw_data!H22&gt;[1]LOQ!H22,ROUND(([1]raw_data!H22/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H22/[1]raw_data!H$37),3))))</f>
@@ -29201,15 +29201,15 @@
       </c>
       <c r="M22" s="13" t="str">
         <f>IF([1]raw_data!M22&gt;[1]LOQ!M22,ROUND(([1]raw_data!M22/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M22/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,181</v>
+        <v>&lt;0.181</v>
       </c>
       <c r="N22" s="13" t="str">
         <f>IF([1]raw_data!N22&gt;[1]LOQ!N22,ROUND(([1]raw_data!N22/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N22/[1]raw_data!N$37),3))))</f>
-        <v>&lt;0,628</v>
+        <v>&lt;0.628</v>
       </c>
       <c r="O22" s="13" t="str">
         <f>IF([1]raw_data!O22&gt;[1]LOQ!O22,ROUND(([1]raw_data!O22/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O22/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,18</v>
+        <v>&lt;0.18</v>
       </c>
       <c r="P22" s="13">
         <f>IF([1]raw_data!P22&gt;[1]LOQ!P22,ROUND(([1]raw_data!P22/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P22/[1]raw_data!P$37),3))))</f>
@@ -29225,15 +29225,15 @@
       </c>
       <c r="S22" s="13" t="str">
         <f>IF([1]raw_data!S22&gt;[1]LOQ!S22,ROUND(([1]raw_data!S22/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S22/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,012</v>
+        <v>&lt;0.012</v>
       </c>
       <c r="T22" s="13" t="str">
         <f>IF([1]raw_data!T22&gt;[1]LOQ!T22,ROUND(([1]raw_data!T22/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T22/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,302</v>
+        <v>&lt;0.302</v>
       </c>
       <c r="U22" s="13" t="str">
         <f>IF([1]raw_data!U22&gt;[1]LOQ!U22,ROUND(([1]raw_data!U22/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U22/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,126</v>
+        <v>&lt;0.126</v>
       </c>
       <c r="V22" s="13">
         <f>IF([1]raw_data!V22&gt;[1]LOQ!V22,ROUND(([1]raw_data!V22/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V22/[1]raw_data!V$37),3))))</f>
@@ -29249,54 +29249,54 @@
       </c>
       <c r="Y22" s="13" t="str">
         <f>IF([1]raw_data!Y22&gt;[1]LOQ!Y22,ROUND(([1]raw_data!Y22/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y22/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,268</v>
+        <v>&lt;0.268</v>
       </c>
       <c r="Z22" s="13" t="str">
         <f>IF([1]raw_data!Z22&gt;[1]LOQ!Z22,ROUND(([1]raw_data!Z22/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z22/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,076</v>
+        <v>&lt;0.076</v>
       </c>
       <c r="AA22" s="13" t="str">
         <f>IF([1]raw_data!AA22&gt;[1]LOQ!AA22,ROUND(([1]raw_data!AA22/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA22/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,12</v>
+        <v>&lt;0.12</v>
       </c>
       <c r="AB22" s="13" t="str">
         <f>IF([1]raw_data!AB22&gt;[1]LOQ!AB22,ROUND(([1]raw_data!AB22/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB22/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,016</v>
+        <v>&lt;0.016</v>
       </c>
       <c r="AC22" s="13" t="str">
         <f>IF([1]raw_data!AC22&gt;[1]LOQ!AC22,ROUND(([1]raw_data!AC22/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC22/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,012</v>
+        <v>&lt;0.012</v>
       </c>
       <c r="AD22" s="13" t="str">
         <f>IF([1]raw_data!AD22&gt;[1]LOQ!AD22,ROUND(([1]raw_data!AD22/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD22/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,125</v>
+        <v>&lt;0.125</v>
       </c>
       <c r="AE22" s="13" t="str">
         <f>IF([1]raw_data!AE22&gt;[1]LOQ!AE22,ROUND(([1]raw_data!AE22/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE22/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,097</v>
+        <v>&lt;0.097</v>
       </c>
       <c r="AF22" s="13" t="str">
         <f>IF([1]raw_data!AF22&gt;[1]LOQ!AF22,ROUND(([1]raw_data!AF22/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF22/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,01</v>
+        <v>&lt;0.01</v>
       </c>
       <c r="AG22" s="13" t="str">
         <f>IF([1]raw_data!AG22&gt;[1]LOQ!AG22,ROUND(([1]raw_data!AG22/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG22/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,017</v>
+        <v>&lt;0.017</v>
       </c>
       <c r="AH22" s="13" t="str">
         <f>IF([1]raw_data!AH22&gt;[1]LOQ!AH22,ROUND(([1]raw_data!AH22/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH22/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,135</v>
+        <v>&lt;0.135</v>
       </c>
       <c r="AI22" s="13" t="str">
         <f>IF([1]raw_data!AI22&gt;[1]LOQ!AI22,ROUND(([1]raw_data!AI22/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI22/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,101</v>
+        <v>&lt;0.101</v>
       </c>
       <c r="AJ22" s="13" t="str">
         <f>IF([1]raw_data!AJ22&gt;[1]LOQ!AJ22,ROUND(([1]raw_data!AJ22/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ22/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,113</v>
+        <v>&lt;0.113</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A23" s="13" t="s">
         <v>149</v>
       </c>
@@ -29314,134 +29314,134 @@
       </c>
       <c r="E23" s="13" t="str">
         <f>IF([1]raw_data!E23&gt;[1]LOQ!E23,ROUND(([1]raw_data!E23/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E23/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,894</v>
+        <v>&lt;0.894</v>
       </c>
       <c r="F23" s="13" t="str">
         <f>IF([1]raw_data!F23&gt;[1]LOQ!F23,ROUND(([1]raw_data!F23/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F23/[1]raw_data!F$37),3))))</f>
-        <v>&lt;13,001</v>
+        <v>&lt;13.001</v>
       </c>
       <c r="G23" s="13" t="str">
         <f>IF([1]raw_data!G23&gt;[1]LOQ!G23,ROUND(([1]raw_data!G23/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G23/[1]raw_data!G$37),3))))</f>
-        <v>&lt;1,632</v>
+        <v>&lt;1.632</v>
       </c>
       <c r="H23" s="13" t="str">
         <f>IF([1]raw_data!H23&gt;[1]LOQ!H23,ROUND(([1]raw_data!H23/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H23/[1]raw_data!H$37),3))))</f>
-        <v>&lt;16,854</v>
+        <v>&lt;16.854</v>
       </c>
       <c r="I23" s="13" t="str">
         <f>IF([1]raw_data!I23&gt;[1]LOQ!I23,ROUND(([1]raw_data!I23/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I23/[1]raw_data!I$37),3))))</f>
-        <v>&lt;11,297</v>
+        <v>&lt;11.297</v>
       </c>
       <c r="J23" s="13" t="str">
         <f>IF([1]raw_data!J23&gt;[1]LOQ!J23,ROUND(([1]raw_data!J23/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J23/[1]raw_data!J$37),3))))</f>
-        <v>&lt;11,202</v>
+        <v>&lt;11.202</v>
       </c>
       <c r="K23" s="13" t="str">
         <f>IF([1]raw_data!K23&gt;[1]LOQ!K23,ROUND(([1]raw_data!K23/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K23/[1]raw_data!K$37),3))))</f>
-        <v>&lt;11,874</v>
+        <v>&lt;11.874</v>
       </c>
       <c r="L23" s="13" t="str">
         <f>IF([1]raw_data!L23&gt;[1]LOQ!L23,ROUND(([1]raw_data!L23/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L23/[1]raw_data!L$37),3))))</f>
-        <v>&lt;17,63</v>
+        <v>&lt;17.63</v>
       </c>
       <c r="M23" s="13" t="str">
         <f>IF([1]raw_data!M23&gt;[1]LOQ!M23,ROUND(([1]raw_data!M23/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M23/[1]raw_data!M$37),3))))</f>
-        <v>&lt;16,849</v>
+        <v>&lt;16.849</v>
       </c>
       <c r="N23" s="13" t="str">
         <f>IF([1]raw_data!N23&gt;[1]LOQ!N23,ROUND(([1]raw_data!N23/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N23/[1]raw_data!N$37),3))))</f>
-        <v>&lt;57,351</v>
+        <v>&lt;57.351</v>
       </c>
       <c r="O23" s="13" t="str">
         <f>IF([1]raw_data!O23&gt;[1]LOQ!O23,ROUND(([1]raw_data!O23/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O23/[1]raw_data!O$37),3))))</f>
-        <v>&lt;17,7</v>
+        <v>&lt;17.7</v>
       </c>
       <c r="P23" s="13" t="str">
         <f>IF([1]raw_data!P23&gt;[1]LOQ!P23,ROUND(([1]raw_data!P23/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P23/[1]raw_data!P$37),3))))</f>
-        <v>&lt;20,158</v>
+        <v>&lt;20.158</v>
       </c>
       <c r="Q23" s="13" t="str">
         <f>IF([1]raw_data!Q23&gt;[1]LOQ!Q23,ROUND(([1]raw_data!Q23/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q23/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;18,81</v>
+        <v>&lt;18.81</v>
       </c>
       <c r="R23" s="13" t="str">
         <f>IF([1]raw_data!R23&gt;[1]LOQ!R23,ROUND(([1]raw_data!R23/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R23/[1]raw_data!R$37),3))))</f>
-        <v>&lt;1,041</v>
+        <v>&lt;1.041</v>
       </c>
       <c r="S23" s="13" t="str">
         <f>IF([1]raw_data!S23&gt;[1]LOQ!S23,ROUND(([1]raw_data!S23/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S23/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,941</v>
+        <v>&lt;0.941</v>
       </c>
       <c r="T23" s="13" t="str">
         <f>IF([1]raw_data!T23&gt;[1]LOQ!T23,ROUND(([1]raw_data!T23/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T23/[1]raw_data!T$37),3))))</f>
-        <v>&lt;29,093</v>
+        <v>&lt;29.093</v>
       </c>
       <c r="U23" s="13" t="str">
         <f>IF([1]raw_data!U23&gt;[1]LOQ!U23,ROUND(([1]raw_data!U23/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U23/[1]raw_data!U$37),3))))</f>
-        <v>&lt;12,701</v>
+        <v>&lt;12.701</v>
       </c>
       <c r="V23" s="13" t="str">
         <f>IF([1]raw_data!V23&gt;[1]LOQ!V23,ROUND(([1]raw_data!V23/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V23/[1]raw_data!V$37),3))))</f>
-        <v>&lt;10,541</v>
+        <v>&lt;10.541</v>
       </c>
       <c r="W23" s="13" t="str">
         <f>IF([1]raw_data!W23&gt;[1]LOQ!W23,ROUND(([1]raw_data!W23/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W23/[1]raw_data!W$37),3))))</f>
-        <v>&lt;9,104</v>
+        <v>&lt;9.104</v>
       </c>
       <c r="X23" s="13" t="str">
         <f>IF([1]raw_data!X23&gt;[1]LOQ!X23,ROUND(([1]raw_data!X23/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X23/[1]raw_data!X$37),3))))</f>
-        <v>&lt;22,152</v>
+        <v>&lt;22.152</v>
       </c>
       <c r="Y23" s="13" t="str">
         <f>IF([1]raw_data!Y23&gt;[1]LOQ!Y23,ROUND(([1]raw_data!Y23/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y23/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;13,512</v>
+        <v>&lt;13.512</v>
       </c>
       <c r="Z23" s="13" t="str">
         <f>IF([1]raw_data!Z23&gt;[1]LOQ!Z23,ROUND(([1]raw_data!Z23/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z23/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;7,339</v>
+        <v>&lt;7.339</v>
       </c>
       <c r="AA23" s="13" t="str">
         <f>IF([1]raw_data!AA23&gt;[1]LOQ!AA23,ROUND(([1]raw_data!AA23/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA23/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;10,314</v>
+        <v>&lt;10.314</v>
       </c>
       <c r="AB23" s="13" t="str">
         <f>IF([1]raw_data!AB23&gt;[1]LOQ!AB23,ROUND(([1]raw_data!AB23/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB23/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,976</v>
+        <v>&lt;0.976</v>
       </c>
       <c r="AC23" s="13" t="str">
         <f>IF([1]raw_data!AC23&gt;[1]LOQ!AC23,ROUND(([1]raw_data!AC23/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC23/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,977</v>
+        <v>&lt;0.977</v>
       </c>
       <c r="AD23" s="13" t="str">
         <f>IF([1]raw_data!AD23&gt;[1]LOQ!AD23,ROUND(([1]raw_data!AD23/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD23/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;12,474</v>
+        <v>&lt;12.474</v>
       </c>
       <c r="AE23" s="13" t="str">
         <f>IF([1]raw_data!AE23&gt;[1]LOQ!AE23,ROUND(([1]raw_data!AE23/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE23/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;11,09</v>
+        <v>&lt;11.09</v>
       </c>
       <c r="AF23" s="13" t="str">
         <f>IF([1]raw_data!AF23&gt;[1]LOQ!AF23,ROUND(([1]raw_data!AF23/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF23/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,838</v>
+        <v>&lt;0.838</v>
       </c>
       <c r="AG23" s="13" t="str">
         <f>IF([1]raw_data!AG23&gt;[1]LOQ!AG23,ROUND(([1]raw_data!AG23/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG23/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;1,069</v>
+        <v>&lt;1.069</v>
       </c>
       <c r="AH23" s="13" t="str">
         <f>IF([1]raw_data!AH23&gt;[1]LOQ!AH23,ROUND(([1]raw_data!AH23/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH23/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;10,506</v>
+        <v>&lt;10.506</v>
       </c>
       <c r="AI23" s="13" t="str">
         <f>IF([1]raw_data!AI23&gt;[1]LOQ!AI23,ROUND(([1]raw_data!AI23/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI23/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;8,529</v>
+        <v>&lt;8.529</v>
       </c>
       <c r="AJ23" s="13" t="str">
         <f>IF([1]raw_data!AJ23&gt;[1]LOQ!AJ23,ROUND(([1]raw_data!AJ23/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ23/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;13,511</v>
+        <v>&lt;13.511</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A24" s="13" t="s">
         <v>150</v>
       </c>
@@ -29459,134 +29459,134 @@
       </c>
       <c r="E24" s="13" t="str">
         <f>IF([1]raw_data!E24&gt;[1]LOQ!E24,ROUND(([1]raw_data!E24/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E24/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,256</v>
+        <v>&lt;0.256</v>
       </c>
       <c r="F24" s="13" t="str">
         <f>IF([1]raw_data!F24&gt;[1]LOQ!F24,ROUND(([1]raw_data!F24/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F24/[1]raw_data!F$37),3))))</f>
-        <v>&lt;3,72</v>
+        <v>&lt;3.72</v>
       </c>
       <c r="G24" s="13" t="str">
         <f>IF([1]raw_data!G24&gt;[1]LOQ!G24,ROUND(([1]raw_data!G24/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G24/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,467</v>
+        <v>&lt;0.467</v>
       </c>
       <c r="H24" s="13" t="str">
         <f>IF([1]raw_data!H24&gt;[1]LOQ!H24,ROUND(([1]raw_data!H24/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H24/[1]raw_data!H$37),3))))</f>
-        <v>&lt;4,823</v>
+        <v>&lt;4.823</v>
       </c>
       <c r="I24" s="13" t="str">
         <f>IF([1]raw_data!I24&gt;[1]LOQ!I24,ROUND(([1]raw_data!I24/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I24/[1]raw_data!I$37),3))))</f>
-        <v>&lt;3,233</v>
+        <v>&lt;3.233</v>
       </c>
       <c r="J24" s="13" t="str">
         <f>IF([1]raw_data!J24&gt;[1]LOQ!J24,ROUND(([1]raw_data!J24/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J24/[1]raw_data!J$37),3))))</f>
-        <v>&lt;3,206</v>
+        <v>&lt;3.206</v>
       </c>
       <c r="K24" s="13" t="str">
         <f>IF([1]raw_data!K24&gt;[1]LOQ!K24,ROUND(([1]raw_data!K24/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K24/[1]raw_data!K$37),3))))</f>
-        <v>&lt;3,398</v>
+        <v>&lt;3.398</v>
       </c>
       <c r="L24" s="13" t="str">
         <f>IF([1]raw_data!L24&gt;[1]LOQ!L24,ROUND(([1]raw_data!L24/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L24/[1]raw_data!L$37),3))))</f>
-        <v>&lt;5,045</v>
+        <v>&lt;5.045</v>
       </c>
       <c r="M24" s="13" t="str">
         <f>IF([1]raw_data!M24&gt;[1]LOQ!M24,ROUND(([1]raw_data!M24/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M24/[1]raw_data!M$37),3))))</f>
-        <v>&lt;4,822</v>
+        <v>&lt;4.822</v>
       </c>
       <c r="N24" s="13" t="str">
         <f>IF([1]raw_data!N24&gt;[1]LOQ!N24,ROUND(([1]raw_data!N24/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N24/[1]raw_data!N$37),3))))</f>
-        <v>&lt;16,412</v>
+        <v>&lt;16.412</v>
       </c>
       <c r="O24" s="13" t="str">
         <f>IF([1]raw_data!O24&gt;[1]LOQ!O24,ROUND(([1]raw_data!O24/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O24/[1]raw_data!O$37),3))))</f>
-        <v>&lt;5,065</v>
+        <v>&lt;5.065</v>
       </c>
       <c r="P24" s="13" t="str">
         <f>IF([1]raw_data!P24&gt;[1]LOQ!P24,ROUND(([1]raw_data!P24/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P24/[1]raw_data!P$37),3))))</f>
-        <v>&lt;5,768</v>
+        <v>&lt;5.768</v>
       </c>
       <c r="Q24" s="13" t="str">
         <f>IF([1]raw_data!Q24&gt;[1]LOQ!Q24,ROUND(([1]raw_data!Q24/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q24/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;5,383</v>
+        <v>&lt;5.383</v>
       </c>
       <c r="R24" s="13" t="str">
         <f>IF([1]raw_data!R24&gt;[1]LOQ!R24,ROUND(([1]raw_data!R24/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R24/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,298</v>
+        <v>&lt;0.298</v>
       </c>
       <c r="S24" s="13" t="str">
         <f>IF([1]raw_data!S24&gt;[1]LOQ!S24,ROUND(([1]raw_data!S24/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S24/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,269</v>
+        <v>&lt;0.269</v>
       </c>
       <c r="T24" s="13" t="str">
         <f>IF([1]raw_data!T24&gt;[1]LOQ!T24,ROUND(([1]raw_data!T24/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T24/[1]raw_data!T$37),3))))</f>
-        <v>&lt;8,325</v>
+        <v>&lt;8.325</v>
       </c>
       <c r="U24" s="13" t="str">
         <f>IF([1]raw_data!U24&gt;[1]LOQ!U24,ROUND(([1]raw_data!U24/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U24/[1]raw_data!U$37),3))))</f>
-        <v>&lt;3,634</v>
+        <v>&lt;3.634</v>
       </c>
       <c r="V24" s="13" t="str">
         <f>IF([1]raw_data!V24&gt;[1]LOQ!V24,ROUND(([1]raw_data!V24/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V24/[1]raw_data!V$37),3))))</f>
-        <v>&lt;3,016</v>
+        <v>&lt;3.016</v>
       </c>
       <c r="W24" s="13" t="str">
         <f>IF([1]raw_data!W24&gt;[1]LOQ!W24,ROUND(([1]raw_data!W24/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W24/[1]raw_data!W$37),3))))</f>
-        <v>&lt;2,605</v>
+        <v>&lt;2.605</v>
       </c>
       <c r="X24" s="13" t="str">
         <f>IF([1]raw_data!X24&gt;[1]LOQ!X24,ROUND(([1]raw_data!X24/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X24/[1]raw_data!X$37),3))))</f>
-        <v>&lt;6,339</v>
+        <v>&lt;6.339</v>
       </c>
       <c r="Y24" s="13" t="str">
         <f>IF([1]raw_data!Y24&gt;[1]LOQ!Y24,ROUND(([1]raw_data!Y24/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y24/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;3,867</v>
+        <v>&lt;3.867</v>
       </c>
       <c r="Z24" s="13" t="str">
         <f>IF([1]raw_data!Z24&gt;[1]LOQ!Z24,ROUND(([1]raw_data!Z24/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z24/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;2,1</v>
+        <v>&lt;2.1</v>
       </c>
       <c r="AA24" s="13" t="str">
         <f>IF([1]raw_data!AA24&gt;[1]LOQ!AA24,ROUND(([1]raw_data!AA24/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA24/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;2,952</v>
+        <v>&lt;2.952</v>
       </c>
       <c r="AB24" s="13" t="str">
         <f>IF([1]raw_data!AB24&gt;[1]LOQ!AB24,ROUND(([1]raw_data!AB24/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB24/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,279</v>
+        <v>&lt;0.279</v>
       </c>
       <c r="AC24" s="13" t="str">
         <f>IF([1]raw_data!AC24&gt;[1]LOQ!AC24,ROUND(([1]raw_data!AC24/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC24/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,28</v>
+        <v>&lt;0.28</v>
       </c>
       <c r="AD24" s="13" t="str">
         <f>IF([1]raw_data!AD24&gt;[1]LOQ!AD24,ROUND(([1]raw_data!AD24/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD24/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;3,569</v>
+        <v>&lt;3.569</v>
       </c>
       <c r="AE24" s="13" t="str">
         <f>IF([1]raw_data!AE24&gt;[1]LOQ!AE24,ROUND(([1]raw_data!AE24/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE24/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;3,174</v>
+        <v>&lt;3.174</v>
       </c>
       <c r="AF24" s="13" t="str">
         <f>IF([1]raw_data!AF24&gt;[1]LOQ!AF24,ROUND(([1]raw_data!AF24/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF24/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,24</v>
+        <v>&lt;0.24</v>
       </c>
       <c r="AG24" s="13" t="str">
         <f>IF([1]raw_data!AG24&gt;[1]LOQ!AG24,ROUND(([1]raw_data!AG24/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG24/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,306</v>
+        <v>&lt;0.306</v>
       </c>
       <c r="AH24" s="13" t="str">
         <f>IF([1]raw_data!AH24&gt;[1]LOQ!AH24,ROUND(([1]raw_data!AH24/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH24/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;3,006</v>
+        <v>&lt;3.006</v>
       </c>
       <c r="AI24" s="13" t="str">
         <f>IF([1]raw_data!AI24&gt;[1]LOQ!AI24,ROUND(([1]raw_data!AI24/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI24/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;2,441</v>
+        <v>&lt;2.441</v>
       </c>
       <c r="AJ24" s="13" t="str">
         <f>IF([1]raw_data!AJ24&gt;[1]LOQ!AJ24,ROUND(([1]raw_data!AJ24/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ24/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;3,866</v>
+        <v>&lt;3.866</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A25" s="13" t="s">
         <v>151</v>
       </c>
@@ -29604,134 +29604,134 @@
       </c>
       <c r="E25" s="13" t="str">
         <f>IF([1]raw_data!E25&gt;[1]LOQ!E25,ROUND(([1]raw_data!E25/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E25/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,038</v>
+        <v>&lt;0.038</v>
       </c>
       <c r="F25" s="13" t="str">
         <f>IF([1]raw_data!F25&gt;[1]LOQ!F25,ROUND(([1]raw_data!F25/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F25/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,854</v>
+        <v>&lt;0.854</v>
       </c>
       <c r="G25" s="13" t="str">
         <f>IF([1]raw_data!G25&gt;[1]LOQ!G25,ROUND(([1]raw_data!G25/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G25/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,051</v>
+        <v>&lt;0.051</v>
       </c>
       <c r="H25" s="13" t="str">
         <f>IF([1]raw_data!H25&gt;[1]LOQ!H25,ROUND(([1]raw_data!H25/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H25/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,99</v>
+        <v>&lt;0.99</v>
       </c>
       <c r="I25" s="13" t="str">
         <f>IF([1]raw_data!I25&gt;[1]LOQ!I25,ROUND(([1]raw_data!I25/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I25/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,538</v>
+        <v>&lt;0.538</v>
       </c>
       <c r="J25" s="13" t="str">
         <f>IF([1]raw_data!J25&gt;[1]LOQ!J25,ROUND(([1]raw_data!J25/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J25/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,771</v>
+        <v>&lt;0.771</v>
       </c>
       <c r="K25" s="13" t="str">
         <f>IF([1]raw_data!K25&gt;[1]LOQ!K25,ROUND(([1]raw_data!K25/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K25/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,54</v>
+        <v>&lt;0.54</v>
       </c>
       <c r="L25" s="13" t="str">
         <f>IF([1]raw_data!L25&gt;[1]LOQ!L25,ROUND(([1]raw_data!L25/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L25/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,715</v>
+        <v>&lt;0.715</v>
       </c>
       <c r="M25" s="13" t="str">
         <f>IF([1]raw_data!M25&gt;[1]LOQ!M25,ROUND(([1]raw_data!M25/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M25/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,493</v>
+        <v>&lt;0.493</v>
       </c>
       <c r="N25" s="13" t="str">
         <f>IF([1]raw_data!N25&gt;[1]LOQ!N25,ROUND(([1]raw_data!N25/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N25/[1]raw_data!N$37),3))))</f>
-        <v>&lt;1,773</v>
+        <v>&lt;1.773</v>
       </c>
       <c r="O25" s="13" t="str">
         <f>IF([1]raw_data!O25&gt;[1]LOQ!O25,ROUND(([1]raw_data!O25/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O25/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,46</v>
+        <v>&lt;0.46</v>
       </c>
       <c r="P25" s="13" t="str">
         <f>IF([1]raw_data!P25&gt;[1]LOQ!P25,ROUND(([1]raw_data!P25/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P25/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,659</v>
+        <v>&lt;0.659</v>
       </c>
       <c r="Q25" s="13" t="str">
         <f>IF([1]raw_data!Q25&gt;[1]LOQ!Q25,ROUND(([1]raw_data!Q25/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q25/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,983</v>
+        <v>&lt;0.983</v>
       </c>
       <c r="R25" s="13" t="str">
         <f>IF([1]raw_data!R25&gt;[1]LOQ!R25,ROUND(([1]raw_data!R25/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R25/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,042</v>
+        <v>&lt;0.042</v>
       </c>
       <c r="S25" s="13" t="str">
         <f>IF([1]raw_data!S25&gt;[1]LOQ!S25,ROUND(([1]raw_data!S25/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S25/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,049</v>
+        <v>&lt;0.049</v>
       </c>
       <c r="T25" s="13" t="str">
         <f>IF([1]raw_data!T25&gt;[1]LOQ!T25,ROUND(([1]raw_data!T25/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T25/[1]raw_data!T$37),3))))</f>
-        <v>&lt;1,56</v>
+        <v>&lt;1.56</v>
       </c>
       <c r="U25" s="13" t="str">
         <f>IF([1]raw_data!U25&gt;[1]LOQ!U25,ROUND(([1]raw_data!U25/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U25/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,663</v>
+        <v>&lt;0.663</v>
       </c>
       <c r="V25" s="13" t="str">
         <f>IF([1]raw_data!V25&gt;[1]LOQ!V25,ROUND(([1]raw_data!V25/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V25/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,453</v>
+        <v>&lt;0.453</v>
       </c>
       <c r="W25" s="13" t="str">
         <f>IF([1]raw_data!W25&gt;[1]LOQ!W25,ROUND(([1]raw_data!W25/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W25/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,625</v>
+        <v>&lt;0.625</v>
       </c>
       <c r="X25" s="13" t="str">
         <f>IF([1]raw_data!X25&gt;[1]LOQ!X25,ROUND(([1]raw_data!X25/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X25/[1]raw_data!X$37),3))))</f>
-        <v>&lt;1,189</v>
+        <v>&lt;1.189</v>
       </c>
       <c r="Y25" s="13" t="str">
         <f>IF([1]raw_data!Y25&gt;[1]LOQ!Y25,ROUND(([1]raw_data!Y25/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y25/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;1,071</v>
+        <v>&lt;1.071</v>
       </c>
       <c r="Z25" s="13" t="str">
         <f>IF([1]raw_data!Z25&gt;[1]LOQ!Z25,ROUND(([1]raw_data!Z25/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z25/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,442</v>
+        <v>&lt;0.442</v>
       </c>
       <c r="AA25" s="13" t="str">
         <f>IF([1]raw_data!AA25&gt;[1]LOQ!AA25,ROUND(([1]raw_data!AA25/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA25/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,691</v>
+        <v>&lt;0.691</v>
       </c>
       <c r="AB25" s="13" t="str">
         <f>IF([1]raw_data!AB25&gt;[1]LOQ!AB25,ROUND(([1]raw_data!AB25/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB25/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,041</v>
+        <v>&lt;0.041</v>
       </c>
       <c r="AC25" s="13" t="str">
         <f>IF([1]raw_data!AC25&gt;[1]LOQ!AC25,ROUND(([1]raw_data!AC25/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC25/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,042</v>
+        <v>&lt;0.042</v>
       </c>
       <c r="AD25" s="13" t="str">
         <f>IF([1]raw_data!AD25&gt;[1]LOQ!AD25,ROUND(([1]raw_data!AD25/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD25/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,514</v>
+        <v>&lt;0.514</v>
       </c>
       <c r="AE25" s="13" t="str">
         <f>IF([1]raw_data!AE25&gt;[1]LOQ!AE25,ROUND(([1]raw_data!AE25/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE25/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,565</v>
+        <v>&lt;0.565</v>
       </c>
       <c r="AF25" s="13" t="str">
         <f>IF([1]raw_data!AF25&gt;[1]LOQ!AF25,ROUND(([1]raw_data!AF25/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF25/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,042</v>
+        <v>&lt;0.042</v>
       </c>
       <c r="AG25" s="13" t="str">
         <f>IF([1]raw_data!AG25&gt;[1]LOQ!AG25,ROUND(([1]raw_data!AG25/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG25/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,036</v>
+        <v>&lt;0.036</v>
       </c>
       <c r="AH25" s="13" t="str">
         <f>IF([1]raw_data!AH25&gt;[1]LOQ!AH25,ROUND(([1]raw_data!AH25/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH25/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,473</v>
+        <v>&lt;0.473</v>
       </c>
       <c r="AI25" s="13" t="str">
         <f>IF([1]raw_data!AI25&gt;[1]LOQ!AI25,ROUND(([1]raw_data!AI25/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI25/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,429</v>
+        <v>&lt;0.429</v>
       </c>
       <c r="AJ25" s="13" t="str">
         <f>IF([1]raw_data!AJ25&gt;[1]LOQ!AJ25,ROUND(([1]raw_data!AJ25/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ25/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,649</v>
+        <v>&lt;0.649</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A26" s="13" t="s">
         <v>152</v>
       </c>
@@ -29749,134 +29749,134 @@
       </c>
       <c r="E26" s="13" t="str">
         <f>IF([1]raw_data!E26&gt;[1]LOQ!E26,ROUND(([1]raw_data!E26/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E26/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,02</v>
+        <v>&lt;0.02</v>
       </c>
       <c r="F26" s="13" t="str">
         <f>IF([1]raw_data!F26&gt;[1]LOQ!F26,ROUND(([1]raw_data!F26/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F26/[1]raw_data!F$37),3))))</f>
-        <v>&lt;1,32</v>
+        <v>&lt;1.32</v>
       </c>
       <c r="G26" s="13" t="str">
         <f>IF([1]raw_data!G26&gt;[1]LOQ!G26,ROUND(([1]raw_data!G26/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G26/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,03</v>
+        <v>&lt;0.03</v>
       </c>
       <c r="H26" s="13" t="str">
         <f>IF([1]raw_data!H26&gt;[1]LOQ!H26,ROUND(([1]raw_data!H26/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H26/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,573</v>
+        <v>&lt;0.573</v>
       </c>
       <c r="I26" s="13" t="str">
         <f>IF([1]raw_data!I26&gt;[1]LOQ!I26,ROUND(([1]raw_data!I26/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I26/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,138</v>
+        <v>&lt;0.138</v>
       </c>
       <c r="J26" s="13" t="str">
         <f>IF([1]raw_data!J26&gt;[1]LOQ!J26,ROUND(([1]raw_data!J26/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J26/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,195</v>
+        <v>&lt;0.195</v>
       </c>
       <c r="K26" s="13" t="str">
         <f>IF([1]raw_data!K26&gt;[1]LOQ!K26,ROUND(([1]raw_data!K26/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K26/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,27</v>
+        <v>&lt;0.27</v>
       </c>
       <c r="L26" s="13" t="str">
         <f>IF([1]raw_data!L26&gt;[1]LOQ!L26,ROUND(([1]raw_data!L26/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L26/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,314</v>
+        <v>&lt;0.314</v>
       </c>
       <c r="M26" s="13" t="str">
         <f>IF([1]raw_data!M26&gt;[1]LOQ!M26,ROUND(([1]raw_data!M26/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M26/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,269</v>
+        <v>&lt;0.269</v>
       </c>
       <c r="N26" s="13" t="str">
         <f>IF([1]raw_data!N26&gt;[1]LOQ!N26,ROUND(([1]raw_data!N26/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N26/[1]raw_data!N$37),3))))</f>
-        <v>&lt;0,507</v>
+        <v>&lt;0.507</v>
       </c>
       <c r="O26" s="13" t="str">
         <f>IF([1]raw_data!O26&gt;[1]LOQ!O26,ROUND(([1]raw_data!O26/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O26/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,38</v>
+        <v>&lt;0.38</v>
       </c>
       <c r="P26" s="13" t="str">
         <f>IF([1]raw_data!P26&gt;[1]LOQ!P26,ROUND(([1]raw_data!P26/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P26/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,284</v>
+        <v>&lt;0.284</v>
       </c>
       <c r="Q26" s="13" t="str">
         <f>IF([1]raw_data!Q26&gt;[1]LOQ!Q26,ROUND(([1]raw_data!Q26/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q26/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,755</v>
+        <v>&lt;0.755</v>
       </c>
       <c r="R26" s="13" t="str">
         <f>IF([1]raw_data!R26&gt;[1]LOQ!R26,ROUND(([1]raw_data!R26/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R26/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,024</v>
+        <v>&lt;0.024</v>
       </c>
       <c r="S26" s="13" t="str">
         <f>IF([1]raw_data!S26&gt;[1]LOQ!S26,ROUND(([1]raw_data!S26/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S26/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,072</v>
+        <v>&lt;0.072</v>
       </c>
       <c r="T26" s="13" t="str">
         <f>IF([1]raw_data!T26&gt;[1]LOQ!T26,ROUND(([1]raw_data!T26/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T26/[1]raw_data!T$37),3))))</f>
-        <v>&lt;2,237</v>
+        <v>&lt;2.237</v>
       </c>
       <c r="U26" s="13" t="str">
         <f>IF([1]raw_data!U26&gt;[1]LOQ!U26,ROUND(([1]raw_data!U26/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U26/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,305</v>
+        <v>&lt;0.305</v>
       </c>
       <c r="V26" s="13" t="str">
         <f>IF([1]raw_data!V26&gt;[1]LOQ!V26,ROUND(([1]raw_data!V26/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V26/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,169</v>
+        <v>&lt;0.169</v>
       </c>
       <c r="W26" s="13" t="str">
         <f>IF([1]raw_data!W26&gt;[1]LOQ!W26,ROUND(([1]raw_data!W26/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W26/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,175</v>
+        <v>&lt;0.175</v>
       </c>
       <c r="X26" s="13" t="str">
         <f>IF([1]raw_data!X26&gt;[1]LOQ!X26,ROUND(([1]raw_data!X26/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X26/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,414</v>
+        <v>&lt;0.414</v>
       </c>
       <c r="Y26" s="13" t="str">
         <f>IF([1]raw_data!Y26&gt;[1]LOQ!Y26,ROUND(([1]raw_data!Y26/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y26/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,389</v>
+        <v>&lt;0.389</v>
       </c>
       <c r="Z26" s="13" t="str">
         <f>IF([1]raw_data!Z26&gt;[1]LOQ!Z26,ROUND(([1]raw_data!Z26/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z26/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,163</v>
+        <v>&lt;0.163</v>
       </c>
       <c r="AA26" s="13" t="str">
         <f>IF([1]raw_data!AA26&gt;[1]LOQ!AA26,ROUND(([1]raw_data!AA26/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA26/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,243</v>
+        <v>&lt;0.243</v>
       </c>
       <c r="AB26" s="13" t="str">
         <f>IF([1]raw_data!AB26&gt;[1]LOQ!AB26,ROUND(([1]raw_data!AB26/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB26/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,024</v>
+        <v>&lt;0.024</v>
       </c>
       <c r="AC26" s="13" t="str">
         <f>IF([1]raw_data!AC26&gt;[1]LOQ!AC26,ROUND(([1]raw_data!AC26/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC26/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,114</v>
+        <v>&lt;0.114</v>
       </c>
       <c r="AD26" s="13" t="str">
         <f>IF([1]raw_data!AD26&gt;[1]LOQ!AD26,ROUND(([1]raw_data!AD26/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD26/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;1,781</v>
+        <v>&lt;1.781</v>
       </c>
       <c r="AE26" s="13" t="str">
         <f>IF([1]raw_data!AE26&gt;[1]LOQ!AE26,ROUND(([1]raw_data!AE26/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE26/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,257</v>
+        <v>&lt;0.257</v>
       </c>
       <c r="AF26" s="13" t="str">
         <f>IF([1]raw_data!AF26&gt;[1]LOQ!AF26,ROUND(([1]raw_data!AF26/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF26/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,036</v>
+        <v>&lt;0.036</v>
       </c>
       <c r="AG26" s="13" t="str">
         <f>IF([1]raw_data!AG26&gt;[1]LOQ!AG26,ROUND(([1]raw_data!AG26/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG26/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,069</v>
+        <v>&lt;0.069</v>
       </c>
       <c r="AH26" s="13" t="str">
         <f>IF([1]raw_data!AH26&gt;[1]LOQ!AH26,ROUND(([1]raw_data!AH26/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH26/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,804</v>
+        <v>&lt;0.804</v>
       </c>
       <c r="AI26" s="13" t="str">
         <f>IF([1]raw_data!AI26&gt;[1]LOQ!AI26,ROUND(([1]raw_data!AI26/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI26/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,188</v>
+        <v>&lt;0.188</v>
       </c>
       <c r="AJ26" s="13" t="str">
         <f>IF([1]raw_data!AJ26&gt;[1]LOQ!AJ26,ROUND(([1]raw_data!AJ26/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ26/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,388</v>
+        <v>&lt;0.388</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A27" s="13" t="s">
         <v>153</v>
       </c>
@@ -29894,134 +29894,134 @@
       </c>
       <c r="E27" s="13" t="str">
         <f>IF([1]raw_data!E27&gt;[1]LOQ!E27,ROUND(([1]raw_data!E27/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E27/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,007</v>
+        <v>&lt;0.007</v>
       </c>
       <c r="F27" s="13" t="str">
         <f>IF([1]raw_data!F27&gt;[1]LOQ!F27,ROUND(([1]raw_data!F27/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F27/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,074</v>
+        <v>&lt;0.074</v>
       </c>
       <c r="G27" s="13" t="str">
         <f>IF([1]raw_data!G27&gt;[1]LOQ!G27,ROUND(([1]raw_data!G27/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G27/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="H27" s="13" t="str">
         <f>IF([1]raw_data!H27&gt;[1]LOQ!H27,ROUND(([1]raw_data!H27/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H27/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,097</v>
+        <v>&lt;0.097</v>
       </c>
       <c r="I27" s="13" t="str">
         <f>IF([1]raw_data!I27&gt;[1]LOQ!I27,ROUND(([1]raw_data!I27/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I27/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,064</v>
+        <v>&lt;0.064</v>
       </c>
       <c r="J27" s="13" t="str">
         <f>IF([1]raw_data!J27&gt;[1]LOQ!J27,ROUND(([1]raw_data!J27/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J27/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,172</v>
+        <v>&lt;0.172</v>
       </c>
       <c r="K27" s="13" t="str">
         <f>IF([1]raw_data!K27&gt;[1]LOQ!K27,ROUND(([1]raw_data!K27/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K27/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,108</v>
+        <v>&lt;0.108</v>
       </c>
       <c r="L27" s="13" t="str">
         <f>IF([1]raw_data!L27&gt;[1]LOQ!L27,ROUND(([1]raw_data!L27/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L27/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,193</v>
+        <v>&lt;0.193</v>
       </c>
       <c r="M27" s="13" t="str">
         <f>IF([1]raw_data!M27&gt;[1]LOQ!M27,ROUND(([1]raw_data!M27/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M27/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,134</v>
+        <v>&lt;0.134</v>
       </c>
       <c r="N27" s="13" t="str">
         <f>IF([1]raw_data!N27&gt;[1]LOQ!N27,ROUND(([1]raw_data!N27/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N27/[1]raw_data!N$37),3))))</f>
-        <v>&lt;0,241</v>
+        <v>&lt;0.241</v>
       </c>
       <c r="O27" s="13" t="str">
         <f>IF([1]raw_data!O27&gt;[1]LOQ!O27,ROUND(([1]raw_data!O27/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O27/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,114</v>
+        <v>&lt;0.114</v>
       </c>
       <c r="P27" s="13" t="str">
         <f>IF([1]raw_data!P27&gt;[1]LOQ!P27,ROUND(([1]raw_data!P27/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P27/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,097</v>
+        <v>&lt;0.097</v>
       </c>
       <c r="Q27" s="13" t="str">
         <f>IF([1]raw_data!Q27&gt;[1]LOQ!Q27,ROUND(([1]raw_data!Q27/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q27/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,196</v>
+        <v>&lt;0.196</v>
       </c>
       <c r="R27" s="13" t="str">
         <f>IF([1]raw_data!R27&gt;[1]LOQ!R27,ROUND(([1]raw_data!R27/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R27/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,006</v>
+        <v>&lt;0.006</v>
       </c>
       <c r="S27" s="13" t="str">
         <f>IF([1]raw_data!S27&gt;[1]LOQ!S27,ROUND(([1]raw_data!S27/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S27/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="T27" s="13" t="str">
         <f>IF([1]raw_data!T27&gt;[1]LOQ!T27,ROUND(([1]raw_data!T27/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T27/[1]raw_data!T$37),3))))</f>
-        <v>&lt;0,231</v>
+        <v>&lt;0.231</v>
       </c>
       <c r="U27" s="13" t="str">
         <f>IF([1]raw_data!U27&gt;[1]LOQ!U27,ROUND(([1]raw_data!U27/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U27/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,082</v>
+        <v>&lt;0.082</v>
       </c>
       <c r="V27" s="13" t="str">
         <f>IF([1]raw_data!V27&gt;[1]LOQ!V27,ROUND(([1]raw_data!V27/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V27/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,06</v>
+        <v>&lt;0.06</v>
       </c>
       <c r="W27" s="13" t="str">
         <f>IF([1]raw_data!W27&gt;[1]LOQ!W27,ROUND(([1]raw_data!W27/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W27/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,074</v>
+        <v>&lt;0.074</v>
       </c>
       <c r="X27" s="13" t="str">
         <f>IF([1]raw_data!X27&gt;[1]LOQ!X27,ROUND(([1]raw_data!X27/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X27/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,23</v>
+        <v>&lt;0.23</v>
       </c>
       <c r="Y27" s="13" t="str">
         <f>IF([1]raw_data!Y27&gt;[1]LOQ!Y27,ROUND(([1]raw_data!Y27/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y27/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,143</v>
+        <v>&lt;0.143</v>
       </c>
       <c r="Z27" s="13" t="str">
         <f>IF([1]raw_data!Z27&gt;[1]LOQ!Z27,ROUND(([1]raw_data!Z27/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z27/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,067</v>
+        <v>&lt;0.067</v>
       </c>
       <c r="AA27" s="13" t="str">
         <f>IF([1]raw_data!AA27&gt;[1]LOQ!AA27,ROUND(([1]raw_data!AA27/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA27/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,073</v>
+        <v>&lt;0.073</v>
       </c>
       <c r="AB27" s="13" t="str">
         <f>IF([1]raw_data!AB27&gt;[1]LOQ!AB27,ROUND(([1]raw_data!AB27/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB27/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="AC27" s="13" t="str">
         <f>IF([1]raw_data!AC27&gt;[1]LOQ!AC27,ROUND(([1]raw_data!AC27/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC27/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,005</v>
+        <v>&lt;0.005</v>
       </c>
       <c r="AD27" s="13" t="str">
         <f>IF([1]raw_data!AD27&gt;[1]LOQ!AD27,ROUND(([1]raw_data!AD27/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD27/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;0,112</v>
+        <v>&lt;0.112</v>
       </c>
       <c r="AE27" s="13" t="str">
         <f>IF([1]raw_data!AE27&gt;[1]LOQ!AE27,ROUND(([1]raw_data!AE27/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE27/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,083</v>
+        <v>&lt;0.083</v>
       </c>
       <c r="AF27" s="13" t="str">
         <f>IF([1]raw_data!AF27&gt;[1]LOQ!AF27,ROUND(([1]raw_data!AF27/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF27/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,006</v>
+        <v>&lt;0.006</v>
       </c>
       <c r="AG27" s="13" t="str">
         <f>IF([1]raw_data!AG27&gt;[1]LOQ!AG27,ROUND(([1]raw_data!AG27/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG27/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,006</v>
+        <v>&lt;0.006</v>
       </c>
       <c r="AH27" s="13" t="str">
         <f>IF([1]raw_data!AH27&gt;[1]LOQ!AH27,ROUND(([1]raw_data!AH27/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH27/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,094</v>
+        <v>&lt;0.094</v>
       </c>
       <c r="AI27" s="13" t="str">
         <f>IF([1]raw_data!AI27&gt;[1]LOQ!AI27,ROUND(([1]raw_data!AI27/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI27/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,052</v>
+        <v>&lt;0.052</v>
       </c>
       <c r="AJ27" s="13" t="str">
         <f>IF([1]raw_data!AJ27&gt;[1]LOQ!AJ27,ROUND(([1]raw_data!AJ27/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ27/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,109</v>
+        <v>&lt;0.109</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A28" s="13" t="s">
         <v>154</v>
       </c>
@@ -30039,134 +30039,134 @@
       </c>
       <c r="E28" s="13" t="str">
         <f>IF([1]raw_data!E28&gt;[1]LOQ!E28,ROUND(([1]raw_data!E28/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E28/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,012</v>
+        <v>&lt;0.012</v>
       </c>
       <c r="F28" s="13" t="str">
         <f>IF([1]raw_data!F28&gt;[1]LOQ!F28,ROUND(([1]raw_data!F28/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F28/[1]raw_data!F$37),3))))</f>
-        <v>&lt;0,751</v>
+        <v>&lt;0.751</v>
       </c>
       <c r="G28" s="13" t="str">
         <f>IF([1]raw_data!G28&gt;[1]LOQ!G28,ROUND(([1]raw_data!G28/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G28/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,017</v>
+        <v>&lt;0.017</v>
       </c>
       <c r="H28" s="13" t="str">
         <f>IF([1]raw_data!H28&gt;[1]LOQ!H28,ROUND(([1]raw_data!H28/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H28/[1]raw_data!H$37),3))))</f>
-        <v>&lt;0,326</v>
+        <v>&lt;0.326</v>
       </c>
       <c r="I28" s="13" t="str">
         <f>IF([1]raw_data!I28&gt;[1]LOQ!I28,ROUND(([1]raw_data!I28/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I28/[1]raw_data!I$37),3))))</f>
-        <v>&lt;0,079</v>
+        <v>&lt;0.079</v>
       </c>
       <c r="J28" s="13" t="str">
         <f>IF([1]raw_data!J28&gt;[1]LOQ!J28,ROUND(([1]raw_data!J28/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J28/[1]raw_data!J$37),3))))</f>
-        <v>&lt;0,111</v>
+        <v>&lt;0.111</v>
       </c>
       <c r="K28" s="13" t="str">
         <f>IF([1]raw_data!K28&gt;[1]LOQ!K28,ROUND(([1]raw_data!K28/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K28/[1]raw_data!K$37),3))))</f>
-        <v>&lt;0,153</v>
+        <v>&lt;0.153</v>
       </c>
       <c r="L28" s="13" t="str">
         <f>IF([1]raw_data!L28&gt;[1]LOQ!L28,ROUND(([1]raw_data!L28/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L28/[1]raw_data!L$37),3))))</f>
-        <v>&lt;0,179</v>
+        <v>&lt;0.179</v>
       </c>
       <c r="M28" s="13" t="str">
         <f>IF([1]raw_data!M28&gt;[1]LOQ!M28,ROUND(([1]raw_data!M28/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M28/[1]raw_data!M$37),3))))</f>
-        <v>&lt;0,153</v>
+        <v>&lt;0.153</v>
       </c>
       <c r="N28" s="13" t="str">
         <f>IF([1]raw_data!N28&gt;[1]LOQ!N28,ROUND(([1]raw_data!N28/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N28/[1]raw_data!N$37),3))))</f>
-        <v>&lt;0,288</v>
+        <v>&lt;0.288</v>
       </c>
       <c r="O28" s="13" t="str">
         <f>IF([1]raw_data!O28&gt;[1]LOQ!O28,ROUND(([1]raw_data!O28/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O28/[1]raw_data!O$37),3))))</f>
-        <v>&lt;0,216</v>
+        <v>&lt;0.216</v>
       </c>
       <c r="P28" s="13" t="str">
         <f>IF([1]raw_data!P28&gt;[1]LOQ!P28,ROUND(([1]raw_data!P28/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P28/[1]raw_data!P$37),3))))</f>
-        <v>&lt;0,162</v>
+        <v>&lt;0.162</v>
       </c>
       <c r="Q28" s="13" t="str">
         <f>IF([1]raw_data!Q28&gt;[1]LOQ!Q28,ROUND(([1]raw_data!Q28/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q28/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;0,429</v>
+        <v>&lt;0.429</v>
       </c>
       <c r="R28" s="13" t="str">
         <f>IF([1]raw_data!R28&gt;[1]LOQ!R28,ROUND(([1]raw_data!R28/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R28/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,013</v>
+        <v>&lt;0.013</v>
       </c>
       <c r="S28" s="13" t="str">
         <f>IF([1]raw_data!S28&gt;[1]LOQ!S28,ROUND(([1]raw_data!S28/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S28/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,041</v>
+        <v>&lt;0.041</v>
       </c>
       <c r="T28" s="13" t="str">
         <f>IF([1]raw_data!T28&gt;[1]LOQ!T28,ROUND(([1]raw_data!T28/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T28/[1]raw_data!T$37),3))))</f>
-        <v>&lt;1,272</v>
+        <v>&lt;1.272</v>
       </c>
       <c r="U28" s="13" t="str">
         <f>IF([1]raw_data!U28&gt;[1]LOQ!U28,ROUND(([1]raw_data!U28/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U28/[1]raw_data!U$37),3))))</f>
-        <v>&lt;0,174</v>
+        <v>&lt;0.174</v>
       </c>
       <c r="V28" s="13" t="str">
         <f>IF([1]raw_data!V28&gt;[1]LOQ!V28,ROUND(([1]raw_data!V28/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V28/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,096</v>
+        <v>&lt;0.096</v>
       </c>
       <c r="W28" s="13" t="str">
         <f>IF([1]raw_data!W28&gt;[1]LOQ!W28,ROUND(([1]raw_data!W28/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W28/[1]raw_data!W$37),3))))</f>
-        <v>&lt;0,099</v>
+        <v>&lt;0.099</v>
       </c>
       <c r="X28" s="13" t="str">
         <f>IF([1]raw_data!X28&gt;[1]LOQ!X28,ROUND(([1]raw_data!X28/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X28/[1]raw_data!X$37),3))))</f>
-        <v>&lt;0,235</v>
+        <v>&lt;0.235</v>
       </c>
       <c r="Y28" s="13" t="str">
         <f>IF([1]raw_data!Y28&gt;[1]LOQ!Y28,ROUND(([1]raw_data!Y28/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y28/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;0,221</v>
+        <v>&lt;0.221</v>
       </c>
       <c r="Z28" s="13" t="str">
         <f>IF([1]raw_data!Z28&gt;[1]LOQ!Z28,ROUND(([1]raw_data!Z28/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z28/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;0,093</v>
+        <v>&lt;0.093</v>
       </c>
       <c r="AA28" s="13" t="str">
         <f>IF([1]raw_data!AA28&gt;[1]LOQ!AA28,ROUND(([1]raw_data!AA28/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA28/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,138</v>
+        <v>&lt;0.138</v>
       </c>
       <c r="AB28" s="13" t="str">
         <f>IF([1]raw_data!AB28&gt;[1]LOQ!AB28,ROUND(([1]raw_data!AB28/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB28/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,014</v>
+        <v>&lt;0.014</v>
       </c>
       <c r="AC28" s="13" t="str">
         <f>IF([1]raw_data!AC28&gt;[1]LOQ!AC28,ROUND(([1]raw_data!AC28/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC28/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,065</v>
+        <v>&lt;0.065</v>
       </c>
       <c r="AD28" s="13" t="str">
         <f>IF([1]raw_data!AD28&gt;[1]LOQ!AD28,ROUND(([1]raw_data!AD28/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD28/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;1,013</v>
+        <v>&lt;1.013</v>
       </c>
       <c r="AE28" s="13" t="str">
         <f>IF([1]raw_data!AE28&gt;[1]LOQ!AE28,ROUND(([1]raw_data!AE28/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE28/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;0,146</v>
+        <v>&lt;0.146</v>
       </c>
       <c r="AF28" s="13" t="str">
         <f>IF([1]raw_data!AF28&gt;[1]LOQ!AF28,ROUND(([1]raw_data!AF28/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF28/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,021</v>
+        <v>&lt;0.021</v>
       </c>
       <c r="AG28" s="13" t="str">
         <f>IF([1]raw_data!AG28&gt;[1]LOQ!AG28,ROUND(([1]raw_data!AG28/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG28/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,039</v>
+        <v>&lt;0.039</v>
       </c>
       <c r="AH28" s="13" t="str">
         <f>IF([1]raw_data!AH28&gt;[1]LOQ!AH28,ROUND(([1]raw_data!AH28/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH28/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;0,457</v>
+        <v>&lt;0.457</v>
       </c>
       <c r="AI28" s="13" t="str">
         <f>IF([1]raw_data!AI28&gt;[1]LOQ!AI28,ROUND(([1]raw_data!AI28/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI28/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,107</v>
+        <v>&lt;0.107</v>
       </c>
       <c r="AJ28" s="13" t="str">
         <f>IF([1]raw_data!AJ28&gt;[1]LOQ!AJ28,ROUND(([1]raw_data!AJ28/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ28/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;0,221</v>
+        <v>&lt;0.221</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A29" s="13" t="s">
         <v>155</v>
       </c>
@@ -30184,31 +30184,31 @@
       </c>
       <c r="E29" s="13" t="str">
         <f>IF([1]raw_data!E29&gt;[1]LOQ!E29,ROUND(([1]raw_data!E29/[1]raw_data!E$37),3),CONCATENATE(([1]LOQ!E$30),(ROUND(([1]LOQ!E29/[1]raw_data!E$37),3))))</f>
-        <v>&lt;0,148</v>
+        <v>&lt;0.148</v>
       </c>
       <c r="F29" s="13" t="str">
         <f>IF([1]raw_data!F29&gt;[1]LOQ!F29,ROUND(([1]raw_data!F29/[1]raw_data!F$37),3),CONCATENATE(([1]LOQ!F$30),(ROUND(([1]LOQ!F29/[1]raw_data!F$37),3))))</f>
-        <v>&lt;2,89</v>
+        <v>&lt;2.89</v>
       </c>
       <c r="G29" s="13" t="str">
         <f>IF([1]raw_data!G29&gt;[1]LOQ!G29,ROUND(([1]raw_data!G29/[1]raw_data!G$37),3),CONCATENATE(([1]LOQ!G$30),(ROUND(([1]LOQ!G29/[1]raw_data!G$37),3))))</f>
-        <v>&lt;0,131</v>
+        <v>&lt;0.131</v>
       </c>
       <c r="H29" s="13" t="str">
         <f>IF([1]raw_data!H29&gt;[1]LOQ!H29,ROUND(([1]raw_data!H29/[1]raw_data!H$37),3),CONCATENATE(([1]LOQ!H$30),(ROUND(([1]LOQ!H29/[1]raw_data!H$37),3))))</f>
-        <v>&lt;3,053</v>
+        <v>&lt;3.053</v>
       </c>
       <c r="I29" s="13" t="str">
         <f>IF([1]raw_data!I29&gt;[1]LOQ!I29,ROUND(([1]raw_data!I29/[1]raw_data!I$37),3),CONCATENATE(([1]LOQ!I$30),(ROUND(([1]LOQ!I29/[1]raw_data!I$37),3))))</f>
-        <v>&lt;1,118</v>
+        <v>&lt;1.118</v>
       </c>
       <c r="J29" s="13" t="str">
         <f>IF([1]raw_data!J29&gt;[1]LOQ!J29,ROUND(([1]raw_data!J29/[1]raw_data!J$37),3),CONCATENATE(([1]LOQ!J$30),(ROUND(([1]LOQ!J29/[1]raw_data!J$37),3))))</f>
-        <v>&lt;1,049</v>
+        <v>&lt;1.049</v>
       </c>
       <c r="K29" s="13" t="str">
         <f>IF([1]raw_data!K29&gt;[1]LOQ!K29,ROUND(([1]raw_data!K29/[1]raw_data!K$37),3),CONCATENATE(([1]LOQ!K$30),(ROUND(([1]LOQ!K29/[1]raw_data!K$37),3))))</f>
-        <v>&lt;2,447</v>
+        <v>&lt;2.447</v>
       </c>
       <c r="L29" s="13">
         <f>IF([1]raw_data!L29&gt;[1]LOQ!L29,ROUND(([1]raw_data!L29/[1]raw_data!L$37),3),CONCATENATE(([1]LOQ!L$30),(ROUND(([1]LOQ!L29/[1]raw_data!L$37),3))))</f>
@@ -30216,99 +30216,99 @@
       </c>
       <c r="M29" s="13" t="str">
         <f>IF([1]raw_data!M29&gt;[1]LOQ!M29,ROUND(([1]raw_data!M29/[1]raw_data!M$37),3),CONCATENATE(([1]LOQ!M$30),(ROUND(([1]LOQ!M29/[1]raw_data!M$37),3))))</f>
-        <v>&lt;1,282</v>
+        <v>&lt;1.282</v>
       </c>
       <c r="N29" s="13" t="str">
         <f>IF([1]raw_data!N29&gt;[1]LOQ!N29,ROUND(([1]raw_data!N29/[1]raw_data!N$37),3),CONCATENATE(([1]LOQ!N$30),(ROUND(([1]LOQ!N29/[1]raw_data!N$37),3))))</f>
-        <v>&lt;3,363</v>
+        <v>&lt;3.363</v>
       </c>
       <c r="O29" s="13" t="str">
         <f>IF([1]raw_data!O29&gt;[1]LOQ!O29,ROUND(([1]raw_data!O29/[1]raw_data!O$37),3),CONCATENATE(([1]LOQ!O$30),(ROUND(([1]LOQ!O29/[1]raw_data!O$37),3))))</f>
-        <v>&lt;1,017</v>
+        <v>&lt;1.017</v>
       </c>
       <c r="P29" s="13" t="str">
         <f>IF([1]raw_data!P29&gt;[1]LOQ!P29,ROUND(([1]raw_data!P29/[1]raw_data!P$37),3),CONCATENATE(([1]LOQ!P$30),(ROUND(([1]LOQ!P29/[1]raw_data!P$37),3))))</f>
-        <v>&lt;1,161</v>
+        <v>&lt;1.161</v>
       </c>
       <c r="Q29" s="13" t="str">
         <f>IF([1]raw_data!Q29&gt;[1]LOQ!Q29,ROUND(([1]raw_data!Q29/[1]raw_data!Q$37),3),CONCATENATE(([1]LOQ!Q$30),(ROUND(([1]LOQ!Q29/[1]raw_data!Q$37),3))))</f>
-        <v>&lt;2,714</v>
+        <v>&lt;2.714</v>
       </c>
       <c r="R29" s="13" t="str">
         <f>IF([1]raw_data!R29&gt;[1]LOQ!R29,ROUND(([1]raw_data!R29/[1]raw_data!R$37),3),CONCATENATE(([1]LOQ!R$30),(ROUND(([1]LOQ!R29/[1]raw_data!R$37),3))))</f>
-        <v>&lt;0,105</v>
+        <v>&lt;0.105</v>
       </c>
       <c r="S29" s="13" t="str">
         <f>IF([1]raw_data!S29&gt;[1]LOQ!S29,ROUND(([1]raw_data!S29/[1]raw_data!S$37),3),CONCATENATE(([1]LOQ!S$30),(ROUND(([1]LOQ!S29/[1]raw_data!S$37),3))))</f>
-        <v>&lt;0,265</v>
+        <v>&lt;0.265</v>
       </c>
       <c r="T29" s="13" t="str">
         <f>IF([1]raw_data!T29&gt;[1]LOQ!T29,ROUND(([1]raw_data!T29/[1]raw_data!T$37),3),CONCATENATE(([1]LOQ!T$30),(ROUND(([1]LOQ!T29/[1]raw_data!T$37),3))))</f>
-        <v>&lt;9,108</v>
+        <v>&lt;9.108</v>
       </c>
       <c r="U29" s="13" t="str">
         <f>IF([1]raw_data!U29&gt;[1]LOQ!U29,ROUND(([1]raw_data!U29/[1]raw_data!U$37),3),CONCATENATE(([1]LOQ!U$30),(ROUND(([1]LOQ!U29/[1]raw_data!U$37),3))))</f>
-        <v>&lt;1,089</v>
+        <v>&lt;1.089</v>
       </c>
       <c r="V29" s="13" t="str">
         <f>IF([1]raw_data!V29&gt;[1]LOQ!V29,ROUND(([1]raw_data!V29/[1]raw_data!V$37),3),CONCATENATE(([1]LOQ!V$30),(ROUND(([1]LOQ!V29/[1]raw_data!V$37),3))))</f>
-        <v>&lt;0,656</v>
+        <v>&lt;0.656</v>
       </c>
       <c r="W29" s="13" t="str">
         <f>IF([1]raw_data!W29&gt;[1]LOQ!W29,ROUND(([1]raw_data!W29/[1]raw_data!W$37),3),CONCATENATE(([1]LOQ!W$30),(ROUND(([1]LOQ!W29/[1]raw_data!W$37),3))))</f>
-        <v>&lt;1,018</v>
+        <v>&lt;1.018</v>
       </c>
       <c r="X29" s="13" t="str">
         <f>IF([1]raw_data!X29&gt;[1]LOQ!X29,ROUND(([1]raw_data!X29/[1]raw_data!X$37),3),CONCATENATE(([1]LOQ!X$30),(ROUND(([1]LOQ!X29/[1]raw_data!X$37),3))))</f>
-        <v>&lt;1,965</v>
+        <v>&lt;1.965</v>
       </c>
       <c r="Y29" s="13" t="str">
         <f>IF([1]raw_data!Y29&gt;[1]LOQ!Y29,ROUND(([1]raw_data!Y29/[1]raw_data!Y$37),3),CONCATENATE(([1]LOQ!Y$30),(ROUND(([1]LOQ!Y29/[1]raw_data!Y$37),3))))</f>
-        <v>&lt;1,891</v>
+        <v>&lt;1.891</v>
       </c>
       <c r="Z29" s="13" t="str">
         <f>IF([1]raw_data!Z29&gt;[1]LOQ!Z29,ROUND(([1]raw_data!Z29/[1]raw_data!Z$37),3),CONCATENATE(([1]LOQ!Z$30),(ROUND(([1]LOQ!Z29/[1]raw_data!Z$37),3))))</f>
-        <v>&lt;1,205</v>
+        <v>&lt;1.205</v>
       </c>
       <c r="AA29" s="13" t="str">
         <f>IF([1]raw_data!AA29&gt;[1]LOQ!AA29,ROUND(([1]raw_data!AA29/[1]raw_data!AA$37),3),CONCATENATE(([1]LOQ!AA$30),(ROUND(([1]LOQ!AA29/[1]raw_data!AA$37),3))))</f>
-        <v>&lt;0,983</v>
+        <v>&lt;0.983</v>
       </c>
       <c r="AB29" s="13" t="str">
         <f>IF([1]raw_data!AB29&gt;[1]LOQ!AB29,ROUND(([1]raw_data!AB29/[1]raw_data!AB$37),3),CONCATENATE(([1]LOQ!AB$30),(ROUND(([1]LOQ!AB29/[1]raw_data!AB$37),3))))</f>
-        <v>&lt;0,124</v>
+        <v>&lt;0.124</v>
       </c>
       <c r="AC29" s="13" t="str">
         <f>IF([1]raw_data!AC29&gt;[1]LOQ!AC29,ROUND(([1]raw_data!AC29/[1]raw_data!AC$37),3),CONCATENATE(([1]LOQ!AC$30),(ROUND(([1]LOQ!AC29/[1]raw_data!AC$37),3))))</f>
-        <v>&lt;0,276</v>
+        <v>&lt;0.276</v>
       </c>
       <c r="AD29" s="13" t="str">
         <f>IF([1]raw_data!AD29&gt;[1]LOQ!AD29,ROUND(([1]raw_data!AD29/[1]raw_data!AD$37),3),CONCATENATE(([1]LOQ!AD$30),(ROUND(([1]LOQ!AD29/[1]raw_data!AD$37),3))))</f>
-        <v>&lt;2,947</v>
+        <v>&lt;2.947</v>
       </c>
       <c r="AE29" s="13" t="str">
         <f>IF([1]raw_data!AE29&gt;[1]LOQ!AE29,ROUND(([1]raw_data!AE29/[1]raw_data!AE$37),3),CONCATENATE(([1]LOQ!AE$30),(ROUND(([1]LOQ!AE29/[1]raw_data!AE$37),3))))</f>
-        <v>&lt;1,312</v>
+        <v>&lt;1.312</v>
       </c>
       <c r="AF29" s="13" t="str">
         <f>IF([1]raw_data!AF29&gt;[1]LOQ!AF29,ROUND(([1]raw_data!AF29/[1]raw_data!AF$37),3),CONCATENATE(([1]LOQ!AF$30),(ROUND(([1]LOQ!AF29/[1]raw_data!AF$37),3))))</f>
-        <v>&lt;0,118</v>
+        <v>&lt;0.118</v>
       </c>
       <c r="AG29" s="13" t="str">
         <f>IF([1]raw_data!AG29&gt;[1]LOQ!AG29,ROUND(([1]raw_data!AG29/[1]raw_data!AG$37),3),CONCATENATE(([1]LOQ!AG$30),(ROUND(([1]LOQ!AG29/[1]raw_data!AG$37),3))))</f>
-        <v>&lt;0,33</v>
+        <v>&lt;0.33</v>
       </c>
       <c r="AH29" s="13" t="str">
         <f>IF([1]raw_data!AH29&gt;[1]LOQ!AH29,ROUND(([1]raw_data!AH29/[1]raw_data!AH$37),3),CONCATENATE(([1]LOQ!AH$30),(ROUND(([1]LOQ!AH29/[1]raw_data!AH$37),3))))</f>
-        <v>&lt;3,167</v>
+        <v>&lt;3.167</v>
       </c>
       <c r="AI29" s="13" t="str">
         <f>IF([1]raw_data!AI29&gt;[1]LOQ!AI29,ROUND(([1]raw_data!AI29/[1]raw_data!AI$37),3),CONCATENATE(([1]LOQ!AI$30),(ROUND(([1]LOQ!AI29/[1]raw_data!AI$37),3))))</f>
-        <v>&lt;0,734</v>
+        <v>&lt;0.734</v>
       </c>
       <c r="AJ29" s="13" t="str">
         <f>IF([1]raw_data!AJ29&gt;[1]LOQ!AJ29,ROUND(([1]raw_data!AJ29/[1]raw_data!AJ$37),3),CONCATENATE(([1]LOQ!AJ$30),(ROUND(([1]LOQ!AJ29/[1]raw_data!AJ$37),3))))</f>
-        <v>&lt;1,705</v>
+        <v>&lt;1.705</v>
       </c>
     </row>
   </sheetData>
